--- a/Data/ferny/Better Architect Menu - 3563882422/Better Architect Menu - 3563882422.xlsx
+++ b/Data/ferny/Better Architect Menu - 3563882422/Better Architect Menu - 3563882422.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjmi0\Desktop\림월드 번역\Better Architect Menu - 3563882422\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F6C2C0-7A08-42F7-9CDE-756C59C68F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691177CF-80C5-461C-9C26-35701D7CD352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,20 @@
     <author>bjmi0</author>
   </authors>
   <commentList>
-    <comment ref="D183" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E180" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-09-09 이전의 원문: 'Orbit'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D183" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -38,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D184" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D184" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -51,12 +64,25 @@
         </r>
       </text>
     </comment>
+    <comment ref="E190" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-09-09에 새로 추가된 노드들 (1개)</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="764">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -88,6 +114,9 @@
     <t>Colony</t>
   </si>
   <si>
+    <t>정착지</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Colony.description</t>
   </si>
   <si>
@@ -97,6 +126,9 @@
     <t>Manage the colony.</t>
   </si>
   <si>
+    <t>정착지를 관리합니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Seating.label</t>
   </si>
   <si>
@@ -106,6 +138,9 @@
     <t>Seating</t>
   </si>
   <si>
+    <t>좌석</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Seating.description</t>
   </si>
   <si>
@@ -115,6 +150,9 @@
     <t>Manage seating.</t>
   </si>
   <si>
+    <t>좌석을 관리합니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Tables.label</t>
   </si>
   <si>
@@ -124,6 +162,9 @@
     <t>Tables</t>
   </si>
   <si>
+    <t>탁자</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Tables.description</t>
   </si>
   <si>
@@ -133,6 +174,9 @@
     <t>Manage tables.</t>
   </si>
   <si>
+    <t>탁자를 관리합니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Lighting.label</t>
   </si>
   <si>
@@ -142,6 +186,9 @@
     <t>Lighting</t>
   </si>
   <si>
+    <t>조명</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Lighting.description</t>
   </si>
   <si>
@@ -151,6 +198,9 @@
     <t>Buildings that emit light.</t>
   </si>
   <si>
+    <t>빛을 내는 건물입니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Bedroom.label</t>
   </si>
   <si>
@@ -160,6 +210,9 @@
     <t>Bedroom</t>
   </si>
   <si>
+    <t>침실</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Bedroom.description</t>
   </si>
   <si>
@@ -172,12 +225,27 @@
     <t>DesignationCategoryDef+Ferny_Decorations.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>침실과 관련된 건물입니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_Decorations.label</t>
   </si>
   <si>
     <t>Decorations</t>
   </si>
   <si>
+    <t>장식</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Decorations.description</t>
   </si>
   <si>
@@ -187,6 +255,9 @@
     <t>Things that decorate.</t>
   </si>
   <si>
+    <t>장식용품입니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Production.label</t>
   </si>
   <si>
@@ -208,12 +279,27 @@
     <t>DesignationCategoryDef+Ferny_ProcessingProduction.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>물건을 만드는 작업대입니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_ProcessingProduction.label</t>
   </si>
   <si>
     <t>Process</t>
   </si>
   <si>
+    <t>가공</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_ProcessingProduction.description</t>
   </si>
   <si>
@@ -223,6 +309,9 @@
     <t>Processing production methods.</t>
   </si>
   <si>
+    <t>가공 생산 방식입니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_CreativeProduction.label</t>
   </si>
   <si>
@@ -241,6 +330,9 @@
     <t>Creative production methods.</t>
   </si>
   <si>
+    <t>창작 생산 방식입니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Kitchen.label</t>
   </si>
   <si>
@@ -259,6 +351,9 @@
     <t>Things that relate to food.</t>
   </si>
   <si>
+    <t>음식과 관련된 건물입니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Farming.label</t>
   </si>
   <si>
@@ -268,6 +363,9 @@
     <t>Farming</t>
   </si>
   <si>
+    <t>농사</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Farming.description</t>
   </si>
   <si>
@@ -277,6 +375,9 @@
     <t>Things that relate to agriculture.</t>
   </si>
   <si>
+    <t>농업과 관련된 건물입니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_ResearchProduction.label</t>
   </si>
   <si>
@@ -286,6 +387,9 @@
     <t>Research</t>
   </si>
   <si>
+    <t>연구</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_ResearchProduction.description</t>
   </si>
   <si>
@@ -295,6 +399,9 @@
     <t>Foundational production methods.</t>
   </si>
   <si>
+    <t>기초적인 생산 방식입니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Auxiliaries.label</t>
   </si>
   <si>
@@ -313,6 +420,9 @@
     <t>Things that boost workspeed.</t>
   </si>
   <si>
+    <t>작업 속도를 높여주는 건물입니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_ProductionInfrastructure.label</t>
   </si>
   <si>
@@ -331,6 +441,9 @@
     <t>Managing production.</t>
   </si>
   <si>
+    <t>생산을 관리합니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_PowerGeneration.label</t>
   </si>
   <si>
@@ -349,6 +462,9 @@
     <t>Things that help you generate your power.</t>
   </si>
   <si>
+    <t>전력 생산을 돕는 건물입니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_PowerStorage.label</t>
   </si>
   <si>
@@ -367,6 +483,9 @@
     <t>Things that help you store power.</t>
   </si>
   <si>
+    <t>전력 저장을 돕는 건물입니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_PowerManagement.label</t>
   </si>
   <si>
@@ -382,6 +501,9 @@
     <t>Things that help you manage your power.</t>
   </si>
   <si>
+    <t>전력 관리를 돕는 건물입니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Animals.label</t>
   </si>
   <si>
@@ -391,6 +513,9 @@
     <t>Animals</t>
   </si>
   <si>
+    <t>동물</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Animals.description</t>
   </si>
   <si>
@@ -400,6 +525,9 @@
     <t>Things that relate to animals.</t>
   </si>
   <si>
+    <t>동물과 관련된 건물입니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Walls.label</t>
   </si>
   <si>
@@ -409,6 +537,9 @@
     <t>Walls</t>
   </si>
   <si>
+    <t>벽</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Walls.description</t>
   </si>
   <si>
@@ -418,6 +549,9 @@
     <t>Build structural walls.</t>
   </si>
   <si>
+    <t>구조적인 벽을 건설합니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Doors.label</t>
   </si>
   <si>
@@ -427,6 +561,9 @@
     <t>Doors</t>
   </si>
   <si>
+    <t>문</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Doors.description</t>
   </si>
   <si>
@@ -436,6 +573,9 @@
     <t>Build structural doors.</t>
   </si>
   <si>
+    <t>구조적인 문을 건설합니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Foundations.label</t>
   </si>
   <si>
@@ -445,6 +585,9 @@
     <t>Foundations</t>
   </si>
   <si>
+    <t>기반</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Foundations.description</t>
   </si>
   <si>
@@ -454,6 +597,9 @@
     <t>Build structural bridges.</t>
   </si>
   <si>
+    <t>구조적인 다리를 건설합니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Supports.label</t>
   </si>
   <si>
@@ -463,6 +609,9 @@
     <t>Supports</t>
   </si>
   <si>
+    <t>지지대</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Supports.description</t>
   </si>
   <si>
@@ -472,6 +621,9 @@
     <t>Build structural supports.</t>
   </si>
   <si>
+    <t>구조적인 지지대를 건설합니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Barricades.label</t>
   </si>
   <si>
@@ -481,6 +633,9 @@
     <t>Barricades</t>
   </si>
   <si>
+    <t>방벽</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Barricades.description</t>
   </si>
   <si>
@@ -490,6 +645,9 @@
     <t>Build barricades for your enemies.</t>
   </si>
   <si>
+    <t>적을 막을 방벽을 건설합니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Traps.label</t>
   </si>
   <si>
@@ -499,6 +657,9 @@
     <t>Traps</t>
   </si>
   <si>
+    <t>함정</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Traps.description</t>
   </si>
   <si>
@@ -508,6 +669,9 @@
     <t>Build traps for your enemies.</t>
   </si>
   <si>
+    <t>적을 잡을 함정을 건설합니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Weapons.label</t>
   </si>
   <si>
@@ -517,6 +681,9 @@
     <t>Weapons</t>
   </si>
   <si>
+    <t>무기</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Weapons.description</t>
   </si>
   <si>
@@ -526,6 +693,9 @@
     <t>Build weapons for your enemies.</t>
   </si>
   <si>
+    <t>적을 상대할 무기를 제작합니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_CombatInfrastructure.label</t>
   </si>
   <si>
@@ -562,6 +732,9 @@
     <t>Farming your animals.</t>
   </si>
   <si>
+    <t>동물을 사육합니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_AnimalBedding.label</t>
   </si>
   <si>
@@ -571,6 +744,9 @@
     <t>Bedding</t>
   </si>
   <si>
+    <t>잠자리</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_AnimalBedding.description</t>
   </si>
   <si>
@@ -580,6 +756,9 @@
     <t>Build bedding for your animals.</t>
   </si>
   <si>
+    <t>동물을 위한 잠자리를 건설합니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_AnimalTravel.label</t>
   </si>
   <si>
@@ -607,6 +786,9 @@
     <t>Heating</t>
   </si>
   <si>
+    <t>난방</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Heating.description</t>
   </si>
   <si>
@@ -616,6 +798,9 @@
     <t>Heat your colonists.</t>
   </si>
   <si>
+    <t>정착민을 따뜻하게 합니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Cooling.label</t>
   </si>
   <si>
@@ -625,6 +810,9 @@
     <t>Cooling</t>
   </si>
   <si>
+    <t>냉방</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Cooling.description</t>
   </si>
   <si>
@@ -634,6 +822,9 @@
     <t>Cool your colonists.</t>
   </si>
   <si>
+    <t>정착민을 시원하게 합니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_AirManagement.label</t>
   </si>
   <si>
@@ -643,6 +834,9 @@
     <t>Airflow</t>
   </si>
   <si>
+    <t>환기</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_AirManagement.description</t>
   </si>
   <si>
@@ -652,6 +846,9 @@
     <t>Manage airflow.</t>
   </si>
   <si>
+    <t>공기 흐름을 관리합니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Firefoam.label</t>
   </si>
   <si>
@@ -688,6 +885,9 @@
     <t>Manage colonists.</t>
   </si>
   <si>
+    <t>정착민을 관리합니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Childhood.label</t>
   </si>
   <si>
@@ -706,6 +906,9 @@
     <t>Things that relate to childhood.</t>
   </si>
   <si>
+    <t>유년기와 관련된 건물입니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_ColonyLocations.label</t>
   </si>
   <si>
@@ -721,6 +924,9 @@
     <t>Manage relevant colony locations.</t>
   </si>
   <si>
+    <t>정착지의 관련 구역을 관리합니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Biotech.label</t>
   </si>
   <si>
@@ -730,6 +936,9 @@
     <t>Biotech</t>
   </si>
   <si>
+    <t>생명공학</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Biotech.description</t>
   </si>
   <si>
@@ -739,6 +948,9 @@
     <t>Manage biotechnology.</t>
   </si>
   <si>
+    <t>생명공학 기술을 관리합니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Transport.label</t>
   </si>
   <si>
@@ -757,6 +969,9 @@
     <t>Manage transport.</t>
   </si>
   <si>
+    <t>탈것을 관리합니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Medical.label</t>
   </si>
   <si>
@@ -766,6 +981,9 @@
     <t>Medical</t>
   </si>
   <si>
+    <t>의료</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Medical.description</t>
   </si>
   <si>
@@ -775,6 +993,9 @@
     <t>Manage medical tech.</t>
   </si>
   <si>
+    <t>의료 기술을 관리합니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Enhancement.label</t>
   </si>
   <si>
@@ -784,6 +1005,9 @@
     <t>Enhancement</t>
   </si>
   <si>
+    <t>강화</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Enhancement.description</t>
   </si>
   <si>
@@ -793,6 +1017,9 @@
     <t>Enhance your colonists.</t>
   </si>
   <si>
+    <t>정착민을 강화합니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_GroundTransport.label</t>
   </si>
   <si>
@@ -802,6 +1029,9 @@
     <t>Ground</t>
   </si>
   <si>
+    <t>지상</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_GroundTransport.description</t>
   </si>
   <si>
@@ -814,12 +1044,27 @@
     <t>DesignationCategoryDef+Ferny_AerialTransport.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>지상 탈것을 제작합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_AerialTransport.label</t>
   </si>
   <si>
     <t>Aerial</t>
   </si>
   <si>
+    <t>공중</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_AerialTransport.description</t>
   </si>
   <si>
@@ -832,12 +1077,27 @@
     <t>DesignationCategoryDef+Ferny_MilitaryTransport.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>공중 탈것을 제작합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_MilitaryTransport.label</t>
   </si>
   <si>
     <t>Military</t>
   </si>
   <si>
+    <t>군용</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_MilitaryTransport.description</t>
   </si>
   <si>
@@ -850,6 +1110,18 @@
     <t>DesignationCategoryDef+Ferny_NavalTransport.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>군용 탈것을 제작합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_NavalTransport.label</t>
   </si>
   <si>
@@ -859,6 +1131,18 @@
     <t>DesignationCategoryDef+Ferny_NavalTransport.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>해상</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_NavalTransport.description</t>
   </si>
   <si>
@@ -868,6 +1152,18 @@
     <t>DesignationCategoryDef+Ferny_TransportInfrastructure.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>해상 탈것을 제작합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_TransportInfrastructure.label</t>
   </si>
   <si>
@@ -880,6 +1176,9 @@
     <t>Build transport infrastructure.</t>
   </si>
   <si>
+    <t>수송 기반 시설을 건설합니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Storage.label</t>
   </si>
   <si>
@@ -898,12 +1197,27 @@
     <t>DesignationCategoryDef+Ferny_GeneralStorage.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>저장 설비를 건설합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_GeneralStorage.label</t>
   </si>
   <si>
     <t>General</t>
   </si>
   <si>
+    <t>일반</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_GeneralStorage.description</t>
   </si>
   <si>
@@ -913,6 +1227,9 @@
     <t>Build general storage.</t>
   </si>
   <si>
+    <t>일반 저장고를 건설합니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_ResourcesStorage.label</t>
   </si>
   <si>
@@ -922,6 +1239,9 @@
     <t>Resources</t>
   </si>
   <si>
+    <t>자원</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_ResourcesStorage.description</t>
   </si>
   <si>
@@ -931,6 +1251,9 @@
     <t>Build resources storages.</t>
   </si>
   <si>
+    <t>자원 저장고를 건설합니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_GearStorage.label</t>
   </si>
   <si>
@@ -940,6 +1263,9 @@
     <t>Gear</t>
   </si>
   <si>
+    <t>장비</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_GearStorage.description</t>
   </si>
   <si>
@@ -949,6 +1275,9 @@
     <t>Build gear storage.</t>
   </si>
   <si>
+    <t>장비 저장고를 건설합니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_FoodStorage.label</t>
   </si>
   <si>
@@ -958,6 +1287,9 @@
     <t>Food</t>
   </si>
   <si>
+    <t>식량</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_FoodStorage.description</t>
   </si>
   <si>
@@ -967,6 +1299,9 @@
     <t>Build food storage.</t>
   </si>
   <si>
+    <t>식량 저장고를 건설합니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_AmmunitionNetwork.label</t>
   </si>
   <si>
@@ -976,6 +1311,9 @@
     <t>Ammunition</t>
   </si>
   <si>
+    <t>탄약</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_AmmunitionNetwork.description</t>
   </si>
   <si>
@@ -985,6 +1323,9 @@
     <t>Manage ammunition.</t>
   </si>
   <si>
+    <t>탄약을 관리합니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_World.label</t>
   </si>
   <si>
@@ -997,6 +1338,18 @@
     <t>DesignationCategoryDef+Ferny_World.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>세계</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_World.description</t>
   </si>
   <si>
@@ -1006,12 +1359,27 @@
     <t>DesignationCategoryDef+Ferny_Outreach.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>외부 교류 설비를 관리합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_Outreach.label</t>
   </si>
   <si>
     <t>Outreach</t>
   </si>
   <si>
+    <t>교류</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Outreach.description</t>
   </si>
   <si>
@@ -1024,6 +1392,18 @@
     <t>DesignationCategoryDef+Ferny_Automation.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>세계 외부와 교류하는 건물입니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_Automation.label</t>
   </si>
   <si>
@@ -1039,6 +1419,9 @@
     <t>Things that automate stuff.</t>
   </si>
   <si>
+    <t>작업을 자동화하는 건물입니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Hosting.label</t>
   </si>
   <si>
@@ -1048,6 +1431,9 @@
     <t>Entertain</t>
   </si>
   <si>
+    <t>오락</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Market.label</t>
   </si>
   <si>
@@ -1066,6 +1452,9 @@
     <t>Museum</t>
   </si>
   <si>
+    <t>박물관</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Pollution.label</t>
   </si>
   <si>
@@ -1075,6 +1464,9 @@
     <t>Pollution</t>
   </si>
   <si>
+    <t>오염</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Pollution.description</t>
   </si>
   <si>
@@ -1084,6 +1476,9 @@
     <t>Manage the pollution.</t>
   </si>
   <si>
+    <t>오염을 관리합니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Deathrest.label</t>
   </si>
   <si>
@@ -1093,6 +1488,9 @@
     <t>Deathrest</t>
   </si>
   <si>
+    <t>죽음안식</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Deathrest.description</t>
   </si>
   <si>
@@ -1102,6 +1500,9 @@
     <t>Manage Deathrest.</t>
   </si>
   <si>
+    <t>죽음안식을 관리합니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Mechanoids.label</t>
   </si>
   <si>
@@ -1111,6 +1512,9 @@
     <t>Mechanoids</t>
   </si>
   <si>
+    <t>메카노이드</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Mechanoids.description</t>
   </si>
   <si>
@@ -1120,6 +1524,9 @@
     <t>Build mechanoids.</t>
   </si>
   <si>
+    <t>메카노이드를 제작합니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_AnimalImplants.label</t>
   </si>
   <si>
@@ -1132,6 +1539,9 @@
     <t>Implants</t>
   </si>
   <si>
+    <t>이식물</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_AnimalImplants.description</t>
   </si>
   <si>
@@ -1141,6 +1551,9 @@
     <t>Manage implants.</t>
   </si>
   <si>
+    <t>이식물을 관리합니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_HelixienGasNetwork.label</t>
   </si>
   <si>
@@ -1153,6 +1566,9 @@
     <t>Gas</t>
   </si>
   <si>
+    <t>가스</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_HelixienGasNetwork.description</t>
   </si>
   <si>
@@ -1162,6 +1578,9 @@
     <t>Manage helixien gas.</t>
   </si>
   <si>
+    <t>헬릭시엔 가스를 관리합니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_NeutroamineNetwork.label</t>
   </si>
   <si>
@@ -1174,6 +1593,9 @@
     <t>Neutroamine</t>
   </si>
   <si>
+    <t>뉴트로아민</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_NeutroamineNetwork.description</t>
   </si>
   <si>
@@ -1183,6 +1605,9 @@
     <t>Manage neutroamine.</t>
   </si>
   <si>
+    <t>뉴트로아민을 관리합니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Androids.label</t>
   </si>
   <si>
@@ -1192,6 +1617,9 @@
     <t>Androids</t>
   </si>
   <si>
+    <t>안드로이드</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Androids.description</t>
   </si>
   <si>
@@ -1201,6 +1629,9 @@
     <t>Build androids.</t>
   </si>
   <si>
+    <t>안드로이드를 제작합니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_ChemfuelNetwork.label</t>
   </si>
   <si>
@@ -1213,6 +1644,9 @@
     <t>Chemfuel</t>
   </si>
   <si>
+    <t>화학연료</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_ChemfuelNetwork.description</t>
   </si>
   <si>
@@ -1222,6 +1656,9 @@
     <t>Manage chemfuel.</t>
   </si>
   <si>
+    <t>화학연료를 관리합니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Aquarium.label</t>
   </si>
   <si>
@@ -1234,6 +1671,9 @@
     <t>Aquarium</t>
   </si>
   <si>
+    <t>수족관</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Aquarium.description</t>
   </si>
   <si>
@@ -1243,6 +1683,9 @@
     <t>Build aquariums.</t>
   </si>
   <si>
+    <t>수족관을 건설합니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_HemogenNetwork.label</t>
   </si>
   <si>
@@ -1255,6 +1698,9 @@
     <t>Hemogen</t>
   </si>
   <si>
+    <t>혈액정수</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_HemogenNetwork.description</t>
   </si>
   <si>
@@ -1264,6 +1710,9 @@
     <t>Manage hemogen.</t>
   </si>
   <si>
+    <t>혈액정수를 관리합니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_NutrientPasteNetwork.label</t>
   </si>
   <si>
@@ -1276,6 +1725,9 @@
     <t>Nutrient Paste</t>
   </si>
   <si>
+    <t>영양죽</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_NutrientPasteNetwork.description</t>
   </si>
   <si>
@@ -1285,6 +1737,9 @@
     <t>Manage nutrient paste.</t>
   </si>
   <si>
+    <t>영양죽을 관리합니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_MilkPipeNetwork.label</t>
   </si>
   <si>
@@ -1297,6 +1752,9 @@
     <t>Milk</t>
   </si>
   <si>
+    <t>우유</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_MilkPipeNetwork.description</t>
   </si>
   <si>
@@ -1306,6 +1764,9 @@
     <t>Manage milk.</t>
   </si>
   <si>
+    <t>우유를 관리합니다.</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Sleeving.label</t>
   </si>
   <si>
@@ -1321,12 +1782,27 @@
     <t>DesignationCategoryDef+Ferny_Sleeving.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>슬리브</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_Sleeving.description</t>
   </si>
   <si>
     <t>Manage sleeves.</t>
   </si>
   <si>
+    <t>슬리브를 관리합니다.</t>
+  </si>
+  <si>
     <t>Patches.DesignationCategoryDef+Security.label</t>
   </si>
   <si>
@@ -1342,12 +1818,36 @@
     <t>Patches.DesignationCategoryDef+Ferny_Colony.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>전투</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Manage</t>
   </si>
   <si>
     <t>Patches.DesignationCategoryDef+Structure.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>관리</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Structure.label</t>
   </si>
   <si>
@@ -1357,12 +1857,36 @@
     <t>Patches.DesignationCategoryDef+Production.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>건설</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Production.label</t>
   </si>
   <si>
     <t>Make</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>생산</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Patches.DesignationCategoryDef+Ferny_Automation.label</t>
   </si>
   <si>
@@ -1378,6 +1902,18 @@
     <t>Patches.DesignationCategoryDef+Furniture.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>창고</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Furniture.label</t>
   </si>
   <si>
@@ -1387,6 +1923,18 @@
     <t>Patches.DesignationCategoryDef+Misc.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>가구</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Misc.label</t>
   </si>
   <si>
@@ -1396,6 +1944,18 @@
     <t>Patches.DesignationCategoryDef+Temperature.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>기타</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Temperature.label</t>
   </si>
   <si>
@@ -1414,6 +1974,18 @@
     <t>Keyed+BA.Free</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>우주</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Keyed</t>
   </si>
   <si>
@@ -1435,12 +2007,27 @@
     <t>Keyed+BA.MenuHeight</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>기술 수준으로 분류</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>BA.MenuHeight</t>
   </si>
   <si>
     <t>Menu height</t>
   </si>
   <si>
+    <t>메뉴 높이</t>
+  </si>
+  <si>
     <t>Keyed+BA.HideOnSelection</t>
   </si>
   <si>
@@ -1450,6 +2037,9 @@
     <t>Hide on building selection</t>
   </si>
   <si>
+    <t>건물 선택 시 숨기기</t>
+  </si>
+  <si>
     <t>Keyed+BA.HideOnSelectionTooltip</t>
   </si>
   <si>
@@ -1459,6 +2049,9 @@
     <t>When building is selected, fully hide the menu.</t>
   </si>
   <si>
+    <t>건물을 선택하면 메뉴를 완전히 숨깁니다.</t>
+  </si>
+  <si>
     <t>Keyed+BA.RememberSubcategory</t>
   </si>
   <si>
@@ -1468,6 +2061,9 @@
     <t>Remember subcategory</t>
   </si>
   <si>
+    <t>하위 카테고리 기억</t>
+  </si>
+  <si>
     <t>Keyed+BA.RememberSubcategoryTooltip</t>
   </si>
   <si>
@@ -1477,6 +2073,9 @@
     <t>When enabled, the mod will remember the last selected subcategory for each main category. When disabled, it will always default to the first subcategory.</t>
   </si>
   <si>
+    <t>활성화하면 모드가 각 주 카테고리별로 마지막으로 선택한 하위 카테고리를 기억합니다. 비활성화하면 항상 첫 번째 하위 카테고리로 기본 설정됩니다.</t>
+  </si>
+  <si>
     <t>Keyed+BA.Default</t>
   </si>
   <si>
@@ -1486,6 +2085,9 @@
     <t>Default</t>
   </si>
   <si>
+    <t>기본값</t>
+  </si>
+  <si>
     <t>Keyed+BA.Label</t>
   </si>
   <si>
@@ -1495,6 +2097,9 @@
     <t>Label</t>
   </si>
   <si>
+    <t>이름</t>
+  </si>
+  <si>
     <t>Keyed+BA.Beauty</t>
   </si>
   <si>
@@ -1504,6 +2109,9 @@
     <t>Beauty</t>
   </si>
   <si>
+    <t>미관</t>
+  </si>
+  <si>
     <t>Keyed+BA.Comfort</t>
   </si>
   <si>
@@ -1513,6 +2121,9 @@
     <t>Comfort</t>
   </si>
   <si>
+    <t>편안함</t>
+  </si>
+  <si>
     <t>Keyed+BA.Value</t>
   </si>
   <si>
@@ -1522,6 +2133,9 @@
     <t>Value</t>
   </si>
   <si>
+    <t>가치</t>
+  </si>
+  <si>
     <t>Keyed+BA.WorkToBuild</t>
   </si>
   <si>
@@ -1534,12 +2148,27 @@
     <t>Keyed+BA.Health</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>작업량</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>BA.Health</t>
   </si>
   <si>
     <t>Health</t>
   </si>
   <si>
+    <t>내구도</t>
+  </si>
+  <si>
     <t>Keyed+BA.Cleanliness</t>
   </si>
   <si>
@@ -1549,6 +2178,9 @@
     <t>Cleanliness</t>
   </si>
   <si>
+    <t>청결</t>
+  </si>
+  <si>
     <t>Keyed+BA.SkillRequired</t>
   </si>
   <si>
@@ -1558,6 +2190,9 @@
     <t>Skill required</t>
   </si>
   <si>
+    <t>필요 기술</t>
+  </si>
+  <si>
     <t>Keyed+BA.Flammability</t>
   </si>
   <si>
@@ -1567,6 +2202,9 @@
     <t>Flammability</t>
   </si>
   <si>
+    <t>인화성</t>
+  </si>
+  <si>
     <t>Keyed+BA.CoverEffectiveness</t>
   </si>
   <si>
@@ -1576,6 +2214,9 @@
     <t>Cover effectiveness</t>
   </si>
   <si>
+    <t>엄폐 효율</t>
+  </si>
+  <si>
     <t>Keyed+BA.MaxPowerOutput</t>
   </si>
   <si>
@@ -1585,6 +2226,9 @@
     <t>Max power output</t>
   </si>
   <si>
+    <t>최대 전력 생산량</t>
+  </si>
+  <si>
     <t>Keyed+BA.PowerConsumption</t>
   </si>
   <si>
@@ -1594,6 +2238,9 @@
     <t>Power consumption</t>
   </si>
   <si>
+    <t>전력 소비량</t>
+  </si>
+  <si>
     <t>Keyed+BA.RecreationPower</t>
   </si>
   <si>
@@ -1606,12 +2253,27 @@
     <t>Keyed+BA.MoveSpeed</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>오락 효과</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>BA.MoveSpeed</t>
   </si>
   <si>
     <t>Move speed</t>
   </si>
   <si>
+    <t>이동 속도</t>
+  </si>
+  <si>
     <t>Keyed+BA.TotalStorageCapacity</t>
   </si>
   <si>
@@ -1621,6 +2283,9 @@
     <t>Total storage capacity</t>
   </si>
   <si>
+    <t>총 저장 용량</t>
+  </si>
+  <si>
     <t>Keyed+BA.DoorOpeningSpeed</t>
   </si>
   <si>
@@ -1630,6 +2295,9 @@
     <t>Door opening speed</t>
   </si>
   <si>
+    <t>문 개방 속도</t>
+  </si>
+  <si>
     <t>Keyed+BA.WorkSpeedFactor</t>
   </si>
   <si>
@@ -1639,6 +2307,9 @@
     <t>Work speed factor</t>
   </si>
   <si>
+    <t>작업 속도 계수</t>
+  </si>
+  <si>
     <t>Keyed+BA.More</t>
   </si>
   <si>
@@ -1648,6 +2319,9 @@
     <t>Other</t>
   </si>
   <si>
+    <t>기타</t>
+  </si>
+  <si>
     <t>Keyed+BA.BackgroundAlpha</t>
   </si>
   <si>
@@ -1657,6 +2331,9 @@
     <t>Background transparency</t>
   </si>
   <si>
+    <t>배경 투명도</t>
+  </si>
+  <si>
     <t>Keyed+BA.NothingAvailableToBuild</t>
   </si>
   <si>
@@ -1669,6 +2346,18 @@
     <t>Patches.DesignationCategoryDef+Ideology.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>건설 가능한 항목이 없습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ideology.label</t>
   </si>
   <si>
@@ -1678,6 +2367,9 @@
     <t>Culture</t>
   </si>
   <si>
+    <t>문화</t>
+  </si>
+  <si>
     <t>Patches.DesignationCategoryDef+Biotech.label</t>
   </si>
   <si>
@@ -1687,6 +2379,9 @@
     <t>Genetics</t>
   </si>
   <si>
+    <t>유전학</t>
+  </si>
+  <si>
     <t>Patches.DesignationCategoryDef+Anomaly.label</t>
   </si>
   <si>
@@ -1702,13 +2397,28 @@
     <t>Patches.DesignationCategoryDef+Odyssey.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>이상 현상</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Odyssey.label</t>
   </si>
   <si>
     <t>Odyssey</t>
   </si>
   <si>
-    <t>Orbit</t>
+    <t>DesignationCategoryDef+VCHE_PipeNetworks.label</t>
+  </si>
+  <si>
+    <t>궤도</t>
   </si>
   <si>
     <t>Patches.DesignationCategoryDef+VF_Vehicles.label</t>
@@ -1744,6 +2454,9 @@
     <t>2x1 marriage spot</t>
   </si>
   <si>
+    <t>2x1 결혼식 장소</t>
+  </si>
+  <si>
     <t>Patches.DesignationCategoryDef+VCHE_PipeNetworks.label</t>
   </si>
   <si>
@@ -1762,6 +2475,9 @@
     <t>Insectoids</t>
   </si>
   <si>
+    <t>곤충</t>
+  </si>
+  <si>
     <t>Patches.ThingDef+PatientLandingSpot.label</t>
   </si>
   <si>
@@ -1777,6 +2493,18 @@
     <t>Patches.DesignationCategoryDef+Hygiene.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>환자 손님 착륙 지점</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Hygiene.label</t>
   </si>
   <si>
@@ -1786,6 +2514,9 @@
     <t>Water</t>
   </si>
   <si>
+    <t>물</t>
+  </si>
+  <si>
     <t>Patches.DesignationCategoryDef+MultiFloors.label</t>
   </si>
   <si>
@@ -1798,580 +2529,109 @@
     <t>Elevation</t>
   </si>
   <si>
-    <t>기술 수준으로 분류</t>
+    <t>고도</t>
+  </si>
+  <si>
+    <t>Orbital</t>
+  </si>
+  <si>
+    <t>자원</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>전투</t>
+    <t>상단</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>건설</t>
+    <t>상단 동물을 관리합니다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>생산</t>
-  </si>
-  <si>
-    <t>생산</t>
+    <t>상점</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>장소</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Locations</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>적을 상대할 장소를 건설합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료 없음</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>예술</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전선</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>제작</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>요리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>보조</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수송</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리</t>
+  </si>
+  <si>
+    <t>발전</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>목축</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>소방거품</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>소방거품을 관리합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>정착민</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>공장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>온도</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>자동화</t>
-  </si>
-  <si>
-    <t>자동화</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>창고</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>가구</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타</t>
-  </si>
-  <si>
-    <t>기타</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>우주</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>구역</t>
-  </si>
-  <si>
-    <t>구역</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>정착지</t>
-  </si>
-  <si>
-    <t>정착지를 관리합니다.</t>
-  </si>
-  <si>
-    <t>좌석</t>
-  </si>
-  <si>
-    <t>좌석을 관리합니다.</t>
-  </si>
-  <si>
-    <t>탁자</t>
-  </si>
-  <si>
-    <t>탁자를 관리합니다.</t>
-  </si>
-  <si>
-    <t>조명</t>
-  </si>
-  <si>
-    <t>빛을 내는 건물입니다.</t>
-  </si>
-  <si>
-    <t>침실</t>
-  </si>
-  <si>
-    <t>장식</t>
-  </si>
-  <si>
-    <t>장식용품입니다.</t>
-  </si>
-  <si>
-    <t>가공</t>
-  </si>
-  <si>
-    <t>가공 생산 방식입니다.</t>
-  </si>
-  <si>
-    <t>창작</t>
-  </si>
-  <si>
-    <t>창작 생산 방식입니다.</t>
-  </si>
-  <si>
-    <t>주방</t>
-  </si>
-  <si>
-    <t>농사</t>
-  </si>
-  <si>
-    <t>연구</t>
-  </si>
-  <si>
-    <t>기초적인 생산 방식입니다.</t>
-  </si>
-  <si>
-    <t>보조 설비</t>
-  </si>
-  <si>
-    <t>기반 시설</t>
-  </si>
-  <si>
-    <t>생산을 관리합니다.</t>
-  </si>
-  <si>
-    <t>동물</t>
-  </si>
-  <si>
-    <t>벽</t>
-  </si>
-  <si>
-    <t>구조적인 벽을 건설합니다.</t>
-  </si>
-  <si>
-    <t>문</t>
-  </si>
-  <si>
-    <t>구조적인 문을 건설합니다.</t>
-  </si>
-  <si>
-    <t>기반</t>
-  </si>
-  <si>
-    <t>구조적인 다리를 건설합니다.</t>
-  </si>
-  <si>
-    <t>지지대</t>
-  </si>
-  <si>
-    <t>구조적인 지지대를 건설합니다.</t>
-  </si>
-  <si>
-    <t>방벽</t>
-  </si>
-  <si>
-    <t>적을 막을 방벽을 건설합니다.</t>
-  </si>
-  <si>
-    <t>함정</t>
-  </si>
-  <si>
-    <t>적을 잡을 함정을 건설합니다.</t>
-  </si>
-  <si>
-    <t>무기</t>
-  </si>
-  <si>
-    <t>적을 상대할 무기를 제작합니다.</t>
-  </si>
-  <si>
-    <t>적을 상대할 기반 시설을 건설합니다.</t>
-  </si>
-  <si>
-    <t>목축</t>
-  </si>
-  <si>
-    <t>동물을 사육합니다.</t>
-  </si>
-  <si>
-    <t>잠자리</t>
-  </si>
-  <si>
-    <t>동물을 위한 잠자리를 건설합니다.</t>
-  </si>
-  <si>
-    <t>이동</t>
-  </si>
-  <si>
-    <t>동물의 이동을 관리합니다.</t>
-  </si>
-  <si>
-    <t>난방</t>
-  </si>
-  <si>
-    <t>정착민을 따뜻하게 합니다.</t>
-  </si>
-  <si>
-    <t>냉방</t>
-  </si>
-  <si>
-    <t>정착민을 시원하게 합니다.</t>
-  </si>
-  <si>
-    <t>환기</t>
-  </si>
-  <si>
-    <t>공기 흐름을 관리합니다.</t>
-  </si>
-  <si>
-    <t>소화 거품</t>
-  </si>
-  <si>
-    <t>소화 거품을 관리합니다.</t>
-  </si>
-  <si>
-    <t>인원</t>
-  </si>
-  <si>
-    <t>정착민을 관리합니다.</t>
-  </si>
-  <si>
-    <t>유년기</t>
-  </si>
-  <si>
-    <t>정착지의 관련 구역을 관리합니다.</t>
-  </si>
-  <si>
-    <t>생명공학</t>
-  </si>
-  <si>
-    <t>생명공학 기술을 관리합니다.</t>
-  </si>
-  <si>
-    <t>의료</t>
-  </si>
-  <si>
-    <t>의료 기술을 관리합니다.</t>
-  </si>
-  <si>
-    <t>강화</t>
-  </si>
-  <si>
-    <t>정착민을 강화합니다.</t>
-  </si>
-  <si>
-    <t>지상</t>
-  </si>
-  <si>
-    <t>공중</t>
-  </si>
-  <si>
-    <t>군용</t>
-  </si>
-  <si>
-    <t>수송 기반 시설을 건설합니다.</t>
-  </si>
-  <si>
-    <t>일반</t>
-  </si>
-  <si>
-    <t>자원</t>
-  </si>
-  <si>
-    <t>장비</t>
-  </si>
-  <si>
-    <t>식량</t>
-  </si>
-  <si>
-    <t>탄약</t>
-  </si>
-  <si>
-    <t>탄약을 관리합니다.</t>
-  </si>
-  <si>
-    <t>교류</t>
-  </si>
-  <si>
-    <t>오락</t>
-  </si>
-  <si>
-    <t>시장</t>
-  </si>
-  <si>
-    <t>박물관</t>
-  </si>
-  <si>
-    <t>오염</t>
-  </si>
-  <si>
-    <t>오염을 관리합니다.</t>
-  </si>
-  <si>
-    <t>죽음안식</t>
-  </si>
-  <si>
-    <t>죽음안식을 관리합니다.</t>
-  </si>
-  <si>
-    <t>메카노이드</t>
-  </si>
-  <si>
-    <t>메카노이드를 제작합니다.</t>
-  </si>
-  <si>
-    <t>이식물</t>
-  </si>
-  <si>
-    <t>이식물을 관리합니다.</t>
-  </si>
-  <si>
-    <t>가스</t>
-  </si>
-  <si>
-    <t>헬릭시엔 가스를 관리합니다.</t>
-  </si>
-  <si>
-    <t>뉴트로아민</t>
-  </si>
-  <si>
-    <t>뉴트로아민을 관리합니다.</t>
-  </si>
-  <si>
-    <t>안드로이드</t>
-  </si>
-  <si>
-    <t>안드로이드를 제작합니다.</t>
-  </si>
-  <si>
-    <t>화학연료</t>
-  </si>
-  <si>
-    <t>화학연료를 관리합니다.</t>
-  </si>
-  <si>
-    <t>수족관</t>
-  </si>
-  <si>
-    <t>수족관을 건설합니다.</t>
-  </si>
-  <si>
-    <t>영양죽</t>
-  </si>
-  <si>
-    <t>영양죽을 관리합니다.</t>
-  </si>
-  <si>
-    <t>우유</t>
-  </si>
-  <si>
-    <t>우유를 관리합니다.</t>
-  </si>
-  <si>
-    <t>슬리브를 관리합니다.</t>
-  </si>
-  <si>
-    <t>메뉴 높이</t>
-  </si>
-  <si>
-    <t>건물 선택 시 숨기기</t>
-  </si>
-  <si>
-    <t>건물을 선택하면 메뉴를 완전히 숨깁니다.</t>
-  </si>
-  <si>
-    <t>하위 카테고리 기억</t>
-  </si>
-  <si>
-    <t>활성화하면 모드가 각 주 카테고리별로 마지막으로 선택한 하위 카테고리를 기억합니다. 비활성화하면 항상 첫 번째 하위 카테고리로 기본 설정됩니다.</t>
-  </si>
-  <si>
-    <t>기본값</t>
-  </si>
-  <si>
-    <t>이름</t>
-  </si>
-  <si>
-    <t>미관</t>
-  </si>
-  <si>
-    <t>편안함</t>
-  </si>
-  <si>
-    <t>가치</t>
-  </si>
-  <si>
-    <t>내구도</t>
-  </si>
-  <si>
-    <t>청결</t>
-  </si>
-  <si>
-    <t>필요 기술</t>
-  </si>
-  <si>
-    <t>인화성</t>
-  </si>
-  <si>
-    <t>엄폐 효율</t>
-  </si>
-  <si>
-    <t>최대 전력 생산량</t>
-  </si>
-  <si>
-    <t>전력 소비량</t>
-  </si>
-  <si>
-    <t>이동 속도</t>
-  </si>
-  <si>
-    <t>총 저장 용량</t>
-  </si>
-  <si>
-    <t>문 개방 속도</t>
-  </si>
-  <si>
-    <t>작업 속도 계수</t>
-  </si>
-  <si>
-    <t>배경 투명도</t>
-  </si>
-  <si>
-    <t>문화</t>
-  </si>
-  <si>
-    <t>유전학</t>
-  </si>
-  <si>
-    <t>궤도</t>
-  </si>
-  <si>
-    <t>2x1 결혼식 장소</t>
-  </si>
-  <si>
-    <t>곤충</t>
-  </si>
-  <si>
-    <t>물</t>
-  </si>
-  <si>
-    <t>고도</t>
-  </si>
-  <si>
-    <t>작업량</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>오락 효과</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>건설 가능한 항목이 없습니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이상 현상</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>환자 손님 착륙 지점</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>자유</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>침실과 관련된 건물입니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>물건을 만드는 작업대입니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>발전</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>음식과 관련된 건물입니다.</t>
-  </si>
-  <si>
-    <t>농업과 관련된 건물입니다.</t>
-  </si>
-  <si>
-    <t>작업 속도를 높여주는 건물입니다.</t>
-  </si>
-  <si>
-    <t>전력 생산을 돕는 건물입니다.</t>
-  </si>
-  <si>
-    <t>전력 저장을 돕는 건물입니다.</t>
-  </si>
-  <si>
-    <t>전력 관리를 돕는 건물입니다.</t>
-  </si>
-  <si>
-    <t>동물과 관련된 건물입니다.</t>
-  </si>
-  <si>
-    <t>유년기와 관련된 건물입니다.</t>
-  </si>
-  <si>
-    <t>작업을 자동화하는 건물입니다.</t>
-  </si>
-  <si>
-    <t>저장</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>지상 탈것을 제작합니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>탈것</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>탈것을 관리합니다.</t>
-  </si>
-  <si>
-    <t>공중 탈것을 제작합니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>군용 탈것을 제작합니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>해상 탈것을 제작합니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>해상</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>저장고</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>저장 설비를 건설합니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반 저장고를 건설합니다.</t>
-  </si>
-  <si>
-    <t>자원 저장고를 건설합니다.</t>
-  </si>
-  <si>
-    <t>장비 저장고를 건설합니다.</t>
-  </si>
-  <si>
-    <t>식량 저장고를 건설합니다.</t>
-  </si>
-  <si>
-    <t>세계</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>외부 교류 설비를 관리합니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>세계 외부와 교류하는 건물입니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>혈액정수</t>
-  </si>
-  <si>
-    <t>혈액정수를 관리합니다.</t>
-  </si>
-  <si>
-    <t>슬리브</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2404,12 +2664,22 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA500"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF87CEEB"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2424,9 +2694,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2729,16 +3001,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F188"/>
+  <dimension ref="A1:F190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="F141" sqref="F141"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="8" width="9.1796875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="9.1796875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -2775,3283 +3047,3303 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>594</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>595</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>596</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>597</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>598</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>599</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>600</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>601</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>602</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>729</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>603</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>604</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>583</v>
+        <v>749</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>730</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>605</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>606</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>607</v>
+        <v>747</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>608</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>609</v>
+        <v>750</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>732</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>610</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>733</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>611</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>612</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>613</v>
+        <v>751</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>734</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>614</v>
+        <v>753</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>615</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>731</v>
+        <v>754</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>735</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>741</v>
+        <v>755</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>736</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>614</v>
+        <v>748</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>737</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>616</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>738</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>617</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>618</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>619</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>620</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>621</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>622</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>623</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>624</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>625</v>
+        <v>177</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>626</v>
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>627</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>628</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>629</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>155</v>
+        <v>196</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>630</v>
+        <v>197</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>592</v>
+        <v>743</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>631</v>
+        <v>745</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>163</v>
+        <v>205</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>632</v>
+        <v>756</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>633</v>
+        <v>210</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>168</v>
+        <v>211</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>169</v>
+        <v>212</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>170</v>
+        <v>213</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>634</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>171</v>
+        <v>215</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>635</v>
+        <v>218</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>175</v>
+        <v>220</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>176</v>
+        <v>221</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>636</v>
+        <v>740</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>177</v>
+        <v>222</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>178</v>
+        <v>223</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>179</v>
+        <v>224</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>637</v>
+        <v>741</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>182</v>
+        <v>227</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>638</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>183</v>
+        <v>229</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>639</v>
+        <v>232</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>186</v>
+        <v>233</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>187</v>
+        <v>234</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>188</v>
+        <v>235</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>640</v>
+        <v>236</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>189</v>
+        <v>237</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>190</v>
+        <v>238</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>191</v>
+        <v>239</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>641</v>
+        <v>240</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>193</v>
+        <v>242</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>194</v>
+        <v>243</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>642</v>
+        <v>244</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>195</v>
+        <v>245</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>196</v>
+        <v>246</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>197</v>
+        <v>247</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>643</v>
+        <v>248</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>198</v>
+        <v>249</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>199</v>
+        <v>250</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>644</v>
+        <v>757</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>201</v>
+        <v>252</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>202</v>
+        <v>253</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>203</v>
+        <v>254</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>645</v>
+        <v>758</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>204</v>
+        <v>255</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>205</v>
+        <v>256</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>206</v>
+        <v>257</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>646</v>
+        <v>759</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>207</v>
+        <v>258</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>208</v>
+        <v>259</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>209</v>
+        <v>260</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>647</v>
+        <v>261</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>211</v>
+        <v>263</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>212</v>
+        <v>264</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>648</v>
+        <v>760</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>213</v>
+        <v>265</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>214</v>
+        <v>266</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>215</v>
+        <v>267</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>739</v>
+        <v>268</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>216</v>
+        <v>269</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>217</v>
+        <v>270</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>158</v>
+        <v>744</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>592</v>
+        <v>743</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>218</v>
+        <v>271</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>219</v>
+        <v>272</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>220</v>
+        <v>273</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>649</v>
+        <v>274</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
-        <v>221</v>
+        <v>275</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>222</v>
+        <v>276</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>650</v>
+        <v>278</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>224</v>
+        <v>279</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>225</v>
+        <v>280</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>226</v>
+        <v>281</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>651</v>
+        <v>282</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>227</v>
+        <v>283</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>228</v>
+        <v>284</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>229</v>
+        <v>285</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>743</v>
+        <v>752</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>230</v>
+        <v>286</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>231</v>
+        <v>287</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>232</v>
+        <v>288</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>744</v>
+        <v>289</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>233</v>
+        <v>290</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>234</v>
+        <v>291</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>235</v>
+        <v>292</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>652</v>
+        <v>293</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
-        <v>236</v>
+        <v>294</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>237</v>
+        <v>295</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>238</v>
+        <v>296</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>653</v>
+        <v>297</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
-        <v>239</v>
+        <v>298</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>240</v>
+        <v>299</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>241</v>
+        <v>300</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>654</v>
+        <v>301</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>243</v>
+        <v>303</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>244</v>
+        <v>304</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>655</v>
+        <v>305</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
-        <v>245</v>
+        <v>306</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>246</v>
+        <v>307</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>247</v>
+        <v>308</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>656</v>
+        <v>309</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
-        <v>248</v>
+        <v>310</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>249</v>
+        <v>311</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>250</v>
+        <v>312</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>742</v>
+        <v>314</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
-        <v>251</v>
+        <v>313</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>252</v>
+        <v>315</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>253</v>
+        <v>316</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>657</v>
+        <v>317</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>254</v>
+        <v>318</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>255</v>
+        <v>319</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>256</v>
+        <v>320</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>745</v>
+        <v>322</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
-        <v>257</v>
+        <v>321</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>258</v>
+        <v>323</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>259</v>
+        <v>324</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>658</v>
+        <v>325</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
-        <v>260</v>
+        <v>326</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>261</v>
+        <v>327</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>262</v>
+        <v>328</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>746</v>
+        <v>330</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
-        <v>263</v>
+        <v>329</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>264</v>
+        <v>331</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>265</v>
+        <v>332</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>748</v>
+        <v>334</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
-        <v>266</v>
+        <v>333</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>267</v>
+        <v>335</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>268</v>
+        <v>336</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>747</v>
+        <v>338</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
-        <v>269</v>
+        <v>337</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>270</v>
+        <v>339</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>614</v>
+        <v>753</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
-        <v>271</v>
+        <v>340</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>272</v>
+        <v>341</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>273</v>
+        <v>342</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>659</v>
+        <v>343</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
-        <v>274</v>
+        <v>344</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>275</v>
+        <v>345</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
-        <v>276</v>
+        <v>346</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>277</v>
+        <v>347</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>278</v>
+        <v>348</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>750</v>
+        <v>350</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
-        <v>279</v>
+        <v>349</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>280</v>
+        <v>351</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>281</v>
+        <v>352</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>660</v>
+        <v>353</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
-        <v>282</v>
+        <v>354</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>283</v>
+        <v>355</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>284</v>
+        <v>356</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>751</v>
+        <v>357</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
-        <v>285</v>
+        <v>358</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>286</v>
+        <v>359</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>287</v>
+        <v>360</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>661</v>
+        <v>361</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
-        <v>288</v>
+        <v>362</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>289</v>
+        <v>363</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>290</v>
+        <v>364</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>752</v>
+        <v>365</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
-        <v>291</v>
+        <v>366</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>292</v>
+        <v>367</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>293</v>
+        <v>368</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>662</v>
+        <v>369</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
-        <v>294</v>
+        <v>370</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>295</v>
+        <v>371</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>296</v>
+        <v>372</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>753</v>
+        <v>373</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
-        <v>297</v>
+        <v>374</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>298</v>
+        <v>375</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>299</v>
+        <v>376</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>663</v>
+        <v>377</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
-        <v>300</v>
+        <v>378</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>301</v>
+        <v>379</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>302</v>
+        <v>380</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>754</v>
+        <v>381</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
-        <v>303</v>
+        <v>382</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>304</v>
+        <v>383</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>305</v>
+        <v>384</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>664</v>
+        <v>385</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
-        <v>306</v>
+        <v>386</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>307</v>
+        <v>387</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>308</v>
+        <v>388</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>665</v>
+        <v>389</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
-        <v>309</v>
+        <v>390</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>310</v>
+        <v>391</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>311</v>
+        <v>392</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>755</v>
+        <v>394</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
-        <v>312</v>
+        <v>393</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>313</v>
+        <v>395</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>314</v>
+        <v>396</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>756</v>
+        <v>398</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
-        <v>315</v>
+        <v>397</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>316</v>
+        <v>399</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>317</v>
+        <v>400</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>666</v>
+        <v>401</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
-        <v>318</v>
+        <v>402</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>319</v>
+        <v>403</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>320</v>
+        <v>404</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>757</v>
+        <v>406</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
-        <v>321</v>
+        <v>405</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>322</v>
+        <v>407</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>323</v>
+        <v>408</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>585</v>
+        <v>761</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
-        <v>324</v>
+        <v>409</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>325</v>
+        <v>410</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>326</v>
+        <v>411</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>740</v>
+        <v>412</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
-        <v>327</v>
+        <v>413</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>328</v>
+        <v>414</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>329</v>
+        <v>415</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>667</v>
+        <v>416</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
-        <v>330</v>
+        <v>417</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>331</v>
+        <v>418</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>332</v>
+        <v>419</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>668</v>
+        <v>742</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
-        <v>333</v>
+        <v>420</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>334</v>
+        <v>421</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>335</v>
+        <v>422</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>669</v>
+        <v>423</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
-        <v>336</v>
+        <v>424</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>337</v>
+        <v>425</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>338</v>
+        <v>426</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>670</v>
+        <v>427</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
-        <v>339</v>
+        <v>428</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>340</v>
+        <v>429</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>341</v>
+        <v>430</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>671</v>
+        <v>431</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
-        <v>342</v>
+        <v>432</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>343</v>
+        <v>433</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>344</v>
+        <v>434</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>672</v>
+        <v>435</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
-        <v>345</v>
+        <v>436</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>346</v>
+        <v>437</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>347</v>
+        <v>438</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>673</v>
+        <v>439</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
-        <v>348</v>
+        <v>440</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>349</v>
+        <v>441</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>350</v>
+        <v>442</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>674</v>
+        <v>443</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
-        <v>351</v>
+        <v>444</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>352</v>
+        <v>445</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>353</v>
+        <v>446</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>675</v>
+        <v>447</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
-        <v>354</v>
+        <v>448</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>355</v>
+        <v>449</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>356</v>
+        <v>450</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>357</v>
+        <v>451</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>676</v>
+        <v>452</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
-        <v>358</v>
+        <v>453</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>359</v>
+        <v>454</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>356</v>
+        <v>450</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>360</v>
+        <v>455</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>677</v>
+        <v>456</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
-        <v>361</v>
+        <v>457</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>362</v>
+        <v>458</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>363</v>
+        <v>459</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>364</v>
+        <v>460</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>678</v>
+        <v>461</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
-        <v>365</v>
+        <v>462</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>366</v>
+        <v>463</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>363</v>
+        <v>459</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>367</v>
+        <v>464</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>679</v>
+        <v>465</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
-        <v>368</v>
+        <v>466</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>369</v>
+        <v>467</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>370</v>
+        <v>468</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>371</v>
+        <v>469</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>680</v>
+        <v>470</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
-        <v>372</v>
+        <v>471</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>373</v>
+        <v>472</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>370</v>
+        <v>468</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>374</v>
+        <v>473</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>681</v>
+        <v>474</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
-        <v>375</v>
+        <v>475</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>376</v>
+        <v>476</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>370</v>
+        <v>468</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>377</v>
+        <v>477</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>682</v>
+        <v>478</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
-        <v>378</v>
+        <v>479</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>379</v>
+        <v>480</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>370</v>
+        <v>468</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>380</v>
+        <v>481</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>683</v>
+        <v>482</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
-        <v>381</v>
+        <v>483</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>382</v>
+        <v>484</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>383</v>
+        <v>485</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>684</v>
+        <v>487</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
-        <v>385</v>
+        <v>488</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>386</v>
+        <v>489</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>383</v>
+        <v>485</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>387</v>
+        <v>490</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>685</v>
+        <v>491</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="s">
-        <v>388</v>
+        <v>492</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>389</v>
+        <v>493</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>390</v>
+        <v>494</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>391</v>
+        <v>495</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>686</v>
+        <v>496</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A130" s="1" t="s">
-        <v>392</v>
+        <v>497</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>393</v>
+        <v>498</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>390</v>
+        <v>494</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>394</v>
+        <v>499</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>687</v>
+        <v>500</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
-        <v>395</v>
+        <v>501</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>396</v>
+        <v>502</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>397</v>
+        <v>503</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>398</v>
+        <v>504</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>758</v>
+        <v>505</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
-        <v>399</v>
+        <v>506</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>400</v>
+        <v>507</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>397</v>
+        <v>503</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>401</v>
+        <v>508</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>759</v>
+        <v>509</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
-        <v>402</v>
+        <v>510</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>403</v>
+        <v>511</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>404</v>
+        <v>512</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>405</v>
+        <v>513</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>688</v>
+        <v>514</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A134" s="1" t="s">
-        <v>406</v>
+        <v>515</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>407</v>
+        <v>516</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>404</v>
+        <v>512</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>408</v>
+        <v>517</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>689</v>
+        <v>518</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
-        <v>409</v>
+        <v>519</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>410</v>
+        <v>520</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>411</v>
+        <v>521</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>412</v>
+        <v>522</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>690</v>
+        <v>523</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A136" s="1" t="s">
-        <v>413</v>
+        <v>524</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>414</v>
+        <v>525</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>411</v>
+        <v>521</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>415</v>
+        <v>526</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>691</v>
+        <v>527</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A137" s="1" t="s">
-        <v>416</v>
+        <v>528</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>417</v>
+        <v>529</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>418</v>
+        <v>530</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>419</v>
+        <v>531</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>760</v>
+        <v>533</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A138" s="1" t="s">
-        <v>420</v>
+        <v>532</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>421</v>
+        <v>534</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>418</v>
+        <v>530</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>422</v>
+        <v>535</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>692</v>
+        <v>536</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A139" s="1" t="s">
-        <v>423</v>
+        <v>537</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>424</v>
+        <v>538</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>425</v>
+        <v>539</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>426</v>
+        <v>540</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>581</v>
+        <v>542</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
-        <v>427</v>
+        <v>541</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>424</v>
+        <v>538</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>428</v>
+        <v>543</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>728</v>
+        <v>545</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
-        <v>429</v>
+        <v>544</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>424</v>
+        <v>538</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>430</v>
+        <v>546</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>431</v>
+        <v>547</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>582</v>
+        <v>549</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A142" s="1" t="s">
-        <v>432</v>
+        <v>548</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>424</v>
+        <v>538</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>433</v>
+        <v>550</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>434</v>
+        <v>551</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>584</v>
+        <v>552</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A143" s="1" t="s">
-        <v>435</v>
+        <v>553</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>424</v>
+        <v>538</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>322</v>
+        <v>407</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>436</v>
+        <v>554</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>586</v>
+        <v>763</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A144" s="1" t="s">
-        <v>437</v>
+        <v>555</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>424</v>
+        <v>538</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>275</v>
+        <v>345</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>438</v>
+        <v>556</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>587</v>
+        <v>558</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A145" s="1" t="s">
-        <v>439</v>
+        <v>557</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>424</v>
+        <v>538</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>440</v>
+        <v>559</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>441</v>
+        <v>560</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>588</v>
+        <v>562</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A146" s="1" t="s">
-        <v>442</v>
+        <v>561</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>424</v>
+        <v>538</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>443</v>
+        <v>563</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>444</v>
+        <v>564</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>590</v>
+        <v>566</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A147" s="1" t="s">
-        <v>445</v>
+        <v>565</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>424</v>
+        <v>538</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>446</v>
+        <v>567</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>447</v>
+        <v>568</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>593</v>
+        <v>762</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A148" s="1" t="s">
-        <v>448</v>
+        <v>569</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>424</v>
+        <v>538</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>449</v>
+        <v>570</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>450</v>
+        <v>571</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>591</v>
+        <v>573</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A149" s="1" t="s">
-        <v>451</v>
+        <v>572</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>452</v>
+        <v>574</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>453</v>
+        <v>575</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>454</v>
+        <v>576</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>727</v>
+        <v>746</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A150" s="1" t="s">
-        <v>455</v>
+        <v>577</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>452</v>
+        <v>574</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>456</v>
+        <v>578</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>457</v>
+        <v>579</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A151" s="1" t="s">
-        <v>458</v>
+        <v>580</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>452</v>
+        <v>574</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>459</v>
+        <v>582</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>460</v>
+        <v>583</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>693</v>
+        <v>584</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A152" s="1" t="s">
-        <v>461</v>
+        <v>585</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>452</v>
+        <v>574</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>462</v>
+        <v>586</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>463</v>
+        <v>587</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>694</v>
+        <v>588</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A153" s="1" t="s">
-        <v>464</v>
+        <v>589</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>452</v>
+        <v>574</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>465</v>
+        <v>590</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>466</v>
+        <v>591</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>695</v>
+        <v>592</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
-        <v>467</v>
+        <v>593</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>452</v>
+        <v>574</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>468</v>
+        <v>594</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>469</v>
+        <v>595</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>696</v>
+        <v>596</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>452</v>
+        <v>574</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>471</v>
+        <v>598</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>472</v>
+        <v>599</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>697</v>
+        <v>600</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
-        <v>473</v>
+        <v>601</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>452</v>
+        <v>574</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>474</v>
+        <v>602</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>475</v>
+        <v>603</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>698</v>
+        <v>604</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
-        <v>476</v>
+        <v>605</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>452</v>
+        <v>574</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>477</v>
+        <v>606</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>478</v>
+        <v>607</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>699</v>
+        <v>608</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
-        <v>479</v>
+        <v>609</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>452</v>
+        <v>574</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>480</v>
+        <v>610</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>481</v>
+        <v>611</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>700</v>
+        <v>612</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
-        <v>482</v>
+        <v>613</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>452</v>
+        <v>574</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>483</v>
+        <v>614</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>484</v>
+        <v>615</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>701</v>
+        <v>616</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
-        <v>485</v>
+        <v>617</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>452</v>
+        <v>574</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>486</v>
+        <v>618</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>487</v>
+        <v>619</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>702</v>
+        <v>620</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
-        <v>488</v>
+        <v>621</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>452</v>
+        <v>574</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>489</v>
+        <v>622</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>490</v>
+        <v>623</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>722</v>
+        <v>625</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
-        <v>491</v>
+        <v>624</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>452</v>
+        <v>574</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>492</v>
+        <v>626</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>493</v>
+        <v>627</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>703</v>
+        <v>628</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
-        <v>494</v>
+        <v>629</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>452</v>
+        <v>574</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>495</v>
+        <v>630</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>496</v>
+        <v>631</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>704</v>
+        <v>632</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
-        <v>497</v>
+        <v>633</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>452</v>
+        <v>574</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>498</v>
+        <v>634</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>499</v>
+        <v>635</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>705</v>
+        <v>636</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
-        <v>500</v>
+        <v>637</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>452</v>
+        <v>574</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>501</v>
+        <v>638</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>502</v>
+        <v>639</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>706</v>
+        <v>640</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
-        <v>503</v>
+        <v>641</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>452</v>
+        <v>574</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>504</v>
+        <v>642</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>505</v>
+        <v>643</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>707</v>
+        <v>644</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
-        <v>506</v>
+        <v>645</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>452</v>
+        <v>574</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>507</v>
+        <v>646</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>508</v>
+        <v>647</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>708</v>
+        <v>648</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
-        <v>509</v>
+        <v>649</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>452</v>
+        <v>574</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>510</v>
+        <v>650</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>511</v>
+        <v>651</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>709</v>
+        <v>652</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
-        <v>512</v>
+        <v>653</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>452</v>
+        <v>574</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>513</v>
+        <v>654</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>514</v>
+        <v>655</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>723</v>
+        <v>657</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
-        <v>515</v>
+        <v>656</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>452</v>
+        <v>574</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>516</v>
+        <v>658</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>517</v>
+        <v>659</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>710</v>
+        <v>660</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A171" s="1" t="s">
-        <v>518</v>
+        <v>661</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>452</v>
+        <v>574</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>519</v>
+        <v>662</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>520</v>
+        <v>663</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>711</v>
+        <v>664</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
-        <v>521</v>
+        <v>665</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>452</v>
+        <v>574</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>522</v>
+        <v>666</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>523</v>
+        <v>667</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>712</v>
+        <v>668</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
-        <v>524</v>
+        <v>669</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>452</v>
+        <v>574</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>525</v>
+        <v>670</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>526</v>
+        <v>671</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>713</v>
+        <v>672</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
-        <v>527</v>
+        <v>673</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>452</v>
+        <v>574</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>528</v>
+        <v>674</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>529</v>
+        <v>675</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>589</v>
+        <v>676</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A175" s="1" t="s">
-        <v>530</v>
+        <v>677</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>452</v>
+        <v>574</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>531</v>
+        <v>678</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>532</v>
+        <v>679</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>714</v>
+        <v>680</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A176" s="1" t="s">
-        <v>533</v>
+        <v>681</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>452</v>
+        <v>574</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>534</v>
+        <v>682</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>535</v>
+        <v>683</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>724</v>
+        <v>685</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A177" s="1" t="s">
-        <v>536</v>
+        <v>684</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>424</v>
+        <v>538</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>537</v>
+        <v>686</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>538</v>
+        <v>687</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>539</v>
+        <v>688</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>715</v>
+        <v>689</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A178" s="1" t="s">
-        <v>540</v>
+        <v>690</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>424</v>
+        <v>538</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>541</v>
+        <v>691</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>542</v>
+        <v>692</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>716</v>
+        <v>693</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A179" s="1" t="s">
-        <v>543</v>
+        <v>694</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>424</v>
+        <v>538</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>544</v>
+        <v>695</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>545</v>
+        <v>696</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>546</v>
+        <v>697</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>725</v>
+        <v>699</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A180" s="1" t="s">
-        <v>547</v>
+        <v>698</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>424</v>
+        <v>538</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>548</v>
+        <v>700</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>550</v>
+        <v>701</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>738</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>717</v>
+        <v>703</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A181" s="1" t="s">
-        <v>551</v>
+        <v>704</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>424</v>
+        <v>538</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>552</v>
+        <v>705</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>553</v>
+        <v>706</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>529</v>
+        <v>675</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>589</v>
+        <v>676</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A182" s="1" t="s">
-        <v>554</v>
+        <v>707</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>424</v>
+        <v>538</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>555</v>
+        <v>708</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>556</v>
+        <v>709</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>542</v>
+        <v>692</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>716</v>
+        <v>693</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A183" s="1" t="s">
-        <v>557</v>
+        <v>710</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>558</v>
+        <v>711</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>559</v>
+        <v>712</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>560</v>
+        <v>713</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>561</v>
+        <v>714</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A184" s="1" t="s">
-        <v>562</v>
+        <v>716</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>424</v>
+        <v>538</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>563</v>
+        <v>717</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>363</v>
+        <v>459</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>287</v>
+        <v>360</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>661</v>
+        <v>361</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A185" s="1" t="s">
-        <v>564</v>
+        <v>718</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>424</v>
+        <v>538</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>565</v>
+        <v>719</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>566</v>
+        <v>720</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>567</v>
+        <v>721</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A186" s="1" t="s">
-        <v>568</v>
+        <v>723</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>558</v>
+        <v>711</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>569</v>
+        <v>724</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>570</v>
+        <v>725</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>571</v>
+        <v>726</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A187" s="1" t="s">
-        <v>572</v>
+        <v>727</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>424</v>
+        <v>538</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>573</v>
+        <v>729</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>574</v>
+        <v>730</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>575</v>
+        <v>731</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A188" s="1" t="s">
-        <v>576</v>
+        <v>733</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>424</v>
+        <v>538</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>577</v>
+        <v>734</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>578</v>
+        <v>735</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>579</v>
+        <v>736</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>721</v>
+        <v>737</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A190" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>739</v>
       </c>
     </row>
   </sheetData>

--- a/Data/ferny/Better Architect Menu - 3563882422/Better Architect Menu - 3563882422.xlsx
+++ b/Data/ferny/Better Architect Menu - 3563882422/Better Architect Menu - 3563882422.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjmi0\Desktop\림월드 번역\Better Architect Menu - 3563882422\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691177CF-80C5-461C-9C26-35701D7CD352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBC08ED-6741-436A-831A-0469DDA618A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,20 +25,7 @@
     <author>bjmi0</author>
   </authors>
   <commentList>
-    <comment ref="E180" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2025-09-09 이전의 원문: 'Orbit'</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D183" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D183" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -51,7 +38,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D184" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="D184" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -64,25 +51,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="E190" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2025-09-09에 새로 추가된 노드들 (1개)</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="898">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -220,9 +194,6 @@
   </si>
   <si>
     <t>Things that relate to bedrooms.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Decorations.label</t>
   </si>
   <si>
     <r>
@@ -237,6 +208,9 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>DesignationCategoryDef+Ferny_Decorations.label</t>
+  </si>
+  <si>
     <t>Ferny_Decorations.label</t>
   </si>
   <si>
@@ -270,13 +244,22 @@
     <t>DesignationCategoryDef+Ferny_Production.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>제작</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_Production.description</t>
   </si>
   <si>
     <t>Make stuff.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_ProcessingProduction.label</t>
   </si>
   <si>
     <r>
@@ -291,6 +274,9 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>DesignationCategoryDef+Ferny_ProcessingProduction.label</t>
+  </si>
+  <si>
     <t>Ferny_ProcessingProduction.label</t>
   </si>
   <si>
@@ -322,726 +308,6 @@
   </si>
   <si>
     <t>DesignationCategoryDef+Ferny_CreativeProduction.description</t>
-  </si>
-  <si>
-    <t>Ferny_CreativeProduction.description</t>
-  </si>
-  <si>
-    <t>Creative production methods.</t>
-  </si>
-  <si>
-    <t>창작 생산 방식입니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Kitchen.label</t>
-  </si>
-  <si>
-    <t>Ferny_Kitchen.label</t>
-  </si>
-  <si>
-    <t>Kitchen</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Kitchen.description</t>
-  </si>
-  <si>
-    <t>Ferny_Kitchen.description</t>
-  </si>
-  <si>
-    <t>Things that relate to food.</t>
-  </si>
-  <si>
-    <t>음식과 관련된 건물입니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Farming.label</t>
-  </si>
-  <si>
-    <t>Ferny_Farming.label</t>
-  </si>
-  <si>
-    <t>Farming</t>
-  </si>
-  <si>
-    <t>농사</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Farming.description</t>
-  </si>
-  <si>
-    <t>Ferny_Farming.description</t>
-  </si>
-  <si>
-    <t>Things that relate to agriculture.</t>
-  </si>
-  <si>
-    <t>농업과 관련된 건물입니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_ResearchProduction.label</t>
-  </si>
-  <si>
-    <t>Ferny_ResearchProduction.label</t>
-  </si>
-  <si>
-    <t>Research</t>
-  </si>
-  <si>
-    <t>연구</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_ResearchProduction.description</t>
-  </si>
-  <si>
-    <t>Ferny_ResearchProduction.description</t>
-  </si>
-  <si>
-    <t>Foundational production methods.</t>
-  </si>
-  <si>
-    <t>기초적인 생산 방식입니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Auxiliaries.label</t>
-  </si>
-  <si>
-    <t>Ferny_Auxiliaries.label</t>
-  </si>
-  <si>
-    <t>Auxiliaries</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Auxiliaries.description</t>
-  </si>
-  <si>
-    <t>Ferny_Auxiliaries.description</t>
-  </si>
-  <si>
-    <t>Things that boost workspeed.</t>
-  </si>
-  <si>
-    <t>작업 속도를 높여주는 건물입니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_ProductionInfrastructure.label</t>
-  </si>
-  <si>
-    <t>Ferny_ProductionInfrastructure.label</t>
-  </si>
-  <si>
-    <t>Infrastructure</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_ProductionInfrastructure.description</t>
-  </si>
-  <si>
-    <t>Ferny_ProductionInfrastructure.description</t>
-  </si>
-  <si>
-    <t>Managing production.</t>
-  </si>
-  <si>
-    <t>생산을 관리합니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_PowerGeneration.label</t>
-  </si>
-  <si>
-    <t>Ferny_PowerGeneration.label</t>
-  </si>
-  <si>
-    <t>Generation</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_PowerGeneration.description</t>
-  </si>
-  <si>
-    <t>Ferny_PowerGeneration.description</t>
-  </si>
-  <si>
-    <t>Things that help you generate your power.</t>
-  </si>
-  <si>
-    <t>전력 생산을 돕는 건물입니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_PowerStorage.label</t>
-  </si>
-  <si>
-    <t>Ferny_PowerStorage.label</t>
-  </si>
-  <si>
-    <t>Storage</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_PowerStorage.description</t>
-  </si>
-  <si>
-    <t>Ferny_PowerStorage.description</t>
-  </si>
-  <si>
-    <t>Things that help you store power.</t>
-  </si>
-  <si>
-    <t>전력 저장을 돕는 건물입니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_PowerManagement.label</t>
-  </si>
-  <si>
-    <t>Ferny_PowerManagement.label</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_PowerManagement.description</t>
-  </si>
-  <si>
-    <t>Ferny_PowerManagement.description</t>
-  </si>
-  <si>
-    <t>Things that help you manage your power.</t>
-  </si>
-  <si>
-    <t>전력 관리를 돕는 건물입니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Animals.label</t>
-  </si>
-  <si>
-    <t>Ferny_Animals.label</t>
-  </si>
-  <si>
-    <t>Animals</t>
-  </si>
-  <si>
-    <t>동물</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Animals.description</t>
-  </si>
-  <si>
-    <t>Ferny_Animals.description</t>
-  </si>
-  <si>
-    <t>Things that relate to animals.</t>
-  </si>
-  <si>
-    <t>동물과 관련된 건물입니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Walls.label</t>
-  </si>
-  <si>
-    <t>Ferny_Walls.label</t>
-  </si>
-  <si>
-    <t>Walls</t>
-  </si>
-  <si>
-    <t>벽</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Walls.description</t>
-  </si>
-  <si>
-    <t>Ferny_Walls.description</t>
-  </si>
-  <si>
-    <t>Build structural walls.</t>
-  </si>
-  <si>
-    <t>구조적인 벽을 건설합니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Doors.label</t>
-  </si>
-  <si>
-    <t>Ferny_Doors.label</t>
-  </si>
-  <si>
-    <t>Doors</t>
-  </si>
-  <si>
-    <t>문</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Doors.description</t>
-  </si>
-  <si>
-    <t>Ferny_Doors.description</t>
-  </si>
-  <si>
-    <t>Build structural doors.</t>
-  </si>
-  <si>
-    <t>구조적인 문을 건설합니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Foundations.label</t>
-  </si>
-  <si>
-    <t>Ferny_Foundations.label</t>
-  </si>
-  <si>
-    <t>Foundations</t>
-  </si>
-  <si>
-    <t>기반</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Foundations.description</t>
-  </si>
-  <si>
-    <t>Ferny_Foundations.description</t>
-  </si>
-  <si>
-    <t>Build structural bridges.</t>
-  </si>
-  <si>
-    <t>구조적인 다리를 건설합니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Supports.label</t>
-  </si>
-  <si>
-    <t>Ferny_Supports.label</t>
-  </si>
-  <si>
-    <t>Supports</t>
-  </si>
-  <si>
-    <t>지지대</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Supports.description</t>
-  </si>
-  <si>
-    <t>Ferny_Supports.description</t>
-  </si>
-  <si>
-    <t>Build structural supports.</t>
-  </si>
-  <si>
-    <t>구조적인 지지대를 건설합니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Barricades.label</t>
-  </si>
-  <si>
-    <t>Ferny_Barricades.label</t>
-  </si>
-  <si>
-    <t>Barricades</t>
-  </si>
-  <si>
-    <t>방벽</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Barricades.description</t>
-  </si>
-  <si>
-    <t>Ferny_Barricades.description</t>
-  </si>
-  <si>
-    <t>Build barricades for your enemies.</t>
-  </si>
-  <si>
-    <t>적을 막을 방벽을 건설합니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Traps.label</t>
-  </si>
-  <si>
-    <t>Ferny_Traps.label</t>
-  </si>
-  <si>
-    <t>Traps</t>
-  </si>
-  <si>
-    <t>함정</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Traps.description</t>
-  </si>
-  <si>
-    <t>Ferny_Traps.description</t>
-  </si>
-  <si>
-    <t>Build traps for your enemies.</t>
-  </si>
-  <si>
-    <t>적을 잡을 함정을 건설합니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Weapons.label</t>
-  </si>
-  <si>
-    <t>Ferny_Weapons.label</t>
-  </si>
-  <si>
-    <t>Weapons</t>
-  </si>
-  <si>
-    <t>무기</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Weapons.description</t>
-  </si>
-  <si>
-    <t>Ferny_Weapons.description</t>
-  </si>
-  <si>
-    <t>Build weapons for your enemies.</t>
-  </si>
-  <si>
-    <t>적을 상대할 무기를 제작합니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_CombatInfrastructure.label</t>
-  </si>
-  <si>
-    <t>Ferny_CombatInfrastructure.label</t>
-  </si>
-  <si>
-    <t>Locations</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_CombatInfrastructure.description</t>
-  </si>
-  <si>
-    <t>Ferny_CombatInfrastructure.description</t>
-  </si>
-  <si>
-    <t>Build infrastructure for your enemies.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Ranching.label</t>
-  </si>
-  <si>
-    <t>Ferny_Ranching.label</t>
-  </si>
-  <si>
-    <t>Ranching</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Ranching.description</t>
-  </si>
-  <si>
-    <t>Ferny_Ranching.description</t>
-  </si>
-  <si>
-    <t>Farming your animals.</t>
-  </si>
-  <si>
-    <t>동물을 사육합니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_AnimalBedding.label</t>
-  </si>
-  <si>
-    <t>Ferny_AnimalBedding.label</t>
-  </si>
-  <si>
-    <t>Bedding</t>
-  </si>
-  <si>
-    <t>잠자리</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_AnimalBedding.description</t>
-  </si>
-  <si>
-    <t>Ferny_AnimalBedding.description</t>
-  </si>
-  <si>
-    <t>Build bedding for your animals.</t>
-  </si>
-  <si>
-    <t>동물을 위한 잠자리를 건설합니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_AnimalTravel.label</t>
-  </si>
-  <si>
-    <t>Ferny_AnimalTravel.label</t>
-  </si>
-  <si>
-    <t>Travel</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_AnimalTravel.description</t>
-  </si>
-  <si>
-    <t>Ferny_AnimalTravel.description</t>
-  </si>
-  <si>
-    <t>Travel management for animals.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Heating.label</t>
-  </si>
-  <si>
-    <t>Ferny_Heating.label</t>
-  </si>
-  <si>
-    <t>Heating</t>
-  </si>
-  <si>
-    <t>난방</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Heating.description</t>
-  </si>
-  <si>
-    <t>Ferny_Heating.description</t>
-  </si>
-  <si>
-    <t>Heat your colonists.</t>
-  </si>
-  <si>
-    <t>정착민을 따뜻하게 합니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Cooling.label</t>
-  </si>
-  <si>
-    <t>Ferny_Cooling.label</t>
-  </si>
-  <si>
-    <t>Cooling</t>
-  </si>
-  <si>
-    <t>냉방</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Cooling.description</t>
-  </si>
-  <si>
-    <t>Ferny_Cooling.description</t>
-  </si>
-  <si>
-    <t>Cool your colonists.</t>
-  </si>
-  <si>
-    <t>정착민을 시원하게 합니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_AirManagement.label</t>
-  </si>
-  <si>
-    <t>Ferny_AirManagement.label</t>
-  </si>
-  <si>
-    <t>Airflow</t>
-  </si>
-  <si>
-    <t>환기</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_AirManagement.description</t>
-  </si>
-  <si>
-    <t>Ferny_AirManagement.description</t>
-  </si>
-  <si>
-    <t>Manage airflow.</t>
-  </si>
-  <si>
-    <t>공기 흐름을 관리합니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Firefoam.label</t>
-  </si>
-  <si>
-    <t>Ferny_Firefoam.label</t>
-  </si>
-  <si>
-    <t>Firefoam</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Firefoam.description</t>
-  </si>
-  <si>
-    <t>Ferny_Firefoam.description</t>
-  </si>
-  <si>
-    <t>Manage firefoam.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Life.label</t>
-  </si>
-  <si>
-    <t>Ferny_Life.label</t>
-  </si>
-  <si>
-    <t>People</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Life.description</t>
-  </si>
-  <si>
-    <t>Ferny_Life.description</t>
-  </si>
-  <si>
-    <t>Manage colonists.</t>
-  </si>
-  <si>
-    <t>정착민을 관리합니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Childhood.label</t>
-  </si>
-  <si>
-    <t>Ferny_Childhood.label</t>
-  </si>
-  <si>
-    <t>Childhood</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Childhood.description</t>
-  </si>
-  <si>
-    <t>Ferny_Childhood.description</t>
-  </si>
-  <si>
-    <t>Things that relate to childhood.</t>
-  </si>
-  <si>
-    <t>유년기와 관련된 건물입니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_ColonyLocations.label</t>
-  </si>
-  <si>
-    <t>Ferny_ColonyLocations.label</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_ColonyLocations.description</t>
-  </si>
-  <si>
-    <t>Ferny_ColonyLocations.description</t>
-  </si>
-  <si>
-    <t>Manage relevant colony locations.</t>
-  </si>
-  <si>
-    <t>정착지의 관련 구역을 관리합니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Biotech.label</t>
-  </si>
-  <si>
-    <t>Ferny_Biotech.label</t>
-  </si>
-  <si>
-    <t>Biotech</t>
-  </si>
-  <si>
-    <t>생명공학</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Biotech.description</t>
-  </si>
-  <si>
-    <t>Ferny_Biotech.description</t>
-  </si>
-  <si>
-    <t>Manage biotechnology.</t>
-  </si>
-  <si>
-    <t>생명공학 기술을 관리합니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Transport.label</t>
-  </si>
-  <si>
-    <t>Ferny_Transport.label</t>
-  </si>
-  <si>
-    <t>Transport</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Transport.description</t>
-  </si>
-  <si>
-    <t>Ferny_Transport.description</t>
-  </si>
-  <si>
-    <t>Manage transport.</t>
-  </si>
-  <si>
-    <t>탈것을 관리합니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Medical.label</t>
-  </si>
-  <si>
-    <t>Ferny_Medical.label</t>
-  </si>
-  <si>
-    <t>Medical</t>
-  </si>
-  <si>
-    <t>의료</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Medical.description</t>
-  </si>
-  <si>
-    <t>Ferny_Medical.description</t>
-  </si>
-  <si>
-    <t>Manage medical tech.</t>
-  </si>
-  <si>
-    <t>의료 기술을 관리합니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Enhancement.label</t>
-  </si>
-  <si>
-    <t>Ferny_Enhancement.label</t>
-  </si>
-  <si>
-    <t>Enhancement</t>
-  </si>
-  <si>
-    <t>강화</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Enhancement.description</t>
-  </si>
-  <si>
-    <t>Ferny_Enhancement.description</t>
-  </si>
-  <si>
-    <t>Enhance your colonists.</t>
-  </si>
-  <si>
-    <t>정착민을 강화합니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_GroundTransport.label</t>
-  </si>
-  <si>
-    <t>Ferny_GroundTransport.label</t>
-  </si>
-  <si>
-    <t>Ground</t>
-  </si>
-  <si>
-    <t>지상</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_GroundTransport.description</t>
-  </si>
-  <si>
-    <t>Ferny_GroundTransport.description</t>
-  </si>
-  <si>
-    <t>Build ground transport.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_AerialTransport.label</t>
   </si>
   <si>
     <r>
@@ -1051,30 +317,30 @@
         <rFont val="맑은 고딕"/>
         <family val="2"/>
       </rPr>
-      <t>지상 탈것을 제작합니다.</t>
+      <t>예술</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>Ferny_AerialTransport.label</t>
-  </si>
-  <si>
-    <t>Aerial</t>
-  </si>
-  <si>
-    <t>공중</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_AerialTransport.description</t>
-  </si>
-  <si>
-    <t>Ferny_AerialTransport.description</t>
-  </si>
-  <si>
-    <t>Build aerial transport.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_MilitaryTransport.label</t>
+    <t>Ferny_CreativeProduction.description</t>
+  </si>
+  <si>
+    <t>Creative production methods.</t>
+  </si>
+  <si>
+    <t>창작 생산 방식입니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Kitchen.label</t>
+  </si>
+  <si>
+    <t>Ferny_Kitchen.label</t>
+  </si>
+  <si>
+    <t>Kitchen</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Kitchen.description</t>
   </si>
   <si>
     <r>
@@ -1084,30 +350,78 @@
         <rFont val="맑은 고딕"/>
         <family val="2"/>
       </rPr>
-      <t>공중 탈것을 제작합니다.</t>
+      <t>요리</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>Ferny_MilitaryTransport.label</t>
-  </si>
-  <si>
-    <t>Military</t>
-  </si>
-  <si>
-    <t>군용</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_MilitaryTransport.description</t>
-  </si>
-  <si>
-    <t>Ferny_MilitaryTransport.description</t>
-  </si>
-  <si>
-    <t>Build military transport.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_NavalTransport.label</t>
+    <t>Ferny_Kitchen.description</t>
+  </si>
+  <si>
+    <t>Things that relate to food.</t>
+  </si>
+  <si>
+    <t>음식과 관련된 건물입니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Farming.label</t>
+  </si>
+  <si>
+    <t>Ferny_Farming.label</t>
+  </si>
+  <si>
+    <t>Farming</t>
+  </si>
+  <si>
+    <t>농사</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Farming.description</t>
+  </si>
+  <si>
+    <t>Ferny_Farming.description</t>
+  </si>
+  <si>
+    <t>Things that relate to agriculture.</t>
+  </si>
+  <si>
+    <t>농업과 관련된 건물입니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_ResearchProduction.label</t>
+  </si>
+  <si>
+    <t>Ferny_ResearchProduction.label</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>연구</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_ResearchProduction.description</t>
+  </si>
+  <si>
+    <t>Ferny_ResearchProduction.description</t>
+  </si>
+  <si>
+    <t>Foundational production methods.</t>
+  </si>
+  <si>
+    <t>기초적인 생산 방식입니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Auxiliaries.label</t>
+  </si>
+  <si>
+    <t>Ferny_Auxiliaries.label</t>
+  </si>
+  <si>
+    <t>Auxiliaries</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Auxiliaries.description</t>
   </si>
   <si>
     <r>
@@ -1117,18 +431,804 @@
         <rFont val="맑은 고딕"/>
         <family val="2"/>
       </rPr>
-      <t>군용 탈것을 제작합니다.</t>
+      <t>보조</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>Ferny_Auxiliaries.description</t>
+  </si>
+  <si>
+    <t>Things that boost workspeed.</t>
+  </si>
+  <si>
+    <t>작업 속도를 높여주는 건물입니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_ProductionInfrastructure.label</t>
+  </si>
+  <si>
+    <t>Infrastructure</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_ProductionInfrastructure.description</t>
+  </si>
+  <si>
+    <t>Ferny_ProductionInfrastructure.description</t>
+  </si>
+  <si>
+    <t>Managing production.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_PowerGeneration.label</t>
+  </si>
+  <si>
+    <t>Ferny_PowerGeneration.label</t>
+  </si>
+  <si>
+    <t>Generation</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_PowerGeneration.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>발전</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ferny_PowerGeneration.description</t>
+  </si>
+  <si>
+    <t>Things that help you generate your power.</t>
+  </si>
+  <si>
+    <t>전력 생산을 돕는 건물입니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_PowerStorage.label</t>
+  </si>
+  <si>
+    <t>Ferny_PowerStorage.label</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_PowerStorage.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>저장</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ferny_PowerStorage.description</t>
+  </si>
+  <si>
+    <t>Things that help you store power.</t>
+  </si>
+  <si>
+    <t>전력 저장을 돕는 건물입니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_PowerManagement.label</t>
+  </si>
+  <si>
+    <t>Ferny_PowerManagement.label</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_PowerManagement.description</t>
+  </si>
+  <si>
+    <t>Ferny_PowerManagement.description</t>
+  </si>
+  <si>
+    <t>Things that help you manage your power.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Animals.label</t>
+  </si>
+  <si>
+    <t>Ferny_Animals.label</t>
+  </si>
+  <si>
+    <t>Animals</t>
+  </si>
+  <si>
+    <t>동물</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Animals.description</t>
+  </si>
+  <si>
+    <t>Ferny_Animals.description</t>
+  </si>
+  <si>
+    <t>Things that relate to animals.</t>
+  </si>
+  <si>
+    <t>동물과 관련된 건물입니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Walls.label</t>
+  </si>
+  <si>
+    <t>Ferny_Walls.label</t>
+  </si>
+  <si>
+    <t>Walls</t>
+  </si>
+  <si>
+    <t>벽</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Walls.description</t>
+  </si>
+  <si>
+    <t>Ferny_Walls.description</t>
+  </si>
+  <si>
+    <t>Build structural walls.</t>
+  </si>
+  <si>
+    <t>구조적인 벽을 건설합니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Doors.label</t>
+  </si>
+  <si>
+    <t>Ferny_Doors.label</t>
+  </si>
+  <si>
+    <t>Doors</t>
+  </si>
+  <si>
+    <t>문</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Doors.description</t>
+  </si>
+  <si>
+    <t>Ferny_Doors.description</t>
+  </si>
+  <si>
+    <t>Build structural doors.</t>
+  </si>
+  <si>
+    <t>구조적인 문을 건설합니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Foundations.label</t>
+  </si>
+  <si>
+    <t>Ferny_Foundations.label</t>
+  </si>
+  <si>
+    <t>Foundations</t>
+  </si>
+  <si>
+    <t>기반</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Foundations.description</t>
+  </si>
+  <si>
+    <t>Ferny_Foundations.description</t>
+  </si>
+  <si>
+    <t>Build structural bridges.</t>
+  </si>
+  <si>
+    <t>구조적인 다리를 건설합니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Supports.label</t>
+  </si>
+  <si>
+    <t>Ferny_Supports.label</t>
+  </si>
+  <si>
+    <t>Supports</t>
+  </si>
+  <si>
+    <t>지지대</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Supports.description</t>
+  </si>
+  <si>
+    <t>Ferny_Supports.description</t>
+  </si>
+  <si>
+    <t>Build structural supports.</t>
+  </si>
+  <si>
+    <t>구조적인 지지대를 건설합니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Barricades.label</t>
+  </si>
+  <si>
+    <t>Ferny_Barricades.label</t>
+  </si>
+  <si>
+    <t>Barricades</t>
+  </si>
+  <si>
+    <t>방벽</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Barricades.description</t>
+  </si>
+  <si>
+    <t>Ferny_Barricades.description</t>
+  </si>
+  <si>
+    <t>Build barricades for your enemies.</t>
+  </si>
+  <si>
+    <t>적을 막을 방벽을 건설합니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Traps.label</t>
+  </si>
+  <si>
+    <t>Ferny_Traps.label</t>
+  </si>
+  <si>
+    <t>Traps</t>
+  </si>
+  <si>
+    <t>함정</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Traps.description</t>
+  </si>
+  <si>
+    <t>Ferny_Traps.description</t>
+  </si>
+  <si>
+    <t>Build traps for your enemies.</t>
+  </si>
+  <si>
+    <t>적을 잡을 함정을 건설합니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Weapons.label</t>
+  </si>
+  <si>
+    <t>Ferny_Weapons.label</t>
+  </si>
+  <si>
+    <t>Weapons</t>
+  </si>
+  <si>
+    <t>무기</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Weapons.description</t>
+  </si>
+  <si>
+    <t>Ferny_Weapons.description</t>
+  </si>
+  <si>
+    <t>Build weapons for your enemies.</t>
+  </si>
+  <si>
+    <t>적을 상대할 무기를 제작합니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_CombatInfrastructure.label</t>
+  </si>
+  <si>
+    <t>Ferny_CombatInfrastructure.label</t>
+  </si>
+  <si>
+    <t>Resource</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_CombatInfrastructure.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>장소</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ferny_CombatInfrastructure.description</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Ranching.label</t>
+  </si>
+  <si>
+    <t>Ferny_Ranching.label</t>
+  </si>
+  <si>
+    <t>Ranching</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Ranching.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>목축</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ferny_Ranching.description</t>
+  </si>
+  <si>
+    <t>Farming your animals.</t>
+  </si>
+  <si>
+    <t>동물을 사육합니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_AnimalBedding.label</t>
+  </si>
+  <si>
+    <t>Ferny_AnimalBedding.label</t>
+  </si>
+  <si>
+    <t>Bedding</t>
+  </si>
+  <si>
+    <t>잠자리</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_AnimalBedding.description</t>
+  </si>
+  <si>
+    <t>Ferny_AnimalBedding.description</t>
+  </si>
+  <si>
+    <t>Build bedding for your animals.</t>
+  </si>
+  <si>
+    <t>동물을 위한 잠자리를 건설합니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_AnimalTravel.label</t>
+  </si>
+  <si>
+    <t>Ferny_AnimalTravel.label</t>
+  </si>
+  <si>
+    <t>Travel</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_AnimalTravel.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>상단</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ferny_AnimalTravel.description</t>
+  </si>
+  <si>
+    <t>Travel management for animals.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Heating.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>상단 동물을 관리합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ferny_Heating.label</t>
+  </si>
+  <si>
+    <t>Heating</t>
+  </si>
+  <si>
+    <t>난방</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Heating.description</t>
+  </si>
+  <si>
+    <t>Ferny_Heating.description</t>
+  </si>
+  <si>
+    <t>Heat your colonists.</t>
+  </si>
+  <si>
+    <t>정착민을 따뜻하게 합니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Cooling.label</t>
+  </si>
+  <si>
+    <t>Ferny_Cooling.label</t>
+  </si>
+  <si>
+    <t>Cooling</t>
+  </si>
+  <si>
+    <t>냉방</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Cooling.description</t>
+  </si>
+  <si>
+    <t>Ferny_Cooling.description</t>
+  </si>
+  <si>
+    <t>Cool your colonists.</t>
+  </si>
+  <si>
+    <t>정착민을 시원하게 합니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_AirManagement.label</t>
+  </si>
+  <si>
+    <t>Ferny_AirManagement.label</t>
+  </si>
+  <si>
+    <t>Airflow</t>
+  </si>
+  <si>
+    <t>환기</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_AirManagement.description</t>
+  </si>
+  <si>
+    <t>Ferny_AirManagement.description</t>
+  </si>
+  <si>
+    <t>Manage airflow.</t>
+  </si>
+  <si>
+    <t>공기 흐름을 관리합니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Firefoam.label</t>
+  </si>
+  <si>
+    <t>Ferny_Firefoam.label</t>
+  </si>
+  <si>
+    <t>Firefoam</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Firefoam.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>소방거품</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ferny_Firefoam.description</t>
+  </si>
+  <si>
+    <t>Manage firefoam.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Life.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>소방거품을 관리합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ferny_Life.label</t>
+  </si>
+  <si>
+    <t>People</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Life.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>정착민</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ferny_Life.description</t>
+  </si>
+  <si>
+    <t>Manage colonists.</t>
+  </si>
+  <si>
+    <t>정착민을 관리합니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Childhood.label</t>
+  </si>
+  <si>
+    <t>Ferny_Childhood.label</t>
+  </si>
+  <si>
+    <t>Childhood</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Childhood.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>아동</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ferny_Childhood.description</t>
+  </si>
+  <si>
+    <t>Things that relate to childhood.</t>
+  </si>
+  <si>
+    <t>유년기와 관련된 건물입니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_ColonyLocations.label</t>
+  </si>
+  <si>
+    <t>Ferny_ColonyLocations.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>Locations</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ferny_ColonyLocations.description</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_ColonyLocations.description</t>
+  </si>
+  <si>
+    <t>Manage relevant colony locations.</t>
+  </si>
+  <si>
+    <t>정착지의 관련 구역을 관리합니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Biotech.label</t>
+  </si>
+  <si>
+    <t>Ferny_Biotech.label</t>
+  </si>
+  <si>
+    <t>Biotech</t>
+  </si>
+  <si>
+    <t>생명공학</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Biotech.description</t>
+  </si>
+  <si>
+    <t>Ferny_Biotech.description</t>
+  </si>
+  <si>
+    <t>Manage biotechnology.</t>
+  </si>
+  <si>
+    <t>생명공학 기술을 관리합니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Transport.label</t>
+  </si>
+  <si>
+    <t>Ferny_Transport.label</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Transport.description</t>
+  </si>
+  <si>
+    <t>Ferny_Transport.description</t>
+  </si>
+  <si>
+    <t>Manage transport.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Medical.label</t>
+  </si>
+  <si>
+    <t>Ferny_Medical.label</t>
+  </si>
+  <si>
+    <t>Medical</t>
+  </si>
+  <si>
+    <t>의료</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Medical.description</t>
+  </si>
+  <si>
+    <t>Ferny_Medical.description</t>
+  </si>
+  <si>
+    <t>Manage medical tech.</t>
+  </si>
+  <si>
+    <t>의료 기술을 관리합니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Enhancement.label</t>
+  </si>
+  <si>
+    <t>Ferny_Enhancement.label</t>
+  </si>
+  <si>
+    <t>Enhancement</t>
+  </si>
+  <si>
+    <t>강화</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Enhancement.description</t>
+  </si>
+  <si>
+    <t>Ferny_Enhancement.description</t>
+  </si>
+  <si>
+    <t>Enhance your colonists.</t>
+  </si>
+  <si>
+    <t>정착민을 강화합니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_GroundTransport.label</t>
+  </si>
+  <si>
+    <t>Ferny_GroundTransport.label</t>
+  </si>
+  <si>
+    <t>Ground</t>
+  </si>
+  <si>
+    <t>지상</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_GroundTransport.description</t>
+  </si>
+  <si>
+    <t>Ferny_GroundTransport.description</t>
+  </si>
+  <si>
+    <t>Build ground transport.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_AerialTransport.label</t>
+  </si>
+  <si>
+    <t>Ferny_AerialTransport.label</t>
+  </si>
+  <si>
+    <t>Aerial</t>
+  </si>
+  <si>
+    <t>공중</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_AerialTransport.description</t>
+  </si>
+  <si>
+    <t>Ferny_AerialTransport.description</t>
+  </si>
+  <si>
+    <t>Build aerial transport.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_MilitaryTransport.label</t>
+  </si>
+  <si>
+    <t>Ferny_MilitaryTransport.label</t>
+  </si>
+  <si>
+    <t>Military</t>
+  </si>
+  <si>
+    <t>군용</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_MilitaryTransport.description</t>
+  </si>
+  <si>
+    <t>Ferny_MilitaryTransport.description</t>
+  </si>
+  <si>
+    <t>Build military transport.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_NavalTransport.label</t>
+  </si>
+  <si>
     <t>Ferny_NavalTransport.label</t>
   </si>
   <si>
     <t>Naval</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_NavalTransport.description</t>
   </si>
   <si>
     <r>
@@ -1143,6 +1243,9 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>DesignationCategoryDef+Ferny_NavalTransport.description</t>
+  </si>
+  <si>
     <t>Ferny_NavalTransport.description</t>
   </si>
   <si>
@@ -1152,18 +1255,6 @@
     <t>DesignationCategoryDef+Ferny_TransportInfrastructure.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>해상 탈것을 제작합니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>Ferny_TransportInfrastructure.label</t>
   </si>
   <si>
@@ -1176,25 +1267,19 @@
     <t>Build transport infrastructure.</t>
   </si>
   <si>
-    <t>수송 기반 시설을 건설합니다.</t>
-  </si>
-  <si>
     <t>DesignationCategoryDef+Ferny_Storage.label</t>
   </si>
   <si>
     <t>Ferny_Storage.label</t>
   </si>
   <si>
+    <t>Ferny_Storage.description</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Storage.description</t>
   </si>
   <si>
-    <t>Ferny_Storage.description</t>
-  </si>
-  <si>
     <t>Build storage.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_GeneralStorage.label</t>
   </si>
   <si>
     <r>
@@ -1209,6 +1294,9 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>DesignationCategoryDef+Ferny_GeneralStorage.label</t>
+  </si>
+  <si>
     <t>Ferny_GeneralStorage.label</t>
   </si>
   <si>
@@ -1333,9 +1421,6 @@
   </si>
   <si>
     <t>World</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_World.description</t>
   </si>
   <si>
     <r>
@@ -1350,13 +1435,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>DesignationCategoryDef+Ferny_World.description</t>
+  </si>
+  <si>
     <t>Ferny_World.description</t>
   </si>
   <si>
     <t>Manage the world.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Outreach.label</t>
   </si>
   <si>
     <r>
@@ -1371,6 +1456,9 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>DesignationCategoryDef+Ferny_Outreach.label</t>
+  </si>
+  <si>
     <t>Ferny_Outreach.label</t>
   </si>
   <si>
@@ -1387,9 +1475,6 @@
   </si>
   <si>
     <t>Things that reach out into the world.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Automation.label</t>
   </si>
   <si>
     <r>
@@ -1404,6 +1489,9 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>DesignationCategoryDef+Ferny_Automation.label</t>
+  </si>
+  <si>
     <t>Ferny_Automation.label</t>
   </si>
   <si>
@@ -1413,6 +1501,18 @@
     <t>DesignationCategoryDef+Ferny_Automation.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>공장</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_Automation.description</t>
   </si>
   <si>
@@ -1446,6 +1546,18 @@
     <t>DesignationCategoryDef+Ferny_Museum.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>상점</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_Museum.label</t>
   </si>
   <si>
@@ -1777,9 +1889,6 @@
   </si>
   <si>
     <t>Sleeving</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Sleeving.description</t>
   </si>
   <si>
     <r>
@@ -1794,6 +1903,9 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>DesignationCategoryDef+Ferny_Sleeving.description</t>
+  </si>
+  <si>
     <t>Ferny_Sleeving.description</t>
   </si>
   <si>
@@ -1813,9 +1925,6 @@
   </si>
   <si>
     <t>Fight</t>
-  </si>
-  <si>
-    <t>Patches.DesignationCategoryDef+Ferny_Colony.label</t>
   </si>
   <si>
     <r>
@@ -1830,10 +1939,10 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>Patches.DesignationCategoryDef+Ferny_Colony.label</t>
+  </si>
+  <si>
     <t>Manage</t>
-  </si>
-  <si>
-    <t>Patches.DesignationCategoryDef+Structure.label</t>
   </si>
   <si>
     <r>
@@ -1848,13 +1957,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>Patches.DesignationCategoryDef+Structure.label</t>
+  </si>
+  <si>
     <t>Structure.label</t>
   </si>
   <si>
     <t>Build</t>
-  </si>
-  <si>
-    <t>Patches.DesignationCategoryDef+Production.label</t>
   </si>
   <si>
     <r>
@@ -1869,6 +1978,9 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>Patches.DesignationCategoryDef+Production.label</t>
+  </si>
+  <si>
     <t>Production.label</t>
   </si>
   <si>
@@ -1896,10 +2008,19 @@
     <t>Patches.DesignationCategoryDef+Ferny_Storage.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>자동화</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Store</t>
-  </si>
-  <si>
-    <t>Patches.DesignationCategoryDef+Furniture.label</t>
   </si>
   <si>
     <r>
@@ -1914,13 +2035,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>Patches.DesignationCategoryDef+Furniture.label</t>
+  </si>
+  <si>
     <t>Furniture.label</t>
   </si>
   <si>
     <t>Furnish</t>
-  </si>
-  <si>
-    <t>Patches.DesignationCategoryDef+Misc.label</t>
   </si>
   <si>
     <r>
@@ -1935,13 +2056,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>Patches.DesignationCategoryDef+Misc.label</t>
+  </si>
+  <si>
     <t>Misc.label</t>
   </si>
   <si>
     <t>More</t>
-  </si>
-  <si>
-    <t>Patches.DesignationCategoryDef+Temperature.label</t>
   </si>
   <si>
     <r>
@@ -1956,6 +2077,9 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>Patches.DesignationCategoryDef+Temperature.label</t>
+  </si>
+  <si>
     <t>Temperature.label</t>
   </si>
   <si>
@@ -1965,13 +2089,22 @@
     <t>Patches.DesignationCategoryDef+Ship.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>온도</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ship.label</t>
   </si>
   <si>
     <t>Space</t>
-  </si>
-  <si>
-    <t>Keyed+BA.Free</t>
   </si>
   <si>
     <r>
@@ -1986,6 +2119,9 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>Keyed+BA.Free</t>
+  </si>
+  <si>
     <t>Keyed</t>
   </si>
   <si>
@@ -1998,13 +2134,22 @@
     <t>Keyed+BA.GroupByTechLevel</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>재료 없음</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>BA.GroupByTechLevel</t>
   </si>
   <si>
     <t>Group by Tech Level</t>
-  </si>
-  <si>
-    <t>Keyed+BA.MenuHeight</t>
   </si>
   <si>
     <r>
@@ -2019,6 +2164,9 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>Keyed+BA.MenuHeight</t>
+  </si>
+  <si>
     <t>BA.MenuHeight</t>
   </si>
   <si>
@@ -2143,9 +2291,6 @@
   </si>
   <si>
     <t>Work to build</t>
-  </si>
-  <si>
-    <t>Keyed+BA.Health</t>
   </si>
   <si>
     <r>
@@ -2160,6 +2305,9 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>Keyed+BA.Health</t>
+  </si>
+  <si>
     <t>BA.Health</t>
   </si>
   <si>
@@ -2248,9 +2396,6 @@
   </si>
   <si>
     <t>Recreation power</t>
-  </si>
-  <si>
-    <t>Keyed+BA.MoveSpeed</t>
   </si>
   <si>
     <r>
@@ -2265,6 +2410,9 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>Keyed+BA.MoveSpeed</t>
+  </si>
+  <si>
     <t>BA.MoveSpeed</t>
   </si>
   <si>
@@ -2341,9 +2489,6 @@
   </si>
   <si>
     <t>There is nothing available to build yet.</t>
-  </si>
-  <si>
-    <t>Patches.DesignationCategoryDef+Ideology.label</t>
   </si>
   <si>
     <r>
@@ -2358,6 +2503,9 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>Patches.DesignationCategoryDef+Ideology.label</t>
+  </si>
+  <si>
     <t>Ideology.label</t>
   </si>
   <si>
@@ -2392,9 +2540,6 @@
   </si>
   <si>
     <t>Monolith</t>
-  </si>
-  <si>
-    <t>Patches.DesignationCategoryDef+Odyssey.label</t>
   </si>
   <si>
     <r>
@@ -2409,13 +2554,16 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>Patches.DesignationCategoryDef+Odyssey.label</t>
+  </si>
+  <si>
     <t>Odyssey.label</t>
   </si>
   <si>
     <t>Odyssey</t>
   </si>
   <si>
-    <t>DesignationCategoryDef+VCHE_PipeNetworks.label</t>
+    <t>Orbital</t>
   </si>
   <si>
     <t>궤도</t>
@@ -2488,9 +2636,6 @@
   </si>
   <si>
     <t>guest patient landing spot</t>
-  </si>
-  <si>
-    <t>Patches.DesignationCategoryDef+Hygiene.label</t>
   </si>
   <si>
     <r>
@@ -2505,6 +2650,9 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>Patches.DesignationCategoryDef+Hygiene.label</t>
+  </si>
+  <si>
     <t>Hygiene.label</t>
   </si>
   <si>
@@ -2532,105 +2680,505 @@
     <t>고도</t>
   </si>
   <si>
-    <t>Orbital</t>
-  </si>
-  <si>
-    <t>자원</t>
+    <t>DesignationCategoryDef+VCHE_PipeNetworks.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>자원</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_MiningProduction.label</t>
+  </si>
+  <si>
+    <t>Ferny_MiningProduction.label</t>
+  </si>
+  <si>
+    <t>Mining</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_MiningProduction.description</t>
+  </si>
+  <si>
+    <t>Ferny_MiningProduction.description</t>
+  </si>
+  <si>
+    <t>Things that relate to mining.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Explosives.label</t>
+  </si>
+  <si>
+    <t>Ferny_Explosives.label</t>
+  </si>
+  <si>
+    <t>Explosives</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Explosives.description</t>
+  </si>
+  <si>
+    <t>Ferny_Explosives.description</t>
+  </si>
+  <si>
+    <t>Build explosives for your enemies.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_CombatEquipment.label</t>
+  </si>
+  <si>
+    <t>Ferny_CombatEquipment.label</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_CombatEquipment.description</t>
+  </si>
+  <si>
+    <t>Ferny_CombatEquipment.description</t>
+  </si>
+  <si>
+    <t>Manage combat equipment.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Filth.label</t>
+  </si>
+  <si>
+    <t>Ferny_Filth.label</t>
+  </si>
+  <si>
+    <t>Filth</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Filth.description</t>
+  </si>
+  <si>
+    <t>Ferny_Filth.description</t>
+  </si>
+  <si>
+    <t>Manage filth.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Terraforming.label</t>
+  </si>
+  <si>
+    <t>Ferny_Terraforming.label</t>
+  </si>
+  <si>
+    <t>Terraforming</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Terraforming.description</t>
+  </si>
+  <si>
+    <t>Ferny_Terraforming.description</t>
+  </si>
+  <si>
+    <t>Manage the area environment.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Control.label</t>
+  </si>
+  <si>
+    <t>Ferny_Control.label</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Control.description</t>
+  </si>
+  <si>
+    <t>Ferny_Control.description</t>
+  </si>
+  <si>
+    <t>Control pawn behavior.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Memorial.label</t>
+  </si>
+  <si>
+    <t>Ferny_Memorial.label</t>
+  </si>
+  <si>
+    <t>Memorial</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Memorial.description</t>
+  </si>
+  <si>
+    <t>Ferny_Memorial.description</t>
+  </si>
+  <si>
+    <t>Things that relate to burials or memorials.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_InformationStorage.label</t>
+  </si>
+  <si>
+    <t>Ferny_InformationStorage.label</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_InformationStorage.description</t>
+  </si>
+  <si>
+    <t>Ferny_InformationStorage.description</t>
+  </si>
+  <si>
+    <t>Build information storages.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_MedicalStorage.label</t>
+  </si>
+  <si>
+    <t>Ferny_MedicalStorage.label</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_MedicalStorage.description</t>
+  </si>
+  <si>
+    <t>Ferny_MedicalStorage.description</t>
+  </si>
+  <si>
+    <t>Build medical storage.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Logistics.label</t>
+  </si>
+  <si>
+    <t>Ferny_Logistics.label</t>
+  </si>
+  <si>
+    <t>Logistics</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_VehicleStorage.label</t>
+  </si>
+  <si>
+    <t>Ferny_VehicleStorage.label</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_VehicleStorage.description</t>
+  </si>
+  <si>
+    <t>Ferny_VehicleStorage.description</t>
+  </si>
+  <si>
+    <t>Build vehicle storage.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Summon.label</t>
+  </si>
+  <si>
+    <t>Ferny_Summon.label</t>
+  </si>
+  <si>
+    <t>Summon</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Summon.description</t>
+  </si>
+  <si>
+    <t>Ferny_Summon.description</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_LuciferiumNetwork.label</t>
+  </si>
+  <si>
+    <t>Ferny_LuciferiumNetwork.label</t>
+  </si>
+  <si>
+    <t>##packageId##ushanka.luciferiumexpansion</t>
+  </si>
+  <si>
+    <t>Luciferium</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_LuciferiumNetwork.description</t>
+  </si>
+  <si>
+    <t>Ferny_LuciferiumNetwork.description</t>
+  </si>
+  <si>
+    <t>Manage luciferium.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_UraniumNetwork.label</t>
+  </si>
+  <si>
+    <t>Ferny_UraniumNetwork.label</t>
+  </si>
+  <si>
+    <t>VQE Generator - Pipe Network Compat</t>
+  </si>
+  <si>
+    <t>Uranium</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_UraniumNetwork.description</t>
+  </si>
+  <si>
+    <t>Ferny_UraniumNetwork.description</t>
+  </si>
+  <si>
+    <t>Manage uranium.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_ToxicWasteNetwork.label</t>
+  </si>
+  <si>
+    <t>Ferny_ToxicWasteNetwork.label</t>
+  </si>
+  <si>
+    <t>##packageId##bambaryla.vcepu</t>
+  </si>
+  <si>
+    <t>Toxic Waste</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_ToxicWasteNetwork.description</t>
+  </si>
+  <si>
+    <t>Ferny_ToxicWasteNetwork.description</t>
+  </si>
+  <si>
+    <t>Manage toxic waste.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_DyeNetwork.label</t>
+  </si>
+  <si>
+    <t>Ferny_DyeNetwork.label</t>
+  </si>
+  <si>
+    <t>Dye</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_DyeNetwork.description</t>
+  </si>
+  <si>
+    <t>Ferny_DyeNetwork.description</t>
+  </si>
+  <si>
+    <t>Manage dye.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_NeutroniumNetwork.label</t>
+  </si>
+  <si>
+    <t>Ferny_NeutroniumNetwork.label</t>
+  </si>
+  <si>
+    <t>##packageId##bambaryla.bor</t>
+  </si>
+  <si>
+    <t>Neutronium</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_NeutroniumNetwork.description</t>
+  </si>
+  <si>
+    <t>Ferny_NeutroniumNetwork.description</t>
+  </si>
+  <si>
+    <t>Manage neutronium.</t>
+  </si>
+  <si>
+    <t>Infrastructure</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>상단</t>
+    <t>채굴</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>상단 동물을 관리합니다.</t>
+    <t>채굴과 관련된 것들입니다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>상점</t>
+    <t>폭발물</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>장소</t>
+    <t>적을 상대할 폭발물을 제작합니다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Locations</t>
+    <t>장비</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>적을 상대할 장소를 건설합니다.</t>
+    <t>전투 장비를 관리합니다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>재료 없음</t>
+    <t>오물</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>오물을 관리합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>테라포밍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경을 개조합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>정착민의 행동을 관리합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>기념물</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>매장 혹은 기념관과 관련된 것들입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보 저장고를 건설합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>의약품</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>의약품 저장고를 건설합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>물류</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>차량</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>탑승물</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>예술</t>
+    <t>탑승물을 관리합니다.</t>
+  </si>
+  <si>
+    <t>지상 탑승물을 제작합니다.</t>
+  </si>
+  <si>
+    <t>공중 탑승물을 제작합니다.</t>
+  </si>
+  <si>
+    <t>군용 탑승물을 제작합니다.</t>
+  </si>
+  <si>
+    <t>해상 탑승물을 제작합니다.</t>
+  </si>
+  <si>
+    <t>차량 저장고를 건설합니다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>소환</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>무언가를 불러들이는 것들입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>루시페륨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>루시페륨을 관리합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>우라늄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>우라늄을 관리합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>독성 폐기물</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>독성 폐기물을 관리합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>염료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>염료를 관리합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴트로늄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴트로늄을 관리합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>적을 상대할 기반시설을 건설합니다.</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>탑승물 기반시설을 건설합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산 기반시설을 건설합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ferny_ProductionInfrastructure.label</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build infrastructure for your enemies.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전력 관리를 돕는 건물입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>전선</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>제작</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>요리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>보조</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>수송</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>관리</t>
-  </si>
-  <si>
-    <t>발전</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>저장</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>목축</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>소방거품</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>소방거품을 관리합니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>정착민</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>공장</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>온도</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>자동화</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -2664,22 +3212,12 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFA500"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF87CEEB"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2694,11 +3232,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3001,16 +3538,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F190"/>
+  <dimension ref="A1:F222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
+      <selection activeCell="G201" sqref="G201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.1796875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="4" width="9.1796875" style="1"/>
+    <col min="5" max="5" width="9.1796875" style="2"/>
+    <col min="6" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -3026,7 +3565,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -3043,7 +3582,7 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -3060,7 +3599,7 @@
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -3077,7 +3616,7 @@
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -3094,7 +3633,7 @@
       <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -3111,7 +3650,7 @@
       <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -3128,7 +3667,7 @@
       <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -3145,7 +3684,7 @@
       <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -3162,7 +3701,7 @@
       <c r="C9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -3179,7 +3718,7 @@
       <c r="C10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -3196,16 +3735,16 @@
       <c r="C11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
@@ -3213,7 +3752,7 @@
       <c r="C12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -3230,7 +3769,7 @@
       <c r="C13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -3247,11 +3786,11 @@
       <c r="C14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>749</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
@@ -3262,10 +3801,10 @@
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="1" t="s">
         <v>60</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>62</v>
@@ -3273,3077 +3812,3668 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="E16" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="F16" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="E17" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="F17" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="E18" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="F18" s="1" t="s">
-        <v>747</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>750</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>751</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>109</v>
+        <v>893</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>753</v>
+        <v>861</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>113</v>
+        <v>892</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>754</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>755</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>109</v>
+        <v>133</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>748</v>
+        <v>896</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>133</v>
+        <v>895</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>850</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>743</v>
+        <v>897</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>894</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>745</v>
+        <v>890</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>756</v>
+        <v>211</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>740</v>
+        <v>227</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>741</v>
+        <v>231</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>227</v>
+        <v>232</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>231</v>
+        <v>236</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>235</v>
+        <v>240</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>239</v>
+        <v>244</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>247</v>
+        <v>252</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>757</v>
+        <v>259</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>261</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>758</v>
+        <v>263</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>257</v>
+        <v>264</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>265</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>759</v>
+        <v>267</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>260</v>
+        <v>268</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>269</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>264</v>
+        <v>272</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>273</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>760</v>
+        <v>275</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>267</v>
+        <v>276</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>744</v>
+        <v>280</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>743</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>273</v>
+        <v>282</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>284</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>277</v>
+        <v>287</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>281</v>
+        <v>291</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>285</v>
+        <v>295</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>296</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>752</v>
+        <v>871</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>288</v>
+        <v>298</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>299</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>289</v>
+        <v>872</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>292</v>
+        <v>301</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>302</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>296</v>
+        <v>305</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>306</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>300</v>
+        <v>309</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>310</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>304</v>
+        <v>313</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>308</v>
+        <v>317</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>312</v>
+        <v>321</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>314</v>
+        <v>873</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>316</v>
+        <v>324</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>320</v>
+        <v>328</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>322</v>
+        <v>874</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>324</v>
+        <v>331</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>328</v>
+        <v>335</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>330</v>
+        <v>875</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>332</v>
+        <v>338</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>339</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>336</v>
+        <v>342</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>343</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>338</v>
+        <v>876</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>109</v>
+        <v>345</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>850</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>753</v>
+        <v>861</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>342</v>
+        <v>347</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>348</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>343</v>
+        <v>891</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>123</v>
+        <v>350</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>755</v>
+        <v>128</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>348</v>
+        <v>351</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>353</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>352</v>
+        <v>356</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>357</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>356</v>
+        <v>360</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>361</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>360</v>
+        <v>364</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>364</v>
+        <v>368</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>368</v>
+        <v>372</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>373</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>372</v>
+        <v>376</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>377</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>376</v>
+        <v>380</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>380</v>
+        <v>384</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>385</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>384</v>
+        <v>388</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>388</v>
+        <v>392</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>393</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>392</v>
+        <v>396</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>397</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>396</v>
+        <v>400</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>401</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>400</v>
+        <v>404</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>405</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>404</v>
+        <v>408</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>409</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>408</v>
+        <v>412</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>413</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>761</v>
+        <v>415</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>411</v>
+        <v>416</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>417</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>415</v>
+        <v>420</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>421</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>419</v>
+        <v>424</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>425</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>742</v>
+        <v>427</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>422</v>
+        <v>428</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>429</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>426</v>
+        <v>288</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>433</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>430</v>
+        <v>288</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>437</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>434</v>
+        <v>288</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>441</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>438</v>
+        <v>288</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>445</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>442</v>
+        <v>288</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>449</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>446</v>
+        <v>288</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>453</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>451</v>
+        <v>457</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>458</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>455</v>
+        <v>457</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>462</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>460</v>
+        <v>466</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>467</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>471</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>469</v>
+        <v>475</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>476</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>480</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D125" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>477</v>
+      <c r="E125" s="2" t="s">
+        <v>484</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>481</v>
+        <v>475</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>488</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>486</v>
+        <v>492</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>493</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>490</v>
+        <v>492</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>497</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>495</v>
+        <v>501</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>502</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A130" s="1" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>499</v>
+        <v>501</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>506</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>504</v>
+        <v>510</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>511</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>515</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>513</v>
+        <v>519</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>520</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A134" s="1" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>524</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>522</v>
+        <v>528</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>529</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A136" s="1" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>533</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A137" s="1" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>531</v>
+        <v>537</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>538</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A138" s="1" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>542</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A139" s="1" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>540</v>
+        <v>546</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>547</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E140" s="1" t="s">
-        <v>543</v>
+      <c r="E140" s="2" t="s">
+        <v>550</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>547</v>
+        <v>553</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>554</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A142" s="1" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>551</v>
+        <v>557</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>558</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A143" s="1" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>554</v>
+        <v>412</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>763</v>
+        <v>563</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A144" s="1" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>556</v>
+        <v>350</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>564</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A145" s="1" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>560</v>
+        <v>567</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>568</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A146" s="1" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>564</v>
+        <v>571</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>572</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A147" s="1" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>568</v>
+        <v>575</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>576</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>762</v>
+        <v>578</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A148" s="1" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>571</v>
+        <v>579</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>580</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A149" s="1" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>576</v>
+        <v>584</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>585</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>746</v>
+        <v>587</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A150" s="1" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>579</v>
+        <v>588</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>589</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A151" s="1" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>583</v>
+        <v>592</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>593</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A152" s="1" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>587</v>
+        <v>596</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>597</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A153" s="1" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>591</v>
+        <v>600</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>601</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>595</v>
+        <v>604</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>605</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>599</v>
+        <v>608</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>609</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>603</v>
+        <v>612</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>613</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>607</v>
+        <v>616</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>617</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>611</v>
+        <v>620</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>621</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>615</v>
+        <v>624</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>625</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>619</v>
+        <v>628</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>623</v>
+        <v>632</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>633</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>627</v>
+        <v>636</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>637</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>631</v>
+        <v>640</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>641</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>635</v>
+        <v>644</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>645</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>636</v>
+        <v>646</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>639</v>
+        <v>648</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>649</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>643</v>
+        <v>652</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>653</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>647</v>
+        <v>656</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>657</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>651</v>
+        <v>660</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>661</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>655</v>
+        <v>664</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>665</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
-        <v>656</v>
+        <v>667</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>659</v>
+        <v>668</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>669</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>660</v>
+        <v>670</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A171" s="1" t="s">
-        <v>661</v>
+        <v>671</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>663</v>
+        <v>672</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>673</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>664</v>
+        <v>674</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
-        <v>665</v>
+        <v>675</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>667</v>
+        <v>676</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>677</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>668</v>
+        <v>678</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>671</v>
+        <v>680</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>681</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
-        <v>673</v>
+        <v>683</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>675</v>
+        <v>684</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>685</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A175" s="1" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>679</v>
+        <v>688</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>689</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A176" s="1" t="s">
-        <v>681</v>
+        <v>691</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>683</v>
+        <v>692</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>693</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A177" s="1" t="s">
-        <v>684</v>
+        <v>695</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>688</v>
+        <v>697</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>698</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>689</v>
+        <v>699</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A178" s="1" t="s">
-        <v>690</v>
+        <v>700</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>691</v>
+        <v>701</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>692</v>
+        <v>288</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>702</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A179" s="1" t="s">
-        <v>694</v>
+        <v>704</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>695</v>
+        <v>705</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>697</v>
+        <v>706</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>707</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A180" s="1" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>701</v>
+        <v>711</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>738</v>
+        <v>712</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>703</v>
+        <v>713</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A181" s="1" t="s">
-        <v>704</v>
+        <v>714</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>705</v>
+        <v>715</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>675</v>
+        <v>716</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>685</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A182" s="1" t="s">
-        <v>707</v>
+        <v>717</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>708</v>
+        <v>718</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>692</v>
+        <v>719</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>702</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A183" s="1" t="s">
-        <v>710</v>
+        <v>720</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>714</v>
+        <v>723</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>724</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>715</v>
+        <v>725</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A184" s="1" t="s">
-        <v>716</v>
+        <v>726</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>717</v>
+        <v>727</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>360</v>
+        <v>466</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>365</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A185" s="1" t="s">
-        <v>718</v>
+        <v>728</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>719</v>
+        <v>729</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>721</v>
+        <v>730</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>731</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>722</v>
+        <v>732</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A186" s="1" t="s">
-        <v>723</v>
+        <v>733</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>724</v>
+        <v>734</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>726</v>
+        <v>735</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>736</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A187" s="1" t="s">
-        <v>727</v>
+        <v>738</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>731</v>
+        <v>740</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>741</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>732</v>
+        <v>742</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A188" s="1" t="s">
-        <v>733</v>
+        <v>743</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>734</v>
+        <v>744</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>736</v>
+        <v>745</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>746</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>737</v>
+        <v>747</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A189" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A190" s="1" t="s">
-        <v>702</v>
+        <v>750</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="E190" s="3" t="s">
-        <v>360</v>
+        <v>751</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>752</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>739</v>
+        <v>851</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A191" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A192" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A193" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A194" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A195" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A196" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A197" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A198" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A199" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A200" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A201" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A202" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A203" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A204" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A205" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A206" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A207" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A208" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A209" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A210" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A211" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A212" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A213" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A214" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A215" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A216" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A217" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A218" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A219" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A220" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A221" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A222" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>889</v>
       </c>
     </row>
   </sheetData>

--- a/Data/ferny/Better Architect Menu - 3563882422/Better Architect Menu - 3563882422.xlsx
+++ b/Data/ferny/Better Architect Menu - 3563882422/Better Architect Menu - 3563882422.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjmi0\Desktop\림월드 번역\Better Architect Menu - 3563882422\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBC08ED-6741-436A-831A-0469DDA618A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD890B8-9FA4-4412-B809-ED3CE587EB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <author>bjmi0</author>
   </authors>
   <commentList>
-    <comment ref="D183" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="D183" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -38,7 +38,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D184" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="D184" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="889">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -241,21 +241,21 @@
     <t>Produce</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>제작</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Production.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>제작</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>Ferny_Production.description</t>
   </si>
   <si>
@@ -307,21 +307,21 @@
     <t>Creative</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>예술</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_CreativeProduction.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>예술</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>Ferny_CreativeProduction.description</t>
   </si>
   <si>
@@ -340,21 +340,21 @@
     <t>Kitchen</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>요리</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Kitchen.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>요리</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>Ferny_Kitchen.description</t>
   </si>
   <si>
@@ -421,21 +421,21 @@
     <t>Auxiliaries</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>보조</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Auxiliaries.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>보조</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>Ferny_Auxiliaries.description</t>
   </si>
   <si>
@@ -451,9 +451,33 @@
     <t>Infrastructure</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ferny_ProductionInfrastructure.label</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_ProductionInfrastructure.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>관리</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_ProductionInfrastructure.description</t>
   </si>
   <si>
@@ -463,27 +487,39 @@
     <t>DesignationCategoryDef+Ferny_PowerGeneration.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>생산 기반시설을 건설합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_PowerGeneration.label</t>
   </si>
   <si>
     <t>Generation</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>발전</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_PowerGeneration.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>발전</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>Ferny_PowerGeneration.description</t>
   </si>
   <si>
@@ -502,21 +538,21 @@
     <t>Storage</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>저장</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_PowerStorage.description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>저장</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>Ferny_PowerStorage.description</t>
   </si>
   <si>
@@ -535,6 +571,18 @@
     <t>DesignationCategoryDef+Ferny_PowerManagement.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>전선</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_PowerManagement.description</t>
   </si>
   <si>
@@ -544,6 +592,18 @@
     <t>DesignationCategoryDef+Ferny_Animals.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>전력 관리를 돕는 건물입니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_Animals.label</t>
   </si>
   <si>
@@ -739,1878 +799,1929 @@
     <t>Ferny_CombatInfrastructure.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>Infrastructure</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ferny_CombatInfrastructure.description</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_CombatInfrastructure.description</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Ranching.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>Build infrastructure for your enemies.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>적을 상대할 기반시설을 건설합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ferny_Ranching.label</t>
+  </si>
+  <si>
+    <t>Ranching</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>목축</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Ranching.description</t>
+  </si>
+  <si>
+    <t>Ferny_Ranching.description</t>
+  </si>
+  <si>
+    <t>Farming your animals.</t>
+  </si>
+  <si>
+    <t>동물을 사육합니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_AnimalBedding.label</t>
+  </si>
+  <si>
+    <t>Ferny_AnimalBedding.label</t>
+  </si>
+  <si>
+    <t>Bedding</t>
+  </si>
+  <si>
+    <t>잠자리</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_AnimalBedding.description</t>
+  </si>
+  <si>
+    <t>Ferny_AnimalBedding.description</t>
+  </si>
+  <si>
+    <t>Build bedding for your animals.</t>
+  </si>
+  <si>
+    <t>동물을 위한 잠자리를 건설합니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_AnimalTravel.label</t>
+  </si>
+  <si>
+    <t>Ferny_AnimalTravel.label</t>
+  </si>
+  <si>
+    <t>Travel</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>상단</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_AnimalTravel.description</t>
+  </si>
+  <si>
+    <t>Ferny_AnimalTravel.description</t>
+  </si>
+  <si>
+    <t>Travel management for animals.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>상단 동물을 관리합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Heating.label</t>
+  </si>
+  <si>
+    <t>Ferny_Heating.label</t>
+  </si>
+  <si>
+    <t>Heating</t>
+  </si>
+  <si>
+    <t>난방</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Heating.description</t>
+  </si>
+  <si>
+    <t>Ferny_Heating.description</t>
+  </si>
+  <si>
+    <t>Heat your colonists.</t>
+  </si>
+  <si>
+    <t>정착민을 따뜻하게 합니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Cooling.label</t>
+  </si>
+  <si>
+    <t>Ferny_Cooling.label</t>
+  </si>
+  <si>
+    <t>Cooling</t>
+  </si>
+  <si>
+    <t>냉방</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Cooling.description</t>
+  </si>
+  <si>
+    <t>Ferny_Cooling.description</t>
+  </si>
+  <si>
+    <t>Cool your colonists.</t>
+  </si>
+  <si>
+    <t>정착민을 시원하게 합니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_AirManagement.label</t>
+  </si>
+  <si>
+    <t>Ferny_AirManagement.label</t>
+  </si>
+  <si>
+    <t>Airflow</t>
+  </si>
+  <si>
+    <t>환기</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_AirManagement.description</t>
+  </si>
+  <si>
+    <t>Ferny_AirManagement.description</t>
+  </si>
+  <si>
+    <t>Manage airflow.</t>
+  </si>
+  <si>
+    <t>공기 흐름을 관리합니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Firefoam.label</t>
+  </si>
+  <si>
+    <t>Ferny_Firefoam.label</t>
+  </si>
+  <si>
+    <t>Firefoam</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>소방거품</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Firefoam.description</t>
+  </si>
+  <si>
+    <t>Ferny_Firefoam.description</t>
+  </si>
+  <si>
+    <t>Manage firefoam.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>소방거품을 관리합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Life.label</t>
+  </si>
+  <si>
+    <t>Ferny_Life.label</t>
+  </si>
+  <si>
+    <t>People</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>정착민</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Life.description</t>
+  </si>
+  <si>
+    <t>Ferny_Life.description</t>
+  </si>
+  <si>
+    <t>Manage colonists.</t>
+  </si>
+  <si>
+    <t>정착민을 관리합니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Childhood.label</t>
+  </si>
+  <si>
+    <t>Ferny_Childhood.label</t>
+  </si>
+  <si>
+    <t>Childhood</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>아동</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Childhood.description</t>
+  </si>
+  <si>
+    <t>Ferny_Childhood.description</t>
+  </si>
+  <si>
+    <t>Things that relate to childhood.</t>
+  </si>
+  <si>
+    <t>유년기와 관련된 건물입니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_ColonyLocations.label</t>
+  </si>
+  <si>
+    <t>Ferny_ColonyLocations.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>Locations</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>장소</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_ColonyLocations.description</t>
+  </si>
+  <si>
+    <t>Ferny_ColonyLocations.description</t>
+  </si>
+  <si>
+    <t>Manage relevant colony locations.</t>
+  </si>
+  <si>
+    <t>정착지의 관련 구역을 관리합니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Biotech.label</t>
+  </si>
+  <si>
+    <t>Ferny_Biotech.label</t>
+  </si>
+  <si>
+    <t>Biotech</t>
+  </si>
+  <si>
+    <t>생명공학</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Biotech.description</t>
+  </si>
+  <si>
+    <t>Ferny_Biotech.description</t>
+  </si>
+  <si>
+    <t>Manage biotechnology.</t>
+  </si>
+  <si>
+    <t>생명공학 기술을 관리합니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Transport.label</t>
+  </si>
+  <si>
+    <t>Ferny_Transport.label</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Transport.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>탑승물</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ferny_Transport.description</t>
+  </si>
+  <si>
+    <t>Manage transport.</t>
+  </si>
+  <si>
+    <t>탑승물을 관리합니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Medical.label</t>
+  </si>
+  <si>
+    <t>Ferny_Medical.label</t>
+  </si>
+  <si>
+    <t>Medical</t>
+  </si>
+  <si>
+    <t>의료</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Medical.description</t>
+  </si>
+  <si>
+    <t>Ferny_Medical.description</t>
+  </si>
+  <si>
+    <t>Manage medical tech.</t>
+  </si>
+  <si>
+    <t>의료 기술을 관리합니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Enhancement.label</t>
+  </si>
+  <si>
+    <t>Ferny_Enhancement.label</t>
+  </si>
+  <si>
+    <t>Enhancement</t>
+  </si>
+  <si>
+    <t>강화</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Enhancement.description</t>
+  </si>
+  <si>
+    <t>Ferny_Enhancement.description</t>
+  </si>
+  <si>
+    <t>Enhance your colonists.</t>
+  </si>
+  <si>
+    <t>정착민을 강화합니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_GroundTransport.label</t>
+  </si>
+  <si>
+    <t>Ferny_GroundTransport.label</t>
+  </si>
+  <si>
+    <t>Ground</t>
+  </si>
+  <si>
+    <t>지상</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_GroundTransport.description</t>
+  </si>
+  <si>
+    <t>Ferny_GroundTransport.description</t>
+  </si>
+  <si>
+    <t>Build ground transport.</t>
+  </si>
+  <si>
+    <t>지상 탑승물을 제작합니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_AerialTransport.label</t>
+  </si>
+  <si>
+    <t>Ferny_AerialTransport.label</t>
+  </si>
+  <si>
+    <t>Aerial</t>
+  </si>
+  <si>
+    <t>공중</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_AerialTransport.description</t>
+  </si>
+  <si>
+    <t>Ferny_AerialTransport.description</t>
+  </si>
+  <si>
+    <t>Build aerial transport.</t>
+  </si>
+  <si>
+    <t>공중 탑승물을 제작합니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_MilitaryTransport.label</t>
+  </si>
+  <si>
+    <t>Ferny_MilitaryTransport.label</t>
+  </si>
+  <si>
+    <t>Military</t>
+  </si>
+  <si>
+    <t>군용</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_MilitaryTransport.description</t>
+  </si>
+  <si>
+    <t>Ferny_MilitaryTransport.description</t>
+  </si>
+  <si>
+    <t>Build military transport.</t>
+  </si>
+  <si>
+    <t>군용 탑승물을 제작합니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_NavalTransport.label</t>
+  </si>
+  <si>
+    <t>Ferny_NavalTransport.label</t>
+  </si>
+  <si>
+    <t>Naval</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>해상</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_NavalTransport.description</t>
+  </si>
+  <si>
+    <t>Ferny_NavalTransport.description</t>
+  </si>
+  <si>
+    <t>Build naval transport.</t>
+  </si>
+  <si>
+    <t>해상 탑승물을 제작합니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_TransportInfrastructure.label</t>
+  </si>
+  <si>
+    <t>Ferny_TransportInfrastructure.label</t>
+  </si>
+  <si>
+    <t>Ferny_TransportInfrastructure.description</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_TransportInfrastructure.description</t>
+  </si>
+  <si>
+    <t>Build transport infrastructure.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Storage.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>탑승물 기반시설을 건설합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ferny_Storage.label</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Storage.description</t>
+  </si>
+  <si>
+    <t>Ferny_Storage.description</t>
+  </si>
+  <si>
+    <t>Build storage.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>저장 설비를 건설합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_GeneralStorage.label</t>
+  </si>
+  <si>
+    <t>Ferny_GeneralStorage.label</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>일반</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_GeneralStorage.description</t>
+  </si>
+  <si>
+    <t>Ferny_GeneralStorage.description</t>
+  </si>
+  <si>
+    <t>Build general storage.</t>
+  </si>
+  <si>
+    <t>일반 저장고를 건설합니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_ResourcesStorage.label</t>
+  </si>
+  <si>
+    <t>Ferny_ResourcesStorage.label</t>
+  </si>
+  <si>
     <t>Resource</t>
   </si>
   <si>
-    <t>DesignationCategoryDef+Ferny_CombatInfrastructure.description</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>장소</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ferny_CombatInfrastructure.description</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Ranching.label</t>
-  </si>
-  <si>
-    <t>Ferny_Ranching.label</t>
-  </si>
-  <si>
-    <t>Ranching</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Ranching.description</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>목축</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ferny_Ranching.description</t>
-  </si>
-  <si>
-    <t>Farming your animals.</t>
-  </si>
-  <si>
-    <t>동물을 사육합니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_AnimalBedding.label</t>
-  </si>
-  <si>
-    <t>Ferny_AnimalBedding.label</t>
-  </si>
-  <si>
-    <t>Bedding</t>
-  </si>
-  <si>
-    <t>잠자리</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_AnimalBedding.description</t>
-  </si>
-  <si>
-    <t>Ferny_AnimalBedding.description</t>
-  </si>
-  <si>
-    <t>Build bedding for your animals.</t>
-  </si>
-  <si>
-    <t>동물을 위한 잠자리를 건설합니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_AnimalTravel.label</t>
-  </si>
-  <si>
-    <t>Ferny_AnimalTravel.label</t>
-  </si>
-  <si>
-    <t>Travel</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_AnimalTravel.description</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>상단</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ferny_AnimalTravel.description</t>
-  </si>
-  <si>
-    <t>Travel management for animals.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Heating.label</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>상단 동물을 관리합니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ferny_Heating.label</t>
-  </si>
-  <si>
-    <t>Heating</t>
-  </si>
-  <si>
-    <t>난방</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Heating.description</t>
-  </si>
-  <si>
-    <t>Ferny_Heating.description</t>
-  </si>
-  <si>
-    <t>Heat your colonists.</t>
-  </si>
-  <si>
-    <t>정착민을 따뜻하게 합니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Cooling.label</t>
-  </si>
-  <si>
-    <t>Ferny_Cooling.label</t>
-  </si>
-  <si>
-    <t>Cooling</t>
-  </si>
-  <si>
-    <t>냉방</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Cooling.description</t>
-  </si>
-  <si>
-    <t>Ferny_Cooling.description</t>
-  </si>
-  <si>
-    <t>Cool your colonists.</t>
-  </si>
-  <si>
-    <t>정착민을 시원하게 합니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_AirManagement.label</t>
-  </si>
-  <si>
-    <t>Ferny_AirManagement.label</t>
-  </si>
-  <si>
-    <t>Airflow</t>
-  </si>
-  <si>
-    <t>환기</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_AirManagement.description</t>
-  </si>
-  <si>
-    <t>Ferny_AirManagement.description</t>
-  </si>
-  <si>
-    <t>Manage airflow.</t>
-  </si>
-  <si>
-    <t>공기 흐름을 관리합니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Firefoam.label</t>
-  </si>
-  <si>
-    <t>Ferny_Firefoam.label</t>
-  </si>
-  <si>
-    <t>Firefoam</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Firefoam.description</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>소방거품</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ferny_Firefoam.description</t>
-  </si>
-  <si>
-    <t>Manage firefoam.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Life.label</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>소방거품을 관리합니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ferny_Life.label</t>
-  </si>
-  <si>
-    <t>People</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Life.description</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>정착민</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ferny_Life.description</t>
-  </si>
-  <si>
-    <t>Manage colonists.</t>
-  </si>
-  <si>
-    <t>정착민을 관리합니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Childhood.label</t>
-  </si>
-  <si>
-    <t>Ferny_Childhood.label</t>
-  </si>
-  <si>
-    <t>Childhood</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Childhood.description</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>아동</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ferny_Childhood.description</t>
-  </si>
-  <si>
-    <t>Things that relate to childhood.</t>
-  </si>
-  <si>
-    <t>유년기와 관련된 건물입니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_ColonyLocations.label</t>
-  </si>
-  <si>
-    <t>Ferny_ColonyLocations.label</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>Locations</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ferny_ColonyLocations.description</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_ColonyLocations.description</t>
-  </si>
-  <si>
-    <t>Manage relevant colony locations.</t>
-  </si>
-  <si>
-    <t>정착지의 관련 구역을 관리합니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Biotech.label</t>
-  </si>
-  <si>
-    <t>Ferny_Biotech.label</t>
-  </si>
-  <si>
-    <t>Biotech</t>
-  </si>
-  <si>
-    <t>생명공학</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Biotech.description</t>
-  </si>
-  <si>
-    <t>Ferny_Biotech.description</t>
-  </si>
-  <si>
-    <t>Manage biotechnology.</t>
-  </si>
-  <si>
-    <t>생명공학 기술을 관리합니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Transport.label</t>
-  </si>
-  <si>
-    <t>Ferny_Transport.label</t>
-  </si>
-  <si>
-    <t>Transport</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Transport.description</t>
-  </si>
-  <si>
-    <t>Ferny_Transport.description</t>
-  </si>
-  <si>
-    <t>Manage transport.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Medical.label</t>
-  </si>
-  <si>
-    <t>Ferny_Medical.label</t>
-  </si>
-  <si>
-    <t>Medical</t>
-  </si>
-  <si>
-    <t>의료</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Medical.description</t>
-  </si>
-  <si>
-    <t>Ferny_Medical.description</t>
-  </si>
-  <si>
-    <t>Manage medical tech.</t>
-  </si>
-  <si>
-    <t>의료 기술을 관리합니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Enhancement.label</t>
-  </si>
-  <si>
-    <t>Ferny_Enhancement.label</t>
-  </si>
-  <si>
-    <t>Enhancement</t>
-  </si>
-  <si>
-    <t>강화</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Enhancement.description</t>
-  </si>
-  <si>
-    <t>Ferny_Enhancement.description</t>
-  </si>
-  <si>
-    <t>Enhance your colonists.</t>
-  </si>
-  <si>
-    <t>정착민을 강화합니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_GroundTransport.label</t>
-  </si>
-  <si>
-    <t>Ferny_GroundTransport.label</t>
-  </si>
-  <si>
-    <t>Ground</t>
-  </si>
-  <si>
-    <t>지상</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_GroundTransport.description</t>
-  </si>
-  <si>
-    <t>Ferny_GroundTransport.description</t>
-  </si>
-  <si>
-    <t>Build ground transport.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_AerialTransport.label</t>
-  </si>
-  <si>
-    <t>Ferny_AerialTransport.label</t>
-  </si>
-  <si>
-    <t>Aerial</t>
-  </si>
-  <si>
-    <t>공중</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_AerialTransport.description</t>
-  </si>
-  <si>
-    <t>Ferny_AerialTransport.description</t>
-  </si>
-  <si>
-    <t>Build aerial transport.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_MilitaryTransport.label</t>
-  </si>
-  <si>
-    <t>Ferny_MilitaryTransport.label</t>
-  </si>
-  <si>
-    <t>Military</t>
-  </si>
-  <si>
-    <t>군용</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_MilitaryTransport.description</t>
-  </si>
-  <si>
-    <t>Ferny_MilitaryTransport.description</t>
-  </si>
-  <si>
-    <t>Build military transport.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_NavalTransport.label</t>
-  </si>
-  <si>
-    <t>Ferny_NavalTransport.label</t>
-  </si>
-  <si>
-    <t>Naval</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>해상</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_NavalTransport.description</t>
-  </si>
-  <si>
-    <t>Ferny_NavalTransport.description</t>
-  </si>
-  <si>
-    <t>Build naval transport.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_TransportInfrastructure.label</t>
-  </si>
-  <si>
-    <t>Ferny_TransportInfrastructure.label</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_TransportInfrastructure.description</t>
-  </si>
-  <si>
-    <t>Ferny_TransportInfrastructure.description</t>
-  </si>
-  <si>
-    <t>Build transport infrastructure.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Storage.label</t>
-  </si>
-  <si>
-    <t>Ferny_Storage.label</t>
-  </si>
-  <si>
-    <t>Ferny_Storage.description</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Storage.description</t>
-  </si>
-  <si>
-    <t>Build storage.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>저장 설비를 건설합니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_GeneralStorage.label</t>
-  </si>
-  <si>
-    <t>Ferny_GeneralStorage.label</t>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>일반</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_GeneralStorage.description</t>
-  </si>
-  <si>
-    <t>Ferny_GeneralStorage.description</t>
-  </si>
-  <si>
-    <t>Build general storage.</t>
-  </si>
-  <si>
-    <t>일반 저장고를 건설합니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_ResourcesStorage.label</t>
-  </si>
-  <si>
-    <t>Ferny_ResourcesStorage.label</t>
+    <t>자원</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_ResourcesStorage.description</t>
+  </si>
+  <si>
+    <t>Ferny_ResourcesStorage.description</t>
+  </si>
+  <si>
+    <t>Build resources storages.</t>
+  </si>
+  <si>
+    <t>자원 저장고를 건설합니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_GearStorage.label</t>
+  </si>
+  <si>
+    <t>Ferny_GearStorage.label</t>
+  </si>
+  <si>
+    <t>Gear</t>
+  </si>
+  <si>
+    <t>장비</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_GearStorage.description</t>
+  </si>
+  <si>
+    <t>Ferny_GearStorage.description</t>
+  </si>
+  <si>
+    <t>Build gear storage.</t>
+  </si>
+  <si>
+    <t>장비 저장고를 건설합니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_FoodStorage.label</t>
+  </si>
+  <si>
+    <t>Ferny_FoodStorage.label</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>식량</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_FoodStorage.description</t>
+  </si>
+  <si>
+    <t>Ferny_FoodStorage.description</t>
+  </si>
+  <si>
+    <t>Build food storage.</t>
+  </si>
+  <si>
+    <t>식량 저장고를 건설합니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_AmmunitionNetwork.label</t>
+  </si>
+  <si>
+    <t>Ferny_AmmunitionNetwork.label</t>
+  </si>
+  <si>
+    <t>Ammunition</t>
+  </si>
+  <si>
+    <t>탄약</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_AmmunitionNetwork.description</t>
+  </si>
+  <si>
+    <t>Ferny_AmmunitionNetwork.description</t>
+  </si>
+  <si>
+    <t>Manage ammunition.</t>
+  </si>
+  <si>
+    <t>탄약을 관리합니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_World.label</t>
+  </si>
+  <si>
+    <t>Ferny_World.label</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>세계</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_World.description</t>
+  </si>
+  <si>
+    <t>Ferny_World.description</t>
+  </si>
+  <si>
+    <t>Manage the world.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>외부 교류 설비를 관리합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Outreach.label</t>
+  </si>
+  <si>
+    <t>Ferny_Outreach.label</t>
+  </si>
+  <si>
+    <t>Outreach</t>
+  </si>
+  <si>
+    <t>교류</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Outreach.description</t>
+  </si>
+  <si>
+    <t>Ferny_Outreach.description</t>
+  </si>
+  <si>
+    <t>Things that reach out into the world.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>세계 외부와 교류하는 건물입니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Automation.label</t>
+  </si>
+  <si>
+    <t>Ferny_Automation.label</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>공장</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Automation.description</t>
+  </si>
+  <si>
+    <t>Ferny_Automation.description</t>
+  </si>
+  <si>
+    <t>Things that automate stuff.</t>
+  </si>
+  <si>
+    <t>작업을 자동화하는 건물입니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Hosting.label</t>
+  </si>
+  <si>
+    <t>Ferny_Hosting.label</t>
+  </si>
+  <si>
+    <t>Entertain</t>
+  </si>
+  <si>
+    <t>오락</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Market.label</t>
+  </si>
+  <si>
+    <t>Ferny_Market.label</t>
+  </si>
+  <si>
+    <t>Market</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>상점</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Museum.label</t>
+  </si>
+  <si>
+    <t>Ferny_Museum.label</t>
+  </si>
+  <si>
+    <t>Museum</t>
+  </si>
+  <si>
+    <t>박물관</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Pollution.label</t>
+  </si>
+  <si>
+    <t>Ferny_Pollution.label</t>
+  </si>
+  <si>
+    <t>Pollution</t>
+  </si>
+  <si>
+    <t>오염</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Pollution.description</t>
+  </si>
+  <si>
+    <t>Ferny_Pollution.description</t>
+  </si>
+  <si>
+    <t>Manage the pollution.</t>
+  </si>
+  <si>
+    <t>오염을 관리합니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Deathrest.label</t>
+  </si>
+  <si>
+    <t>Ferny_Deathrest.label</t>
+  </si>
+  <si>
+    <t>Deathrest</t>
+  </si>
+  <si>
+    <t>죽음안식</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Deathrest.description</t>
+  </si>
+  <si>
+    <t>Ferny_Deathrest.description</t>
+  </si>
+  <si>
+    <t>Manage Deathrest.</t>
+  </si>
+  <si>
+    <t>죽음안식을 관리합니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Mechanoids.label</t>
+  </si>
+  <si>
+    <t>Ferny_Mechanoids.label</t>
+  </si>
+  <si>
+    <t>Mechanoids</t>
+  </si>
+  <si>
+    <t>메카노이드</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Mechanoids.description</t>
+  </si>
+  <si>
+    <t>Ferny_Mechanoids.description</t>
+  </si>
+  <si>
+    <t>Build mechanoids.</t>
+  </si>
+  <si>
+    <t>메카노이드를 제작합니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_AnimalImplants.label</t>
+  </si>
+  <si>
+    <t>Ferny_AnimalImplants.label</t>
+  </si>
+  <si>
+    <t>Alpha Implants</t>
+  </si>
+  <si>
+    <t>Implants</t>
+  </si>
+  <si>
+    <t>이식물</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_AnimalImplants.description</t>
+  </si>
+  <si>
+    <t>Ferny_AnimalImplants.description</t>
+  </si>
+  <si>
+    <t>Manage implants.</t>
+  </si>
+  <si>
+    <t>이식물을 관리합니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_HelixienGasNetwork.label</t>
+  </si>
+  <si>
+    <t>Ferny_HelixienGasNetwork.label</t>
+  </si>
+  <si>
+    <t>##packageId##vanillaexpanded.helixiengas</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>가스</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_HelixienGasNetwork.description</t>
+  </si>
+  <si>
+    <t>Ferny_HelixienGasNetwork.description</t>
+  </si>
+  <si>
+    <t>Manage helixien gas.</t>
+  </si>
+  <si>
+    <t>헬릭시엔 가스를 관리합니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_NeutroamineNetwork.label</t>
+  </si>
+  <si>
+    <t>Ferny_NeutroamineNetwork.label</t>
+  </si>
+  <si>
+    <t>Vanilla Races Expanded - Android</t>
+  </si>
+  <si>
+    <t>Neutroamine</t>
+  </si>
+  <si>
+    <t>뉴트로아민</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_NeutroamineNetwork.description</t>
+  </si>
+  <si>
+    <t>Ferny_NeutroamineNetwork.description</t>
+  </si>
+  <si>
+    <t>Manage neutroamine.</t>
+  </si>
+  <si>
+    <t>뉴트로아민을 관리합니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Androids.label</t>
+  </si>
+  <si>
+    <t>Ferny_Androids.label</t>
+  </si>
+  <si>
+    <t>Androids</t>
+  </si>
+  <si>
+    <t>안드로이드</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Androids.description</t>
+  </si>
+  <si>
+    <t>Ferny_Androids.description</t>
+  </si>
+  <si>
+    <t>Build androids.</t>
+  </si>
+  <si>
+    <t>안드로이드를 제작합니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_ChemfuelNetwork.label</t>
+  </si>
+  <si>
+    <t>Ferny_ChemfuelNetwork.label</t>
+  </si>
+  <si>
+    <t>Vanilla Chemfuel Expanded</t>
+  </si>
+  <si>
+    <t>Chemfuel</t>
+  </si>
+  <si>
+    <t>화학연료</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_ChemfuelNetwork.description</t>
+  </si>
+  <si>
+    <t>Ferny_ChemfuelNetwork.description</t>
+  </si>
+  <si>
+    <t>Manage chemfuel.</t>
+  </si>
+  <si>
+    <t>화학연료를 관리합니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Aquarium.label</t>
+  </si>
+  <si>
+    <t>Ferny_Aquarium.label</t>
+  </si>
+  <si>
+    <t>Aquariums!</t>
+  </si>
+  <si>
+    <t>Aquarium</t>
+  </si>
+  <si>
+    <t>수족관</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Aquarium.description</t>
+  </si>
+  <si>
+    <t>Ferny_Aquarium.description</t>
+  </si>
+  <si>
+    <t>Build aquariums.</t>
+  </si>
+  <si>
+    <t>수족관을 건설합니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_HemogenNetwork.label</t>
+  </si>
+  <si>
+    <t>Ferny_HemogenNetwork.label</t>
+  </si>
+  <si>
+    <t>Vanilla Races Expanded - Sanguophage</t>
+  </si>
+  <si>
+    <t>Hemogen</t>
+  </si>
+  <si>
+    <t>혈액정수</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_HemogenNetwork.description</t>
+  </si>
+  <si>
+    <t>Ferny_HemogenNetwork.description</t>
+  </si>
+  <si>
+    <t>Manage hemogen.</t>
+  </si>
+  <si>
+    <t>혈액정수를 관리합니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_NutrientPasteNetwork.label</t>
+  </si>
+  <si>
+    <t>Ferny_NutrientPasteNetwork.label</t>
+  </si>
+  <si>
+    <t>Vanilla Nutrient Paste Expanded</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Hacking.label</t>
+  </si>
+  <si>
+    <t>영양죽</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_NutrientPasteNetwork.description</t>
+  </si>
+  <si>
+    <t>Ferny_NutrientPasteNetwork.description</t>
+  </si>
+  <si>
+    <t>Manage nutrient paste.</t>
+  </si>
+  <si>
+    <t>영양죽을 관리합니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_MilkPipeNetwork.label</t>
+  </si>
+  <si>
+    <t>Ferny_MilkPipeNetwork.label</t>
+  </si>
+  <si>
+    <t>##packageId##vemp.pipenetwork</t>
+  </si>
+  <si>
+    <t>Milk</t>
+  </si>
+  <si>
+    <t>우유</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_MilkPipeNetwork.description</t>
+  </si>
+  <si>
+    <t>Ferny_MilkPipeNetwork.description</t>
+  </si>
+  <si>
+    <t>Manage milk.</t>
+  </si>
+  <si>
+    <t>우유를 관리합니다.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Sleeving.label</t>
+  </si>
+  <si>
+    <t>Ferny_Sleeving.label</t>
+  </si>
+  <si>
+    <t>Altered Carbon 2: ReSleeved</t>
+  </si>
+  <si>
+    <t>Sleeving</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>슬리브</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Sleeving.description</t>
+  </si>
+  <si>
+    <t>Ferny_Sleeving.description</t>
+  </si>
+  <si>
+    <t>Manage sleeves.</t>
+  </si>
+  <si>
+    <t>슬리브를 관리합니다.</t>
+  </si>
+  <si>
+    <t>Patches.DesignationCategoryDef+Security.label</t>
+  </si>
+  <si>
+    <t>Patches.DesignationCategoryDef</t>
+  </si>
+  <si>
+    <t>Security.label</t>
+  </si>
+  <si>
+    <t>Fight</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>전투</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patches.DesignationCategoryDef+Ferny_Colony.label</t>
+  </si>
+  <si>
+    <t>Manage</t>
+  </si>
+  <si>
+    <t>Patches.DesignationCategoryDef+Structure.label</t>
+  </si>
+  <si>
+    <t>Structure.label</t>
+  </si>
+  <si>
+    <t>Build</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>건설</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patches.DesignationCategoryDef+Production.label</t>
+  </si>
+  <si>
+    <t>Production.label</t>
+  </si>
+  <si>
+    <t>Make</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>생산</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patches.DesignationCategoryDef+Ferny_Automation.label</t>
+  </si>
+  <si>
+    <t>Automate</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>자동화</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patches.DesignationCategoryDef+Ferny_Storage.label</t>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>창고</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patches.DesignationCategoryDef+Furniture.label</t>
+  </si>
+  <si>
+    <t>Furniture.label</t>
+  </si>
+  <si>
+    <t>Furnish</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>가구</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patches.DesignationCategoryDef+Misc.label</t>
+  </si>
+  <si>
+    <t>Misc.label</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>기타</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patches.DesignationCategoryDef+Temperature.label</t>
+  </si>
+  <si>
+    <t>Temperature.label</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Patches.DesignationCategoryDef+Ship.label</t>
+  </si>
+  <si>
+    <t>Ship.label</t>
+  </si>
+  <si>
+    <t>Space</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>우주</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keyed+BA.Free</t>
+  </si>
+  <si>
+    <t>Keyed</t>
+  </si>
+  <si>
+    <t>BA.Free</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>재료 없음</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keyed+BA.GroupByTechLevel</t>
+  </si>
+  <si>
+    <t>BA.GroupByTechLevel</t>
+  </si>
+  <si>
+    <t>Group by Tech Level</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>기술 수준으로 분류</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keyed+BA.MenuHeight</t>
+  </si>
+  <si>
+    <t>BA.MenuHeight</t>
+  </si>
+  <si>
+    <t>Menu height</t>
+  </si>
+  <si>
+    <t>메뉴 높이</t>
+  </si>
+  <si>
+    <t>Keyed+BA.HideOnSelection</t>
+  </si>
+  <si>
+    <t>BA.HideOnSelection</t>
+  </si>
+  <si>
+    <t>Hide on building selection</t>
+  </si>
+  <si>
+    <t>건물 선택 시 숨기기</t>
+  </si>
+  <si>
+    <t>Keyed+BA.HideOnSelectionTooltip</t>
+  </si>
+  <si>
+    <t>BA.HideOnSelectionTooltip</t>
+  </si>
+  <si>
+    <t>When building is selected, fully hide the menu.</t>
+  </si>
+  <si>
+    <t>건물을 선택하면 메뉴를 완전히 숨깁니다.</t>
+  </si>
+  <si>
+    <t>Keyed+BA.RememberSubcategory</t>
+  </si>
+  <si>
+    <t>BA.RememberSubcategory</t>
+  </si>
+  <si>
+    <t>Remember subcategory</t>
+  </si>
+  <si>
+    <t>하위 카테고리 기억</t>
+  </si>
+  <si>
+    <t>Keyed+BA.RememberSubcategoryTooltip</t>
+  </si>
+  <si>
+    <t>BA.RememberSubcategoryTooltip</t>
+  </si>
+  <si>
+    <t>When enabled, the mod will remember the last selected subcategory for each main category. When disabled, it will always default to the first subcategory.</t>
+  </si>
+  <si>
+    <t>활성화하면 모드가 각 주 카테고리별로 마지막으로 선택한 하위 카테고리를 기억합니다. 비활성화하면 항상 첫 번째 하위 카테고리로 기본 설정됩니다.</t>
+  </si>
+  <si>
+    <t>Keyed+BA.Default</t>
+  </si>
+  <si>
+    <t>BA.Default</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>기본값</t>
+  </si>
+  <si>
+    <t>Keyed+BA.Label</t>
+  </si>
+  <si>
+    <t>BA.Label</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>이름</t>
+  </si>
+  <si>
+    <t>Keyed+BA.Beauty</t>
+  </si>
+  <si>
+    <t>BA.Beauty</t>
+  </si>
+  <si>
+    <t>Beauty</t>
+  </si>
+  <si>
+    <t>미관</t>
+  </si>
+  <si>
+    <t>Keyed+BA.Comfort</t>
+  </si>
+  <si>
+    <t>BA.Comfort</t>
+  </si>
+  <si>
+    <t>Comfort</t>
+  </si>
+  <si>
+    <t>편안함</t>
+  </si>
+  <si>
+    <t>Keyed+BA.Value</t>
+  </si>
+  <si>
+    <t>BA.Value</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>가치</t>
+  </si>
+  <si>
+    <t>Keyed+BA.WorkToBuild</t>
+  </si>
+  <si>
+    <t>BA.WorkToBuild</t>
+  </si>
+  <si>
+    <t>Work to build</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>작업량</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keyed+BA.Health</t>
+  </si>
+  <si>
+    <t>BA.Health</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>내구도</t>
+  </si>
+  <si>
+    <t>Keyed+BA.Cleanliness</t>
+  </si>
+  <si>
+    <t>BA.Cleanliness</t>
+  </si>
+  <si>
+    <t>Cleanliness</t>
+  </si>
+  <si>
+    <t>청결</t>
+  </si>
+  <si>
+    <t>Keyed+BA.SkillRequired</t>
+  </si>
+  <si>
+    <t>BA.SkillRequired</t>
+  </si>
+  <si>
+    <t>Skill required</t>
+  </si>
+  <si>
+    <t>필요 기술</t>
+  </si>
+  <si>
+    <t>Keyed+BA.Flammability</t>
+  </si>
+  <si>
+    <t>BA.Flammability</t>
+  </si>
+  <si>
+    <t>Flammability</t>
+  </si>
+  <si>
+    <t>인화성</t>
+  </si>
+  <si>
+    <t>Keyed+BA.CoverEffectiveness</t>
+  </si>
+  <si>
+    <t>BA.CoverEffectiveness</t>
+  </si>
+  <si>
+    <t>Cover effectiveness</t>
+  </si>
+  <si>
+    <t>엄폐 효율</t>
+  </si>
+  <si>
+    <t>Keyed+BA.MaxPowerOutput</t>
+  </si>
+  <si>
+    <t>BA.MaxPowerOutput</t>
+  </si>
+  <si>
+    <t>Max power output</t>
+  </si>
+  <si>
+    <t>최대 전력 생산량</t>
+  </si>
+  <si>
+    <t>Keyed+BA.PowerConsumption</t>
+  </si>
+  <si>
+    <t>BA.PowerConsumption</t>
+  </si>
+  <si>
+    <t>Power consumption</t>
+  </si>
+  <si>
+    <t>전력 소비량</t>
+  </si>
+  <si>
+    <t>Keyed+BA.RecreationPower</t>
+  </si>
+  <si>
+    <t>BA.RecreationPower</t>
+  </si>
+  <si>
+    <t>Recreation power</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>오락 효과</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keyed+BA.MoveSpeed</t>
+  </si>
+  <si>
+    <t>BA.MoveSpeed</t>
+  </si>
+  <si>
+    <t>Move speed</t>
+  </si>
+  <si>
+    <t>이동 속도</t>
+  </si>
+  <si>
+    <t>Keyed+BA.TotalStorageCapacity</t>
+  </si>
+  <si>
+    <t>BA.TotalStorageCapacity</t>
+  </si>
+  <si>
+    <t>Total storage capacity</t>
+  </si>
+  <si>
+    <t>총 저장 용량</t>
+  </si>
+  <si>
+    <t>Keyed+BA.DoorOpeningSpeed</t>
+  </si>
+  <si>
+    <t>BA.DoorOpeningSpeed</t>
+  </si>
+  <si>
+    <t>Door opening speed</t>
+  </si>
+  <si>
+    <t>문 개방 속도</t>
+  </si>
+  <si>
+    <t>Keyed+BA.WorkSpeedFactor</t>
+  </si>
+  <si>
+    <t>BA.WorkSpeedFactor</t>
+  </si>
+  <si>
+    <t>Work speed factor</t>
+  </si>
+  <si>
+    <t>작업 속도 계수</t>
+  </si>
+  <si>
+    <t>Keyed+BA.More</t>
+  </si>
+  <si>
+    <t>BA.More</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>기타</t>
+  </si>
+  <si>
+    <t>Keyed+BA.BackgroundAlpha</t>
+  </si>
+  <si>
+    <t>BA.BackgroundAlpha</t>
+  </si>
+  <si>
+    <t>Background transparency</t>
+  </si>
+  <si>
+    <t>배경 투명도</t>
+  </si>
+  <si>
+    <t>Keyed+BA.NothingAvailableToBuild</t>
+  </si>
+  <si>
+    <t>BA.NothingAvailableToBuild</t>
+  </si>
+  <si>
+    <t>There is nothing available to build yet.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>건설 가능한 항목이 없습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patches.DesignationCategoryDef+Ideology.label</t>
+  </si>
+  <si>
+    <t>Ideology.label</t>
+  </si>
+  <si>
+    <t>Ideology</t>
+  </si>
+  <si>
+    <t>Culture</t>
+  </si>
+  <si>
+    <t>문화</t>
+  </si>
+  <si>
+    <t>Patches.DesignationCategoryDef+Biotech.label</t>
+  </si>
+  <si>
+    <t>Biotech.label</t>
+  </si>
+  <si>
+    <t>Genetics</t>
+  </si>
+  <si>
+    <t>유전학</t>
+  </si>
+  <si>
+    <t>Patches.DesignationCategoryDef+Anomaly.label</t>
+  </si>
+  <si>
+    <t>Anomaly.label</t>
+  </si>
+  <si>
+    <t>Anomaly</t>
+  </si>
+  <si>
+    <t>Monolith</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>이상 현상</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patches.DesignationCategoryDef+Odyssey.label</t>
+  </si>
+  <si>
+    <t>Odyssey.label</t>
+  </si>
+  <si>
+    <t>Odyssey</t>
+  </si>
+  <si>
+    <t>Orbital</t>
+  </si>
+  <si>
+    <t>궤도</t>
+  </si>
+  <si>
+    <t>Patches.DesignationCategoryDef+VF_Vehicles.label</t>
+  </si>
+  <si>
+    <t>VF_Vehicles.label</t>
+  </si>
+  <si>
+    <t>Vehicle Framework</t>
+  </si>
+  <si>
+    <t>Patches.DesignationCategoryDef+GR_GeneticsTab.label</t>
+  </si>
+  <si>
+    <t>GR_GeneticsTab.label</t>
+  </si>
+  <si>
+    <t>Vanilla Genetics Expanded</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+MarriageSpot.label</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef</t>
+  </si>
+  <si>
+    <t>MarriageSpot.label</t>
+  </si>
+  <si>
+    <t>##packageId##inglix.widermarriagespot</t>
+  </si>
+  <si>
+    <t>2x1 marriage spot</t>
+  </si>
+  <si>
+    <t>2x1 결혼식 장소</t>
+  </si>
+  <si>
+    <t>Patches.DesignationCategoryDef+VCHE_PipeNetworks.label</t>
+  </si>
+  <si>
+    <t>VCHE_PipeNetworks.label</t>
   </si>
   <si>
     <t>Resources</t>
   </si>
   <si>
-    <t>자원</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_ResourcesStorage.description</t>
-  </si>
-  <si>
-    <t>Ferny_ResourcesStorage.description</t>
-  </si>
-  <si>
-    <t>Build resources storages.</t>
-  </si>
-  <si>
-    <t>자원 저장고를 건설합니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_GearStorage.label</t>
-  </si>
-  <si>
-    <t>Ferny_GearStorage.label</t>
-  </si>
-  <si>
-    <t>Gear</t>
-  </si>
-  <si>
-    <t>장비</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_GearStorage.description</t>
-  </si>
-  <si>
-    <t>Ferny_GearStorage.description</t>
-  </si>
-  <si>
-    <t>Build gear storage.</t>
-  </si>
-  <si>
-    <t>장비 저장고를 건설합니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_FoodStorage.label</t>
-  </si>
-  <si>
-    <t>Ferny_FoodStorage.label</t>
-  </si>
-  <si>
-    <t>Food</t>
-  </si>
-  <si>
-    <t>식량</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_FoodStorage.description</t>
-  </si>
-  <si>
-    <t>Ferny_FoodStorage.description</t>
-  </si>
-  <si>
-    <t>Build food storage.</t>
-  </si>
-  <si>
-    <t>식량 저장고를 건설합니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_AmmunitionNetwork.label</t>
-  </si>
-  <si>
-    <t>Ferny_AmmunitionNetwork.label</t>
-  </si>
-  <si>
-    <t>Ammunition</t>
-  </si>
-  <si>
-    <t>탄약</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_AmmunitionNetwork.description</t>
-  </si>
-  <si>
-    <t>Ferny_AmmunitionNetwork.description</t>
-  </si>
-  <si>
-    <t>Manage ammunition.</t>
-  </si>
-  <si>
-    <t>탄약을 관리합니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_World.label</t>
-  </si>
-  <si>
-    <t>Ferny_World.label</t>
-  </si>
-  <si>
-    <t>World</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>세계</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_World.description</t>
-  </si>
-  <si>
-    <t>Ferny_World.description</t>
-  </si>
-  <si>
-    <t>Manage the world.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>외부 교류 설비를 관리합니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Outreach.label</t>
-  </si>
-  <si>
-    <t>Ferny_Outreach.label</t>
-  </si>
-  <si>
-    <t>Outreach</t>
-  </si>
-  <si>
-    <t>교류</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Outreach.description</t>
-  </si>
-  <si>
-    <t>Ferny_Outreach.description</t>
-  </si>
-  <si>
-    <t>Things that reach out into the world.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>세계 외부와 교류하는 건물입니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Automation.label</t>
-  </si>
-  <si>
-    <t>Ferny_Automation.label</t>
-  </si>
-  <si>
-    <t>Automation</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Automation.description</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>공장</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ferny_Automation.description</t>
-  </si>
-  <si>
-    <t>Things that automate stuff.</t>
-  </si>
-  <si>
-    <t>작업을 자동화하는 건물입니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Hosting.label</t>
-  </si>
-  <si>
-    <t>Ferny_Hosting.label</t>
-  </si>
-  <si>
-    <t>Entertain</t>
-  </si>
-  <si>
-    <t>오락</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Market.label</t>
-  </si>
-  <si>
-    <t>Ferny_Market.label</t>
-  </si>
-  <si>
-    <t>Market</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Museum.label</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>상점</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ferny_Museum.label</t>
-  </si>
-  <si>
-    <t>Museum</t>
-  </si>
-  <si>
-    <t>박물관</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Pollution.label</t>
-  </si>
-  <si>
-    <t>Ferny_Pollution.label</t>
-  </si>
-  <si>
-    <t>Pollution</t>
-  </si>
-  <si>
-    <t>오염</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Pollution.description</t>
-  </si>
-  <si>
-    <t>Ferny_Pollution.description</t>
-  </si>
-  <si>
-    <t>Manage the pollution.</t>
-  </si>
-  <si>
-    <t>오염을 관리합니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Deathrest.label</t>
-  </si>
-  <si>
-    <t>Ferny_Deathrest.label</t>
-  </si>
-  <si>
-    <t>Deathrest</t>
-  </si>
-  <si>
-    <t>죽음안식</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Deathrest.description</t>
-  </si>
-  <si>
-    <t>Ferny_Deathrest.description</t>
-  </si>
-  <si>
-    <t>Manage Deathrest.</t>
-  </si>
-  <si>
-    <t>죽음안식을 관리합니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Mechanoids.label</t>
-  </si>
-  <si>
-    <t>Ferny_Mechanoids.label</t>
-  </si>
-  <si>
-    <t>Mechanoids</t>
-  </si>
-  <si>
-    <t>메카노이드</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Mechanoids.description</t>
-  </si>
-  <si>
-    <t>Ferny_Mechanoids.description</t>
-  </si>
-  <si>
-    <t>Build mechanoids.</t>
-  </si>
-  <si>
-    <t>메카노이드를 제작합니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_AnimalImplants.label</t>
-  </si>
-  <si>
-    <t>Ferny_AnimalImplants.label</t>
-  </si>
-  <si>
-    <t>Alpha Implants</t>
-  </si>
-  <si>
-    <t>Implants</t>
-  </si>
-  <si>
-    <t>이식물</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_AnimalImplants.description</t>
-  </si>
-  <si>
-    <t>Ferny_AnimalImplants.description</t>
-  </si>
-  <si>
-    <t>Manage implants.</t>
-  </si>
-  <si>
-    <t>이식물을 관리합니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_HelixienGasNetwork.label</t>
-  </si>
-  <si>
-    <t>Ferny_HelixienGasNetwork.label</t>
-  </si>
-  <si>
-    <t>##packageId##vanillaexpanded.helixiengas</t>
-  </si>
-  <si>
-    <t>Gas</t>
-  </si>
-  <si>
-    <t>가스</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_HelixienGasNetwork.description</t>
-  </si>
-  <si>
-    <t>Ferny_HelixienGasNetwork.description</t>
-  </si>
-  <si>
-    <t>Manage helixien gas.</t>
-  </si>
-  <si>
-    <t>헬릭시엔 가스를 관리합니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_NeutroamineNetwork.label</t>
-  </si>
-  <si>
-    <t>Ferny_NeutroamineNetwork.label</t>
-  </si>
-  <si>
-    <t>Vanilla Races Expanded - Android</t>
-  </si>
-  <si>
-    <t>Neutroamine</t>
-  </si>
-  <si>
-    <t>뉴트로아민</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_NeutroamineNetwork.description</t>
-  </si>
-  <si>
-    <t>Ferny_NeutroamineNetwork.description</t>
-  </si>
-  <si>
-    <t>Manage neutroamine.</t>
-  </si>
-  <si>
-    <t>뉴트로아민을 관리합니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Androids.label</t>
-  </si>
-  <si>
-    <t>Ferny_Androids.label</t>
-  </si>
-  <si>
-    <t>Androids</t>
-  </si>
-  <si>
-    <t>안드로이드</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Androids.description</t>
-  </si>
-  <si>
-    <t>Ferny_Androids.description</t>
-  </si>
-  <si>
-    <t>Build androids.</t>
-  </si>
-  <si>
-    <t>안드로이드를 제작합니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_ChemfuelNetwork.label</t>
-  </si>
-  <si>
-    <t>Ferny_ChemfuelNetwork.label</t>
-  </si>
-  <si>
-    <t>Vanilla Chemfuel Expanded</t>
-  </si>
-  <si>
-    <t>Chemfuel</t>
-  </si>
-  <si>
-    <t>화학연료</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_ChemfuelNetwork.description</t>
-  </si>
-  <si>
-    <t>Ferny_ChemfuelNetwork.description</t>
-  </si>
-  <si>
-    <t>Manage chemfuel.</t>
-  </si>
-  <si>
-    <t>화학연료를 관리합니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Aquarium.label</t>
-  </si>
-  <si>
-    <t>Ferny_Aquarium.label</t>
-  </si>
-  <si>
-    <t>Aquariums!</t>
-  </si>
-  <si>
-    <t>Aquarium</t>
-  </si>
-  <si>
-    <t>수족관</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Aquarium.description</t>
-  </si>
-  <si>
-    <t>Ferny_Aquarium.description</t>
-  </si>
-  <si>
-    <t>Build aquariums.</t>
-  </si>
-  <si>
-    <t>수족관을 건설합니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_HemogenNetwork.label</t>
-  </si>
-  <si>
-    <t>Ferny_HemogenNetwork.label</t>
-  </si>
-  <si>
-    <t>Vanilla Races Expanded - Sanguophage</t>
-  </si>
-  <si>
-    <t>Hemogen</t>
-  </si>
-  <si>
-    <t>혈액정수</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_HemogenNetwork.description</t>
-  </si>
-  <si>
-    <t>Ferny_HemogenNetwork.description</t>
-  </si>
-  <si>
-    <t>Manage hemogen.</t>
-  </si>
-  <si>
-    <t>혈액정수를 관리합니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_NutrientPasteNetwork.label</t>
-  </si>
-  <si>
-    <t>Ferny_NutrientPasteNetwork.label</t>
-  </si>
-  <si>
-    <t>Vanilla Nutrient Paste Expanded</t>
-  </si>
-  <si>
-    <t>Nutrient Paste</t>
-  </si>
-  <si>
-    <t>영양죽</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_NutrientPasteNetwork.description</t>
-  </si>
-  <si>
-    <t>Ferny_NutrientPasteNetwork.description</t>
-  </si>
-  <si>
-    <t>Manage nutrient paste.</t>
-  </si>
-  <si>
-    <t>영양죽을 관리합니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_MilkPipeNetwork.label</t>
-  </si>
-  <si>
-    <t>Ferny_MilkPipeNetwork.label</t>
-  </si>
-  <si>
-    <t>##packageId##vemp.pipenetwork</t>
-  </si>
-  <si>
-    <t>Milk</t>
-  </si>
-  <si>
-    <t>우유</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_MilkPipeNetwork.description</t>
-  </si>
-  <si>
-    <t>Ferny_MilkPipeNetwork.description</t>
-  </si>
-  <si>
-    <t>Manage milk.</t>
-  </si>
-  <si>
-    <t>우유를 관리합니다.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Sleeving.label</t>
-  </si>
-  <si>
-    <t>Ferny_Sleeving.label</t>
-  </si>
-  <si>
-    <t>Altered Carbon 2: ReSleeved</t>
-  </si>
-  <si>
-    <t>Sleeving</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>슬리브</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Sleeving.description</t>
-  </si>
-  <si>
-    <t>Ferny_Sleeving.description</t>
-  </si>
-  <si>
-    <t>Manage sleeves.</t>
-  </si>
-  <si>
-    <t>슬리브를 관리합니다.</t>
-  </si>
-  <si>
-    <t>Patches.DesignationCategoryDef+Security.label</t>
-  </si>
-  <si>
-    <t>Patches.DesignationCategoryDef</t>
-  </si>
-  <si>
-    <t>Security.label</t>
-  </si>
-  <si>
-    <t>Fight</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>전투</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>Patches.DesignationCategoryDef+Ferny_Colony.label</t>
-  </si>
-  <si>
-    <t>Manage</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>관리</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>Patches.DesignationCategoryDef+Structure.label</t>
-  </si>
-  <si>
-    <t>Structure.label</t>
-  </si>
-  <si>
-    <t>Build</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>건설</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>Patches.DesignationCategoryDef+Production.label</t>
-  </si>
-  <si>
-    <t>Production.label</t>
-  </si>
-  <si>
-    <t>Make</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>생산</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>Patches.DesignationCategoryDef+Ferny_Automation.label</t>
-  </si>
-  <si>
-    <t>Automate</t>
-  </si>
-  <si>
-    <t>Patches.DesignationCategoryDef+Ferny_Storage.label</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>자동화</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>창고</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>Patches.DesignationCategoryDef+Furniture.label</t>
-  </si>
-  <si>
-    <t>Furniture.label</t>
-  </si>
-  <si>
-    <t>Furnish</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>가구</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>Patches.DesignationCategoryDef+Misc.label</t>
-  </si>
-  <si>
-    <t>Misc.label</t>
-  </si>
-  <si>
-    <t>More</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>기타</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>Patches.DesignationCategoryDef+Temperature.label</t>
-  </si>
-  <si>
-    <t>Temperature.label</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Patches.DesignationCategoryDef+Ship.label</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>온도</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ship.label</t>
-  </si>
-  <si>
-    <t>Space</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>우주</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>Keyed+BA.Free</t>
-  </si>
-  <si>
-    <t>Keyed</t>
-  </si>
-  <si>
-    <t>BA.Free</t>
-  </si>
-  <si>
-    <t>Free</t>
-  </si>
-  <si>
-    <t>Keyed+BA.GroupByTechLevel</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>재료 없음</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>BA.GroupByTechLevel</t>
-  </si>
-  <si>
-    <t>Group by Tech Level</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>기술 수준으로 분류</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>Keyed+BA.MenuHeight</t>
-  </si>
-  <si>
-    <t>BA.MenuHeight</t>
-  </si>
-  <si>
-    <t>Menu height</t>
-  </si>
-  <si>
-    <t>메뉴 높이</t>
-  </si>
-  <si>
-    <t>Keyed+BA.HideOnSelection</t>
-  </si>
-  <si>
-    <t>BA.HideOnSelection</t>
-  </si>
-  <si>
-    <t>Hide on building selection</t>
-  </si>
-  <si>
-    <t>건물 선택 시 숨기기</t>
-  </si>
-  <si>
-    <t>Keyed+BA.HideOnSelectionTooltip</t>
-  </si>
-  <si>
-    <t>BA.HideOnSelectionTooltip</t>
-  </si>
-  <si>
-    <t>When building is selected, fully hide the menu.</t>
-  </si>
-  <si>
-    <t>건물을 선택하면 메뉴를 완전히 숨깁니다.</t>
-  </si>
-  <si>
-    <t>Keyed+BA.RememberSubcategory</t>
-  </si>
-  <si>
-    <t>BA.RememberSubcategory</t>
-  </si>
-  <si>
-    <t>Remember subcategory</t>
-  </si>
-  <si>
-    <t>하위 카테고리 기억</t>
-  </si>
-  <si>
-    <t>Keyed+BA.RememberSubcategoryTooltip</t>
-  </si>
-  <si>
-    <t>BA.RememberSubcategoryTooltip</t>
-  </si>
-  <si>
-    <t>When enabled, the mod will remember the last selected subcategory for each main category. When disabled, it will always default to the first subcategory.</t>
-  </si>
-  <si>
-    <t>활성화하면 모드가 각 주 카테고리별로 마지막으로 선택한 하위 카테고리를 기억합니다. 비활성화하면 항상 첫 번째 하위 카테고리로 기본 설정됩니다.</t>
-  </si>
-  <si>
-    <t>Keyed+BA.Default</t>
-  </si>
-  <si>
-    <t>BA.Default</t>
-  </si>
-  <si>
-    <t>Default</t>
-  </si>
-  <si>
-    <t>기본값</t>
-  </si>
-  <si>
-    <t>Keyed+BA.Label</t>
-  </si>
-  <si>
-    <t>BA.Label</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>이름</t>
-  </si>
-  <si>
-    <t>Keyed+BA.Beauty</t>
-  </si>
-  <si>
-    <t>BA.Beauty</t>
-  </si>
-  <si>
-    <t>Beauty</t>
-  </si>
-  <si>
-    <t>미관</t>
-  </si>
-  <si>
-    <t>Keyed+BA.Comfort</t>
-  </si>
-  <si>
-    <t>BA.Comfort</t>
-  </si>
-  <si>
-    <t>Comfort</t>
-  </si>
-  <si>
-    <t>편안함</t>
-  </si>
-  <si>
-    <t>Keyed+BA.Value</t>
-  </si>
-  <si>
-    <t>BA.Value</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>가치</t>
-  </si>
-  <si>
-    <t>Keyed+BA.WorkToBuild</t>
-  </si>
-  <si>
-    <t>BA.WorkToBuild</t>
-  </si>
-  <si>
-    <t>Work to build</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>작업량</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>Keyed+BA.Health</t>
-  </si>
-  <si>
-    <t>BA.Health</t>
-  </si>
-  <si>
-    <t>Health</t>
-  </si>
-  <si>
-    <t>내구도</t>
-  </si>
-  <si>
-    <t>Keyed+BA.Cleanliness</t>
-  </si>
-  <si>
-    <t>BA.Cleanliness</t>
-  </si>
-  <si>
-    <t>Cleanliness</t>
-  </si>
-  <si>
-    <t>청결</t>
-  </si>
-  <si>
-    <t>Keyed+BA.SkillRequired</t>
-  </si>
-  <si>
-    <t>BA.SkillRequired</t>
-  </si>
-  <si>
-    <t>Skill required</t>
-  </si>
-  <si>
-    <t>필요 기술</t>
-  </si>
-  <si>
-    <t>Keyed+BA.Flammability</t>
-  </si>
-  <si>
-    <t>BA.Flammability</t>
-  </si>
-  <si>
-    <t>Flammability</t>
-  </si>
-  <si>
-    <t>인화성</t>
-  </si>
-  <si>
-    <t>Keyed+BA.CoverEffectiveness</t>
-  </si>
-  <si>
-    <t>BA.CoverEffectiveness</t>
-  </si>
-  <si>
-    <t>Cover effectiveness</t>
-  </si>
-  <si>
-    <t>엄폐 효율</t>
-  </si>
-  <si>
-    <t>Keyed+BA.MaxPowerOutput</t>
-  </si>
-  <si>
-    <t>BA.MaxPowerOutput</t>
-  </si>
-  <si>
-    <t>Max power output</t>
-  </si>
-  <si>
-    <t>최대 전력 생산량</t>
-  </si>
-  <si>
-    <t>Keyed+BA.PowerConsumption</t>
-  </si>
-  <si>
-    <t>BA.PowerConsumption</t>
-  </si>
-  <si>
-    <t>Power consumption</t>
-  </si>
-  <si>
-    <t>전력 소비량</t>
-  </si>
-  <si>
-    <t>Keyed+BA.RecreationPower</t>
-  </si>
-  <si>
-    <t>BA.RecreationPower</t>
-  </si>
-  <si>
-    <t>Recreation power</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>오락 효과</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>Keyed+BA.MoveSpeed</t>
-  </si>
-  <si>
-    <t>BA.MoveSpeed</t>
-  </si>
-  <si>
-    <t>Move speed</t>
-  </si>
-  <si>
-    <t>이동 속도</t>
-  </si>
-  <si>
-    <t>Keyed+BA.TotalStorageCapacity</t>
-  </si>
-  <si>
-    <t>BA.TotalStorageCapacity</t>
-  </si>
-  <si>
-    <t>Total storage capacity</t>
-  </si>
-  <si>
-    <t>총 저장 용량</t>
-  </si>
-  <si>
-    <t>Keyed+BA.DoorOpeningSpeed</t>
-  </si>
-  <si>
-    <t>BA.DoorOpeningSpeed</t>
-  </si>
-  <si>
-    <t>Door opening speed</t>
-  </si>
-  <si>
-    <t>문 개방 속도</t>
-  </si>
-  <si>
-    <t>Keyed+BA.WorkSpeedFactor</t>
-  </si>
-  <si>
-    <t>BA.WorkSpeedFactor</t>
-  </si>
-  <si>
-    <t>Work speed factor</t>
-  </si>
-  <si>
-    <t>작업 속도 계수</t>
-  </si>
-  <si>
-    <t>Keyed+BA.More</t>
-  </si>
-  <si>
-    <t>BA.More</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>기타</t>
-  </si>
-  <si>
-    <t>Keyed+BA.BackgroundAlpha</t>
-  </si>
-  <si>
-    <t>BA.BackgroundAlpha</t>
-  </si>
-  <si>
-    <t>Background transparency</t>
-  </si>
-  <si>
-    <t>배경 투명도</t>
-  </si>
-  <si>
-    <t>Keyed+BA.NothingAvailableToBuild</t>
-  </si>
-  <si>
-    <t>BA.NothingAvailableToBuild</t>
-  </si>
-  <si>
-    <t>There is nothing available to build yet.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>건설 가능한 항목이 없습니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>Patches.DesignationCategoryDef+Ideology.label</t>
-  </si>
-  <si>
-    <t>Ideology.label</t>
-  </si>
-  <si>
-    <t>Ideology</t>
-  </si>
-  <si>
-    <t>Culture</t>
-  </si>
-  <si>
-    <t>문화</t>
-  </si>
-  <si>
-    <t>Patches.DesignationCategoryDef+Biotech.label</t>
-  </si>
-  <si>
-    <t>Biotech.label</t>
-  </si>
-  <si>
-    <t>Genetics</t>
-  </si>
-  <si>
-    <t>유전학</t>
-  </si>
-  <si>
-    <t>Patches.DesignationCategoryDef+Anomaly.label</t>
-  </si>
-  <si>
-    <t>Anomaly.label</t>
-  </si>
-  <si>
-    <t>Anomaly</t>
-  </si>
-  <si>
-    <t>Monolith</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>이상 현상</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>Patches.DesignationCategoryDef+Odyssey.label</t>
-  </si>
-  <si>
-    <t>Odyssey.label</t>
-  </si>
-  <si>
-    <t>Odyssey</t>
-  </si>
-  <si>
-    <t>Orbital</t>
-  </si>
-  <si>
-    <t>궤도</t>
-  </si>
-  <si>
-    <t>Patches.DesignationCategoryDef+VF_Vehicles.label</t>
-  </si>
-  <si>
-    <t>VF_Vehicles.label</t>
-  </si>
-  <si>
-    <t>Vehicle Framework</t>
-  </si>
-  <si>
-    <t>Patches.DesignationCategoryDef+GR_GeneticsTab.label</t>
-  </si>
-  <si>
-    <t>GR_GeneticsTab.label</t>
-  </si>
-  <si>
-    <t>Vanilla Genetics Expanded</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+MarriageSpot.label</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef</t>
-  </si>
-  <si>
-    <t>MarriageSpot.label</t>
-  </si>
-  <si>
-    <t>##packageId##inglix.widermarriagespot</t>
-  </si>
-  <si>
-    <t>2x1 marriage spot</t>
-  </si>
-  <si>
-    <t>2x1 결혼식 장소</t>
-  </si>
-  <si>
-    <t>Patches.DesignationCategoryDef+VCHE_PipeNetworks.label</t>
-  </si>
-  <si>
-    <t>VCHE_PipeNetworks.label</t>
-  </si>
-  <si>
     <t>Patches.DesignationCategoryDef+VFEI2_Insectoids.label</t>
   </si>
   <si>
@@ -2695,22 +2806,7 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>DesignationCategoryDef+Ferny_MiningProduction.label</t>
-  </si>
-  <si>
-    <t>Ferny_MiningProduction.label</t>
-  </si>
-  <si>
-    <t>Mining</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_MiningProduction.description</t>
-  </si>
-  <si>
-    <t>Ferny_MiningProduction.description</t>
-  </si>
-  <si>
-    <t>Things that relate to mining.</t>
+    <t>Hacking</t>
   </si>
   <si>
     <t>DesignationCategoryDef+Ferny_Explosives.label</t>
@@ -2725,6 +2821,18 @@
     <t>DesignationCategoryDef+Ferny_Explosives.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>폭발물</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_Explosives.description</t>
   </si>
   <si>
@@ -2734,12 +2842,36 @@
     <t>DesignationCategoryDef+Ferny_CombatEquipment.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>적을 상대할 폭발물을 제작합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_CombatEquipment.label</t>
   </si>
   <si>
     <t>Equipment</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>장비</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_CombatEquipment.description</t>
   </si>
   <si>
@@ -2752,6 +2884,18 @@
     <t>DesignationCategoryDef+Ferny_Filth.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>전투 장비를 관리합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_Filth.label</t>
   </si>
   <si>
@@ -2761,6 +2905,18 @@
     <t>DesignationCategoryDef+Ferny_Filth.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>오물</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_Filth.description</t>
   </si>
   <si>
@@ -2770,6 +2926,18 @@
     <t>DesignationCategoryDef+Ferny_Terraforming.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>오물을 관리합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_Terraforming.label</t>
   </si>
   <si>
@@ -2779,6 +2947,18 @@
     <t>DesignationCategoryDef+Ferny_Terraforming.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>테라포밍</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_Terraforming.description</t>
   </si>
   <si>
@@ -2788,21 +2968,45 @@
     <t>DesignationCategoryDef+Ferny_Control.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>환경을 개조합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_Control.label</t>
   </si>
   <si>
+    <t>Ferny_Control.description</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Control.description</t>
   </si>
   <si>
-    <t>Ferny_Control.description</t>
-  </si>
-  <si>
     <t>Control pawn behavior.</t>
   </si>
   <si>
     <t>DesignationCategoryDef+Ferny_Memorial.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>정착민의 행동을 관리합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_Memorial.label</t>
   </si>
   <si>
@@ -2812,6 +3016,18 @@
     <t>DesignationCategoryDef+Ferny_Memorial.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>기념물</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_Memorial.description</t>
   </si>
   <si>
@@ -2821,6 +3037,18 @@
     <t>DesignationCategoryDef+Ferny_InformationStorage.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>매장 혹은 기념관과 관련된 것들입니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_InformationStorage.label</t>
   </si>
   <si>
@@ -2830,30 +3058,45 @@
     <t>DesignationCategoryDef+Ferny_InformationStorage.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>정보</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_InformationStorage.description</t>
   </si>
   <si>
     <t>Build information storages.</t>
   </si>
   <si>
-    <t>DesignationCategoryDef+Ferny_MedicalStorage.label</t>
-  </si>
-  <si>
-    <t>Ferny_MedicalStorage.label</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_MedicalStorage.description</t>
-  </si>
-  <si>
-    <t>Ferny_MedicalStorage.description</t>
-  </si>
-  <si>
-    <t>Build medical storage.</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>정보 저장고를 건설합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ferny_Hacking.label</t>
   </si>
   <si>
     <t>DesignationCategoryDef+Ferny_Logistics.label</t>
   </si>
   <si>
+    <t>Nutrients</t>
+  </si>
+  <si>
     <t>Ferny_Logistics.label</t>
   </si>
   <si>
@@ -2863,6 +3106,18 @@
     <t>DesignationCategoryDef+Ferny_VehicleStorage.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>물류</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_VehicleStorage.label</t>
   </si>
   <si>
@@ -2872,6 +3127,18 @@
     <t>DesignationCategoryDef+Ferny_VehicleStorage.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>차량</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_VehicleStorage.description</t>
   </si>
   <si>
@@ -2881,6 +3148,18 @@
     <t>DesignationCategoryDef+Ferny_Summon.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>차량 저장고를 건설합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_Summon.label</t>
   </si>
   <si>
@@ -2890,12 +3169,36 @@
     <t>DesignationCategoryDef+Ferny_Summon.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>소환</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_Summon.description</t>
   </si>
   <si>
     <t>DesignationCategoryDef+Ferny_LuciferiumNetwork.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>무언가를 불러들이는 것들입니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_LuciferiumNetwork.label</t>
   </si>
   <si>
@@ -2908,6 +3211,18 @@
     <t>DesignationCategoryDef+Ferny_LuciferiumNetwork.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>루시페륨</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_LuciferiumNetwork.description</t>
   </si>
   <si>
@@ -2917,6 +3232,18 @@
     <t>DesignationCategoryDef+Ferny_UraniumNetwork.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>루시페륨을 관리합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_UraniumNetwork.label</t>
   </si>
   <si>
@@ -2929,6 +3256,18 @@
     <t>DesignationCategoryDef+Ferny_UraniumNetwork.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>우라늄</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_UraniumNetwork.description</t>
   </si>
   <si>
@@ -2938,6 +3277,18 @@
     <t>DesignationCategoryDef+Ferny_ToxicWasteNetwork.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>우라늄을 관리합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_ToxicWasteNetwork.label</t>
   </si>
   <si>
@@ -2950,6 +3301,18 @@
     <t>DesignationCategoryDef+Ferny_ToxicWasteNetwork.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>독성 폐기물</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_ToxicWasteNetwork.description</t>
   </si>
   <si>
@@ -2959,6 +3322,18 @@
     <t>DesignationCategoryDef+Ferny_DyeNetwork.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>독성 폐기물을 관리합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_DyeNetwork.label</t>
   </si>
   <si>
@@ -2968,6 +3343,18 @@
     <t>DesignationCategoryDef+Ferny_DyeNetwork.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>염료</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_DyeNetwork.description</t>
   </si>
   <si>
@@ -2977,6 +3364,18 @@
     <t>DesignationCategoryDef+Ferny_NeutroniumNetwork.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>염료를 관리합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_NeutroniumNetwork.label</t>
   </si>
   <si>
@@ -2989,196 +3388,54 @@
     <t>DesignationCategoryDef+Ferny_NeutroniumNetwork.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>뉴트로늄</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_NeutroniumNetwork.description</t>
   </si>
   <si>
     <t>Manage neutronium.</t>
   </si>
   <si>
-    <t>Infrastructure</t>
+    <t>DesignationCategoryDef+Ferny_Hacking.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>뉴트로늄을 관리합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ferny_Hacking.description</t>
+  </si>
+  <si>
+    <t>Hack stuff.</t>
+  </si>
+  <si>
+    <t>해킹</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>채굴</t>
+    <t>해킹과 관련된 건물입니다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>채굴과 관련된 것들입니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>폭발물</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>적을 상대할 폭발물을 제작합니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>장비</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>전투 장비를 관리합니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>오물</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>오물을 관리합니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>테라포밍</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>환경을 개조합니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>정착민의 행동을 관리합니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>기념물</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>매장 혹은 기념관과 관련된 것들입니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>정보</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>정보 저장고를 건설합니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>의약품</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>의약품 저장고를 건설합니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>물류</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>차량</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>탑승물</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>탑승물을 관리합니다.</t>
-  </si>
-  <si>
-    <t>지상 탑승물을 제작합니다.</t>
-  </si>
-  <si>
-    <t>공중 탑승물을 제작합니다.</t>
-  </si>
-  <si>
-    <t>군용 탑승물을 제작합니다.</t>
-  </si>
-  <si>
-    <t>해상 탑승물을 제작합니다.</t>
-  </si>
-  <si>
-    <t>차량 저장고를 건설합니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>소환</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>무언가를 불러들이는 것들입니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>루시페륨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>루시페륨을 관리합니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>우라늄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>우라늄을 관리합니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>독성 폐기물</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>독성 폐기물을 관리합니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>염료</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>염료를 관리합니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>뉴트로늄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>뉴트로늄을 관리합니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>적을 상대할 기반시설을 건설합니다.</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>탑승물 기반시설을 건설합니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>생산 기반시설을 건설합니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ferny_ProductionInfrastructure.label</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Build infrastructure for your enemies.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>전력 관리를 돕는 건물입니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>전선</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리</t>
+    <t>환경</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -3538,10 +3795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F222"/>
+  <dimension ref="A1:F220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
-      <selection activeCell="G201" sqref="G201"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="H212" sqref="H212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3790,12 +4047,12 @@
         <v>57</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7</v>
@@ -3858,12 +4115,12 @@
         <v>73</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>7</v>
@@ -3892,12 +4149,12 @@
         <v>81</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>7</v>
@@ -3994,12 +4251,12 @@
         <v>105</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>7</v>
@@ -4022,3395 +4279,3404 @@
         <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>893</v>
+        <v>113</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>112</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>861</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>892</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>112</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>896</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>895</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>850</v>
+        <v>208</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>897</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>894</v>
+        <v>212</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>890</v>
+        <v>213</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>205</v>
+        <v>288</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>871</v>
+        <v>305</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>872</v>
+        <v>308</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>873</v>
+        <v>332</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>874</v>
+        <v>340</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>875</v>
+        <v>348</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>876</v>
+        <v>356</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>850</v>
+        <v>208</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>861</v>
+        <v>115</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>891</v>
+        <v>363</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>203</v>
+        <v>379</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>442</v>
+        <v>456</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
-        <v>495</v>
+        <v>509</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A130" s="1" t="s">
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>520</v>
+        <v>820</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>521</v>
+        <v>535</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A134" s="1" t="s">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>530</v>
+        <v>544</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A136" s="1" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A137" s="1" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>537</v>
+        <v>551</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A138" s="1" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>541</v>
+        <v>555</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>537</v>
+        <v>551</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A139" s="1" t="s">
-        <v>544</v>
+        <v>558</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>551</v>
+        <v>115</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A142" s="1" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A143" s="1" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A144" s="1" t="s">
-        <v>562</v>
+        <v>576</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A145" s="1" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A146" s="1" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A147" s="1" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>578</v>
+        <v>888</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A148" s="1" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A149" s="1" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A150" s="1" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A151" s="1" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A152" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>583</v>
-      </c>
       <c r="C152" s="1" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A153" s="1" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A171" s="1" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>672</v>
+        <v>684</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>673</v>
+        <v>685</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>676</v>
+        <v>688</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>677</v>
+        <v>689</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>684</v>
+        <v>696</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>686</v>
+        <v>698</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A175" s="1" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A176" s="1" t="s">
-        <v>691</v>
+        <v>703</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>692</v>
+        <v>704</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>693</v>
+        <v>705</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>694</v>
+        <v>706</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A177" s="1" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>698</v>
+        <v>710</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>699</v>
+        <v>711</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A178" s="1" t="s">
-        <v>700</v>
+        <v>712</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>701</v>
+        <v>713</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>702</v>
+        <v>714</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>703</v>
+        <v>715</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A179" s="1" t="s">
-        <v>704</v>
+        <v>716</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>705</v>
+        <v>717</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>706</v>
+        <v>718</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>707</v>
+        <v>719</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A180" s="1" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>713</v>
+        <v>725</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A181" s="1" t="s">
-        <v>714</v>
+        <v>726</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>686</v>
+        <v>698</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A182" s="1" t="s">
-        <v>717</v>
+        <v>729</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>719</v>
+        <v>731</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>702</v>
+        <v>714</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>703</v>
+        <v>715</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A183" s="1" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>721</v>
+        <v>733</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>722</v>
+        <v>734</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>724</v>
+        <v>736</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>725</v>
+        <v>737</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A184" s="1" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>365</v>
+        <v>740</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A185" s="1" t="s">
-        <v>728</v>
+        <v>741</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>729</v>
+        <v>742</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>730</v>
+        <v>743</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>731</v>
+        <v>744</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>732</v>
+        <v>745</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A186" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="B186" s="1" t="s">
-        <v>721</v>
-      </c>
       <c r="C186" s="1" t="s">
-        <v>734</v>
+        <v>747</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>735</v>
+        <v>748</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>736</v>
+        <v>749</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>737</v>
+        <v>750</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A187" s="1" t="s">
-        <v>738</v>
+        <v>751</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>739</v>
+        <v>752</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>740</v>
+        <v>753</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>741</v>
+        <v>754</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>742</v>
+        <v>755</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A188" s="1" t="s">
-        <v>743</v>
+        <v>756</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>744</v>
+        <v>757</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>745</v>
+        <v>758</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>746</v>
+        <v>759</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>747</v>
+        <v>760</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A189" s="1" t="s">
-        <v>748</v>
+        <v>761</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>365</v>
+        <v>740</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>749</v>
+        <v>762</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A190" s="1" t="s">
-        <v>750</v>
+        <v>764</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>751</v>
+        <v>765</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>752</v>
+        <v>766</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>851</v>
+        <v>768</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A191" s="1" t="s">
-        <v>753</v>
+        <v>767</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>754</v>
+        <v>769</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>755</v>
+        <v>770</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>852</v>
+        <v>772</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A192" s="1" t="s">
-        <v>756</v>
+        <v>771</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>757</v>
+        <v>773</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>758</v>
+        <v>774</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>853</v>
+        <v>775</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A193" s="1" t="s">
-        <v>759</v>
+        <v>776</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>760</v>
+        <v>777</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>761</v>
+        <v>778</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>854</v>
+        <v>780</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A194" s="1" t="s">
-        <v>762</v>
+        <v>779</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>763</v>
+        <v>781</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>764</v>
+        <v>782</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>855</v>
+        <v>784</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A195" s="1" t="s">
-        <v>765</v>
+        <v>783</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>766</v>
+        <v>785</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>767</v>
+        <v>786</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>856</v>
+        <v>788</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A196" s="1" t="s">
-        <v>768</v>
+        <v>787</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>769</v>
+        <v>789</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>770</v>
+        <v>790</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>857</v>
+        <v>792</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A197" s="1" t="s">
-        <v>771</v>
+        <v>791</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>772</v>
+        <v>793</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>773</v>
+        <v>794</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>858</v>
+        <v>796</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
-        <v>774</v>
+        <v>795</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>775</v>
+        <v>797</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>776</v>
+        <v>564</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>859</v>
+        <v>115</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A199" s="1" t="s">
-        <v>777</v>
+        <v>799</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>778</v>
+        <v>798</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>779</v>
+        <v>800</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>860</v>
+        <v>802</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A200" s="1" t="s">
-        <v>780</v>
+        <v>801</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>781</v>
+        <v>803</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>550</v>
+        <v>804</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>861</v>
+        <v>806</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A201" s="1" t="s">
-        <v>782</v>
+        <v>805</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>783</v>
+        <v>807</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>784</v>
+        <v>808</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>862</v>
+        <v>810</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A202" s="1" t="s">
-        <v>785</v>
+        <v>809</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>786</v>
+        <v>811</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>787</v>
+        <v>812</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>863</v>
+        <v>814</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A203" s="1" t="s">
-        <v>788</v>
+        <v>813</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>789</v>
+        <v>815</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>790</v>
+        <v>816</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>864</v>
+        <v>817</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A204" s="1" t="s">
-        <v>791</v>
+        <v>819</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>792</v>
+        <v>821</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>793</v>
+        <v>822</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>865</v>
+        <v>824</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A205" s="1" t="s">
-        <v>794</v>
+        <v>823</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>795</v>
+        <v>825</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>796</v>
+        <v>826</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>866</v>
+        <v>828</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A206" s="1" t="s">
-        <v>797</v>
+        <v>827</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>798</v>
+        <v>829</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>302</v>
+        <v>830</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>867</v>
+        <v>832</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A207" s="1" t="s">
-        <v>799</v>
+        <v>831</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>801</v>
+        <v>834</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>868</v>
+        <v>836</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A208" s="1" t="s">
-        <v>802</v>
+        <v>835</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>803</v>
+        <v>837</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>804</v>
+        <v>423</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>869</v>
+        <v>839</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A209" s="1" t="s">
-        <v>805</v>
+        <v>838</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>806</v>
+        <v>840</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>841</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>807</v>
+        <v>842</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>870</v>
+        <v>844</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A210" s="1" t="s">
-        <v>808</v>
+        <v>843</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>809</v>
+        <v>845</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>841</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>810</v>
+        <v>846</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>877</v>
+        <v>848</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A211" s="1" t="s">
-        <v>811</v>
+        <v>847</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>812</v>
+        <v>849</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>850</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>813</v>
+        <v>851</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>878</v>
+        <v>853</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A212" s="1" t="s">
-        <v>814</v>
+        <v>852</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>815</v>
+        <v>854</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>850</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>409</v>
+        <v>855</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>879</v>
+        <v>857</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A213" s="1" t="s">
-        <v>816</v>
+        <v>856</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>817</v>
+        <v>858</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>818</v>
+        <v>859</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>819</v>
+        <v>860</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>880</v>
+        <v>862</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A214" s="1" t="s">
-        <v>820</v>
+        <v>861</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>821</v>
+        <v>863</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>818</v>
+        <v>859</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>822</v>
+        <v>864</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>881</v>
+        <v>866</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A215" s="1" t="s">
-        <v>823</v>
+        <v>865</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>824</v>
+        <v>867</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>825</v>
+        <v>859</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>826</v>
+        <v>868</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A216" s="1" t="s">
-        <v>827</v>
+        <v>869</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>828</v>
+        <v>871</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>825</v>
+        <v>859</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>829</v>
+        <v>872</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A217" s="1" t="s">
-        <v>830</v>
+        <v>873</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>831</v>
+        <v>875</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>832</v>
+        <v>876</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>833</v>
+        <v>877</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A218" s="1" t="s">
-        <v>834</v>
+        <v>878</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>835</v>
+        <v>880</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>832</v>
+        <v>876</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>836</v>
+        <v>881</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A219" s="1" t="s">
-        <v>837</v>
+        <v>534</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>832</v>
+        <v>818</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>839</v>
+        <v>763</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>886</v>
@@ -7418,62 +7684,19 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A220" s="1" t="s">
-        <v>840</v>
+        <v>882</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>832</v>
+        <v>884</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>842</v>
+        <v>885</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>887</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A221" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="D221" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="F221" s="1" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A222" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>849</v>
-      </c>
-      <c r="F222" s="1" t="s">
-        <v>889</v>
       </c>
     </row>
   </sheetData>

--- a/Data/ferny/Better Architect Menu - 3563882422/Better Architect Menu - 3563882422.xlsx
+++ b/Data/ferny/Better Architect Menu - 3563882422/Better Architect Menu - 3563882422.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjmi0\Desktop\림월드 번역\Better Architect Menu - 3563882422\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD890B8-9FA4-4412-B809-ED3CE587EB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD72DE6-13DA-40A1-832A-BC04BFBB15E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="916">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -448,9 +448,6 @@
     <t>DesignationCategoryDef+Ferny_ProductionInfrastructure.label</t>
   </si>
   <si>
-    <t>Infrastructure</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -463,7 +460,7 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>DesignationCategoryDef+Ferny_ProductionInfrastructure.description</t>
+    <t>Infrastructure</t>
   </si>
   <si>
     <r>
@@ -478,13 +475,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>DesignationCategoryDef+Ferny_ProductionInfrastructure.description</t>
+  </si>
+  <si>
     <t>Ferny_ProductionInfrastructure.description</t>
   </si>
   <si>
     <t>Managing production.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_PowerGeneration.label</t>
   </si>
   <si>
     <r>
@@ -499,6 +496,9 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>DesignationCategoryDef+Ferny_PowerGeneration.label</t>
+  </si>
+  <si>
     <t>Ferny_PowerGeneration.label</t>
   </si>
   <si>
@@ -568,9 +568,6 @@
     <t>Ferny_PowerManagement.label</t>
   </si>
   <si>
-    <t>DesignationCategoryDef+Ferny_PowerManagement.description</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -583,13 +580,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>DesignationCategoryDef+Ferny_PowerManagement.description</t>
+  </si>
+  <si>
     <t>Ferny_PowerManagement.description</t>
   </si>
   <si>
     <t>Things that help you manage your power.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Animals.label</t>
   </si>
   <si>
     <r>
@@ -604,6 +601,9 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>DesignationCategoryDef+Ferny_Animals.label</t>
+  </si>
+  <si>
     <t>Ferny_Animals.label</t>
   </si>
   <si>
@@ -811,13 +811,10 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>DesignationCategoryDef+Ferny_CombatInfrastructure.description</t>
+  </si>
+  <si>
     <t>Ferny_CombatInfrastructure.description</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_CombatInfrastructure.description</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Ranching.label</t>
   </si>
   <si>
     <r>
@@ -844,10 +841,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>DesignationCategoryDef+Ferny_Ranching.label</t>
+  </si>
+  <si>
     <t>Ferny_Ranching.label</t>
   </si>
   <si>
-    <t>Ranching</t>
+    <t>Influence</t>
   </si>
   <si>
     <r>
@@ -1195,9 +1195,6 @@
     <t>Transport</t>
   </si>
   <si>
-    <t>DesignationCategoryDef+Ferny_Transport.description</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1210,6 +1207,9 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>DesignationCategoryDef+Ferny_Transport.description</t>
+  </si>
+  <si>
     <t>Ferny_Transport.description</t>
   </si>
   <si>
@@ -1378,16 +1378,13 @@
     <t>Ferny_TransportInfrastructure.label</t>
   </si>
   <si>
+    <t>DesignationCategoryDef+Ferny_TransportInfrastructure.description</t>
+  </si>
+  <si>
     <t>Ferny_TransportInfrastructure.description</t>
   </si>
   <si>
-    <t>DesignationCategoryDef+Ferny_TransportInfrastructure.description</t>
-  </si>
-  <si>
     <t>Build transport infrastructure.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Storage.label</t>
   </si>
   <si>
     <r>
@@ -1402,6 +1399,9 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>DesignationCategoryDef+Ferny_Storage.label</t>
+  </si>
+  <si>
     <t>Ferny_Storage.label</t>
   </si>
   <si>
@@ -1966,7 +1966,7 @@
     <t>Vanilla Nutrient Paste Expanded</t>
   </si>
   <si>
-    <t>DesignationCategoryDef+Ferny_Hacking.label</t>
+    <t>Nutrients</t>
   </si>
   <si>
     <t>영양죽</t>
@@ -2209,6 +2209,18 @@
     <t>Patches.DesignationCategoryDef+Ship.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>환경</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ship.label</t>
   </si>
   <si>
@@ -2710,9 +2722,6 @@
     <t>2x1 marriage spot</t>
   </si>
   <si>
-    <t>2x1 결혼식 장소</t>
-  </si>
-  <si>
     <t>Patches.DesignationCategoryDef+VCHE_PipeNetworks.label</t>
   </si>
   <si>
@@ -2747,18 +2756,6 @@
   </si>
   <si>
     <t>guest patient landing spot</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>환자 손님 착륙 지점</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>Patches.DesignationCategoryDef+Hygiene.label</t>
@@ -2806,9 +2803,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>Hacking</t>
-  </si>
-  <si>
     <t>DesignationCategoryDef+Ferny_Explosives.label</t>
   </si>
   <si>
@@ -2816,9 +2810,6 @@
   </si>
   <si>
     <t>Explosives</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Explosives.description</t>
   </si>
   <si>
     <r>
@@ -2833,13 +2824,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>DesignationCategoryDef+Ferny_Explosives.description</t>
+  </si>
+  <si>
     <t>Ferny_Explosives.description</t>
   </si>
   <si>
     <t>Build explosives for your enemies.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_CombatEquipment.label</t>
   </si>
   <si>
     <r>
@@ -2854,6 +2845,9 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>DesignationCategoryDef+Ferny_CombatEquipment.label</t>
+  </si>
+  <si>
     <t>Ferny_CombatEquipment.label</t>
   </si>
   <si>
@@ -2881,9 +2875,6 @@
     <t>Manage combat equipment.</t>
   </si>
   <si>
-    <t>DesignationCategoryDef+Ferny_Filth.label</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2896,13 +2887,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>DesignationCategoryDef+Ferny_Filth.label</t>
+  </si>
+  <si>
     <t>Ferny_Filth.label</t>
   </si>
   <si>
     <t>Filth</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Filth.description</t>
   </si>
   <si>
     <r>
@@ -2917,13 +2908,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>DesignationCategoryDef+Ferny_Filth.description</t>
+  </si>
+  <si>
     <t>Ferny_Filth.description</t>
   </si>
   <si>
     <t>Manage filth.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Terraforming.label</t>
   </si>
   <si>
     <r>
@@ -2938,13 +2929,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>DesignationCategoryDef+Ferny_Terraforming.label</t>
+  </si>
+  <si>
     <t>Ferny_Terraforming.label</t>
   </si>
   <si>
     <t>Terraforming</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Terraforming.description</t>
   </si>
   <si>
     <r>
@@ -2959,13 +2950,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>DesignationCategoryDef+Ferny_Terraforming.description</t>
+  </si>
+  <si>
     <t>Ferny_Terraforming.description</t>
   </si>
   <si>
     <t>Manage the area environment.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Control.label</t>
   </si>
   <si>
     <r>
@@ -2980,40 +2971,28 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>DesignationCategoryDef+Ferny_Control.label</t>
+  </si>
+  <si>
     <t>Ferny_Control.label</t>
   </si>
   <si>
+    <t>DesignationCategoryDef+Ferny_Control.description</t>
+  </si>
+  <si>
     <t>Ferny_Control.description</t>
   </si>
   <si>
-    <t>DesignationCategoryDef+Ferny_Control.description</t>
-  </si>
-  <si>
-    <t>Control pawn behavior.</t>
+    <t>DesignationCategoryDef+Ferny_Management.label</t>
   </si>
   <si>
     <t>DesignationCategoryDef+Ferny_Memorial.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>정착민의 행동을 관리합니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>Ferny_Memorial.label</t>
   </si>
   <si>
     <t>Memorial</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Memorial.description</t>
   </si>
   <si>
     <r>
@@ -3028,13 +3007,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>DesignationCategoryDef+Ferny_Memorial.description</t>
+  </si>
+  <si>
     <t>Ferny_Memorial.description</t>
   </si>
   <si>
     <t>Things that relate to burials or memorials.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_InformationStorage.label</t>
   </si>
   <si>
     <r>
@@ -3049,13 +3028,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>DesignationCategoryDef+Ferny_InformationStorage.label</t>
+  </si>
+  <si>
     <t>Ferny_InformationStorage.label</t>
   </si>
   <si>
     <t>Information</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_InformationStorage.description</t>
   </si>
   <si>
     <r>
@@ -3070,6 +3049,9 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>DesignationCategoryDef+Ferny_InformationStorage.description</t>
+  </si>
+  <si>
     <t>Ferny_InformationStorage.description</t>
   </si>
   <si>
@@ -3088,43 +3070,16 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>Ferny_Hacking.label</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Logistics.label</t>
-  </si>
-  <si>
-    <t>Nutrients</t>
-  </si>
-  <si>
-    <t>Ferny_Logistics.label</t>
-  </si>
-  <si>
-    <t>Logistics</t>
+    <t>Husbandry</t>
   </si>
   <si>
     <t>DesignationCategoryDef+Ferny_VehicleStorage.label</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>물류</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>Ferny_VehicleStorage.label</t>
   </si>
   <si>
     <t>Vehicle</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_VehicleStorage.description</t>
   </si>
   <si>
     <r>
@@ -3139,13 +3094,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>DesignationCategoryDef+Ferny_VehicleStorage.description</t>
+  </si>
+  <si>
     <t>Ferny_VehicleStorage.description</t>
   </si>
   <si>
     <t>Build vehicle storage.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Summon.label</t>
   </si>
   <si>
     <r>
@@ -3160,13 +3115,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>DesignationCategoryDef+Ferny_Summon.label</t>
+  </si>
+  <si>
     <t>Ferny_Summon.label</t>
   </si>
   <si>
     <t>Summon</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Summon.description</t>
   </si>
   <si>
     <r>
@@ -3181,10 +3136,10 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>DesignationCategoryDef+Ferny_Summon.description</t>
+  </si>
+  <si>
     <t>Ferny_Summon.description</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_LuciferiumNetwork.label</t>
   </si>
   <si>
     <r>
@@ -3199,6 +3154,9 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>DesignationCategoryDef+Ferny_LuciferiumNetwork.label</t>
+  </si>
+  <si>
     <t>Ferny_LuciferiumNetwork.label</t>
   </si>
   <si>
@@ -3206,9 +3164,6 @@
   </si>
   <si>
     <t>Luciferium</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_LuciferiumNetwork.description</t>
   </si>
   <si>
     <r>
@@ -3223,13 +3178,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>DesignationCategoryDef+Ferny_LuciferiumNetwork.description</t>
+  </si>
+  <si>
     <t>Ferny_LuciferiumNetwork.description</t>
   </si>
   <si>
     <t>Manage luciferium.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_UraniumNetwork.label</t>
   </si>
   <si>
     <r>
@@ -3244,6 +3199,9 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>DesignationCategoryDef+Ferny_UraniumNetwork.label</t>
+  </si>
+  <si>
     <t>Ferny_UraniumNetwork.label</t>
   </si>
   <si>
@@ -3251,9 +3209,6 @@
   </si>
   <si>
     <t>Uranium</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_UraniumNetwork.description</t>
   </si>
   <si>
     <r>
@@ -3268,13 +3223,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>DesignationCategoryDef+Ferny_UraniumNetwork.description</t>
+  </si>
+  <si>
     <t>Ferny_UraniumNetwork.description</t>
   </si>
   <si>
     <t>Manage uranium.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_ToxicWasteNetwork.label</t>
   </si>
   <si>
     <r>
@@ -3289,6 +3244,9 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>DesignationCategoryDef+Ferny_ToxicWasteNetwork.label</t>
+  </si>
+  <si>
     <t>Ferny_ToxicWasteNetwork.label</t>
   </si>
   <si>
@@ -3296,9 +3254,6 @@
   </si>
   <si>
     <t>Toxic Waste</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_ToxicWasteNetwork.description</t>
   </si>
   <si>
     <r>
@@ -3313,13 +3268,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>DesignationCategoryDef+Ferny_ToxicWasteNetwork.description</t>
+  </si>
+  <si>
     <t>Ferny_ToxicWasteNetwork.description</t>
   </si>
   <si>
     <t>Manage toxic waste.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_DyeNetwork.label</t>
   </si>
   <si>
     <r>
@@ -3334,13 +3289,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>DesignationCategoryDef+Ferny_DyeNetwork.label</t>
+  </si>
+  <si>
     <t>Ferny_DyeNetwork.label</t>
   </si>
   <si>
     <t>Dye</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_DyeNetwork.description</t>
   </si>
   <si>
     <r>
@@ -3355,13 +3310,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>DesignationCategoryDef+Ferny_DyeNetwork.description</t>
+  </si>
+  <si>
     <t>Ferny_DyeNetwork.description</t>
   </si>
   <si>
     <t>Manage dye.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_NeutroniumNetwork.label</t>
   </si>
   <si>
     <r>
@@ -3376,6 +3331,9 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>DesignationCategoryDef+Ferny_NeutroniumNetwork.label</t>
+  </si>
+  <si>
     <t>Ferny_NeutroniumNetwork.label</t>
   </si>
   <si>
@@ -3383,9 +3341,6 @@
   </si>
   <si>
     <t>Neutronium</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_NeutroniumNetwork.description</t>
   </si>
   <si>
     <r>
@@ -3400,13 +3355,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>DesignationCategoryDef+Ferny_NeutroniumNetwork.description</t>
+  </si>
+  <si>
     <t>Ferny_NeutroniumNetwork.description</t>
   </si>
   <si>
     <t>Manage neutronium.</t>
-  </si>
-  <si>
-    <t>DesignationCategoryDef+Ferny_Hacking.description</t>
   </si>
   <si>
     <r>
@@ -3421,21 +3376,155 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>DesignationCategoryDef+Ferny_Hacking.label</t>
+  </si>
+  <si>
+    <t>Ferny_Hacking.label</t>
+  </si>
+  <si>
+    <t>Hacking</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Hacking.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>해킹</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_Hacking.description</t>
   </si>
   <si>
     <t>Hack stuff.</t>
   </si>
   <si>
-    <t>해킹</t>
+    <t>Influence pawn behavior.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>해킹과 관련된 건물입니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ferny_Management.label</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Management.description</t>
+  </si>
+  <si>
+    <t>Ferny_Management.description</t>
+  </si>
+  <si>
+    <t>Manage your pawns.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_OxygenNetwork.label</t>
+  </si>
+  <si>
+    <t>Ferny_OxygenNetwork.label</t>
+  </si>
+  <si>
+    <t>##packageId##vanillaexpanded.gravship</t>
+  </si>
+  <si>
+    <t>Oxygen</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_OxygenNetwork.description</t>
+  </si>
+  <si>
+    <t>Ferny_OxygenNetwork.description</t>
+  </si>
+  <si>
+    <t>Manage oxygen.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_AstrofuelNetwork.label</t>
+  </si>
+  <si>
+    <t>Ferny_AstrofuelNetwork.label</t>
+  </si>
+  <si>
+    <t>Astrofuel</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_AstrofuelNetwork.description</t>
+  </si>
+  <si>
+    <t>Ferny_AstrofuelNetwork.description</t>
+  </si>
+  <si>
+    <t>Manage astrofuel.</t>
+  </si>
+  <si>
+    <t>Patches.DesignationCategoryDef+UNAGI_Furniture.label</t>
+  </si>
+  <si>
+    <t>UNAGI_Furniture.label</t>
+  </si>
+  <si>
+    <t>UNAGI Decorative Furniture</t>
+  </si>
+  <si>
+    <t>UNA Decor</t>
+  </si>
+  <si>
+    <t>행동</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>해킹과 관련된 건물입니다.</t>
+    <t>정착민을 관리합니다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>환경</t>
+    <t>산소</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>산소를 관리합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>천체연료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>천체연료를 관리합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타 장식</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>결혼식 장소 (2x1)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>환자 도착 지점</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>정착민의 행동을 유도합니다.</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -3795,10 +3884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F220"/>
+  <dimension ref="A1:F226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="H212" sqref="H212"/>
+    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="H200" sqref="H200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4279,18 +4368,18 @@
         <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>7</v>
@@ -4302,12 +4391,12 @@
         <v>117</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>7</v>
@@ -4384,15 +4473,15 @@
         <v>136</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>7</v>
@@ -4404,12 +4493,12 @@
         <v>140</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>7</v>
@@ -4693,29 +4782,29 @@
         <v>208</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="E53" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>7</v>
@@ -4724,7 +4813,7 @@
         <v>214</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>215</v>
+        <v>815</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>216</v>
@@ -5101,12 +5190,12 @@
         <v>303</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>7</v>
@@ -5339,29 +5428,29 @@
         <v>208</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>361</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>7</v>
@@ -6130,7 +6219,7 @@
         <v>533</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>820</v>
+        <v>534</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>535</v>
@@ -6267,7 +6356,7 @@
         <v>564</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.45">
@@ -6386,7 +6475,7 @@
         <v>589</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>888</v>
+        <v>591</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.45">
@@ -6397,629 +6486,629 @@
         <v>559</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A149" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A150" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A151" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A152" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A153" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A171" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A175" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A176" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A177" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>559</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A178" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>559</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>295</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A179" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>559</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A180" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>559</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A181" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>559</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A182" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>559</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A183" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>737</v>
+        <v>913</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.45">
@@ -7067,7 +7156,7 @@
         <v>746</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>747</v>
@@ -7079,52 +7168,52 @@
         <v>749</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>750</v>
+        <v>914</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A187" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>559</v>
       </c>
       <c r="C187" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="D187" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="E187" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="E187" s="2" t="s">
+      <c r="F187" s="1" t="s">
         <v>754</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A188" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>559</v>
       </c>
       <c r="C188" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="D188" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="D188" s="1" t="s">
+      <c r="E188" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="E188" s="2" t="s">
+      <c r="F188" s="1" t="s">
         <v>759</v>
-      </c>
-      <c r="F188" s="1" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A189" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>7</v>
@@ -7139,552 +7228,552 @@
         <v>740</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A190" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="E190" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="B190" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C190" s="1" t="s">
+      <c r="F190" s="1" t="s">
         <v>765</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>766</v>
-      </c>
-      <c r="F190" s="1" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A191" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C191" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="B191" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C191" s="1" t="s">
+      <c r="E191" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="F191" s="1" t="s">
         <v>769</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>770</v>
-      </c>
-      <c r="F191" s="1" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A192" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C192" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="B192" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C192" s="1" t="s">
+      <c r="E192" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="F192" s="1" t="s">
         <v>773</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>774</v>
-      </c>
-      <c r="F192" s="1" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A193" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="E193" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="B193" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C193" s="1" t="s">
+      <c r="F193" s="1" t="s">
         <v>777</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>778</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A194" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C194" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="B194" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C194" s="1" t="s">
+      <c r="E194" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="F194" s="1" t="s">
         <v>781</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="F194" s="1" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A195" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C195" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="B195" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C195" s="1" t="s">
+      <c r="E195" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="F195" s="1" t="s">
         <v>785</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>786</v>
-      </c>
-      <c r="F195" s="1" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A196" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C196" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="B196" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C196" s="1" t="s">
+      <c r="E196" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="F196" s="1" t="s">
         <v>789</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="F196" s="1" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A197" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C197" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="B197" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C197" s="1" t="s">
+      <c r="E197" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="F197" s="1" t="s">
         <v>793</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="F197" s="1" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C198" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="B198" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>797</v>
-      </c>
       <c r="E198" s="2" t="s">
-        <v>564</v>
+        <v>215</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>115</v>
+        <v>905</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A199" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>800</v>
+        <v>882</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>802</v>
+        <v>915</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A200" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="E200" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="B200" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>804</v>
-      </c>
       <c r="F200" s="1" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A201" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="E201" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="B201" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>808</v>
-      </c>
       <c r="F201" s="1" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A202" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="E202" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="B202" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>812</v>
-      </c>
       <c r="F202" s="1" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A203" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="E203" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="B203" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>816</v>
-      </c>
       <c r="F203" s="1" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A204" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="F204" s="1" t="s">
         <v>819</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>822</v>
-      </c>
-      <c r="F204" s="1" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A205" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="F205" s="1" t="s">
         <v>823</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>826</v>
-      </c>
-      <c r="F205" s="1" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A206" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="F206" s="1" t="s">
         <v>827</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>830</v>
-      </c>
-      <c r="F206" s="1" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A207" s="1" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>834</v>
+        <v>423</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A208" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="F208" s="1" t="s">
         <v>835</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="F208" s="1" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A209" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="E209" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="B209" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>842</v>
-      </c>
       <c r="F209" s="1" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A210" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="E210" s="2" t="s">
         <v>843</v>
       </c>
-      <c r="B210" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>846</v>
-      </c>
       <c r="F210" s="1" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A211" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="E211" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="B211" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>851</v>
-      </c>
       <c r="F211" s="1" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A212" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="E212" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="B212" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>855</v>
-      </c>
       <c r="F212" s="1" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A213" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="E213" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="B213" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>860</v>
-      </c>
       <c r="F213" s="1" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A214" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="F214" s="1" t="s">
         <v>861</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>863</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>864</v>
-      </c>
-      <c r="F214" s="1" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A215" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="F215" s="1" t="s">
         <v>865</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="D215" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>868</v>
-      </c>
-      <c r="F215" s="1" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A216" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="E216" s="2" t="s">
         <v>869</v>
       </c>
-      <c r="B216" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>872</v>
-      </c>
       <c r="F216" s="1" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A217" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="E217" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="B217" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="D217" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>877</v>
-      </c>
       <c r="F217" s="1" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A218" s="1" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="D218" s="1" t="s">
         <v>876</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A219" s="1" t="s">
-        <v>534</v>
+        <v>878</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>818</v>
+        <v>880</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>763</v>
+        <v>881</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A220" s="1" t="s">
-        <v>882</v>
+        <v>798</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>7</v>
@@ -7693,10 +7782,127 @@
         <v>884</v>
       </c>
       <c r="E220" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A221" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="F220" s="1" t="s">
+      <c r="B221" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="E221" s="2" t="s">
         <v>887</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A222" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A223" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A224" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A225" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A226" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>912</v>
       </c>
     </row>
   </sheetData>

--- a/Data/ferny/Better Architect Menu - 3563882422/Better Architect Menu - 3563882422.xlsx
+++ b/Data/ferny/Better Architect Menu - 3563882422/Better Architect Menu - 3563882422.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjmi0\Desktop\림월드 번역\Better Architect Menu - 3563882422\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD72DE6-13DA-40A1-832A-BC04BFBB15E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4BB1A3-0CFD-4FE9-AF2C-CAE6B4E5A05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,59 @@
     <author>bjmi0</author>
   </authors>
   <commentList>
-    <comment ref="D183" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-10-23 이전의 원문: 'Decorations'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E66" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-10-23 이전의 원문: 'Firefoam'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E67" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-10-23 이전의 원문: 'Manage firefoam.'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E180" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-10-23 이전의 원문: 'Orbital'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D183" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -38,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D184" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="D184" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -51,12 +103,133 @@
         </r>
       </text>
     </comment>
+    <comment ref="E204" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-10-23 이전의 원문: 'Vehicle'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E226" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2025-10-23</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>새로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>추가된</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>노드들</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (50</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>개</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="1109">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -214,7 +387,7 @@
     <t>Ferny_Decorations.label</t>
   </si>
   <si>
-    <t>Decorations</t>
+    <t>Firefighting</t>
   </si>
   <si>
     <t>장식</t>
@@ -847,7 +1020,7 @@
     <t>Ferny_Ranching.label</t>
   </si>
   <si>
-    <t>Influence</t>
+    <t>Husbandry</t>
   </si>
   <si>
     <r>
@@ -1018,40 +1191,13 @@
     <t>Ferny_Firefoam.label</t>
   </si>
   <si>
-    <t>Firefoam</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>소방거품</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
+    <t>Manage fires and firefoam.</t>
   </si>
   <si>
     <t>DesignationCategoryDef+Ferny_Firefoam.description</t>
   </si>
   <si>
     <t>Ferny_Firefoam.description</t>
-  </si>
-  <si>
-    <t>Manage firefoam.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>소방거품을 관리합니다.</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>DesignationCategoryDef+Ferny_Life.label</t>
@@ -2206,9 +2352,6 @@
     <t>Area</t>
   </si>
   <si>
-    <t>Patches.DesignationCategoryDef+Ship.label</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2221,6 +2364,9 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>Patches.DesignationCategoryDef+Ship.label</t>
+  </si>
+  <si>
     <t>Ship.label</t>
   </si>
   <si>
@@ -2683,7 +2829,7 @@
     <t>Odyssey</t>
   </si>
   <si>
-    <t>Orbital</t>
+    <t>Ferny_DecoPlants.label</t>
   </si>
   <si>
     <t>궤도</t>
@@ -2725,6 +2871,18 @@
     <t>Patches.DesignationCategoryDef+VCHE_PipeNetworks.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>결혼식 장소 (2x1)</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>VCHE_PipeNetworks.label</t>
   </si>
   <si>
@@ -2759,6 +2917,18 @@
   </si>
   <si>
     <t>Patches.DesignationCategoryDef+Hygiene.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>환자 도착 지점</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>Hygiene.label</t>
@@ -2977,16 +3147,43 @@
     <t>Ferny_Control.label</t>
   </si>
   <si>
+    <t>Influence</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Control.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>행동</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_Control.description</t>
   </si>
   <si>
-    <t>DesignationCategoryDef+Ferny_Management.label</t>
+    <t>Influence pawn behavior.</t>
   </si>
   <si>
     <t>DesignationCategoryDef+Ferny_Memorial.label</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>정착민의 행동을 유도합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>Ferny_Memorial.label</t>
@@ -3070,16 +3267,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>Husbandry</t>
-  </si>
-  <si>
     <t>DesignationCategoryDef+Ferny_VehicleStorage.label</t>
   </si>
   <si>
     <t>Ferny_VehicleStorage.label</t>
   </si>
   <si>
-    <t>Vehicle</t>
+    <t>DesignationCategoryDef+Ferny_DecoPlants.label</t>
   </si>
   <si>
     <r>
@@ -3385,9 +3579,6 @@
     <t>Hacking</t>
   </si>
   <si>
-    <t>DesignationCategoryDef+Ferny_Hacking.description</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3400,13 +3591,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>DesignationCategoryDef+Ferny_Hacking.description</t>
+  </si>
+  <si>
     <t>Ferny_Hacking.description</t>
   </si>
   <si>
     <t>Hack stuff.</t>
-  </si>
-  <si>
-    <t>Influence pawn behavior.</t>
   </si>
   <si>
     <r>
@@ -3421,18 +3612,33 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>DesignationCategoryDef+Ferny_Management.label</t>
+  </si>
+  <si>
     <t>Ferny_Management.label</t>
   </si>
   <si>
+    <t>Ferny_Management.description</t>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_Management.description</t>
   </si>
   <si>
-    <t>Ferny_Management.description</t>
-  </si>
-  <si>
     <t>Manage your pawns.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>정착민을 관리합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>DesignationCategoryDef+Ferny_OxygenNetwork.label</t>
   </si>
   <si>
@@ -3448,6 +3654,18 @@
     <t>DesignationCategoryDef+Ferny_OxygenNetwork.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>산소</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_OxygenNetwork.description</t>
   </si>
   <si>
@@ -3457,6 +3675,18 @@
     <t>DesignationCategoryDef+Ferny_AstrofuelNetwork.label</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>산소를 관리합니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_AstrofuelNetwork.label</t>
   </si>
   <si>
@@ -3466,73 +3696,669 @@
     <t>DesignationCategoryDef+Ferny_AstrofuelNetwork.description</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>천체연료</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>Ferny_AstrofuelNetwork.description</t>
   </si>
   <si>
     <t>Manage astrofuel.</t>
   </si>
   <si>
-    <t>Patches.DesignationCategoryDef+UNAGI_Furniture.label</t>
-  </si>
-  <si>
-    <t>UNAGI_Furniture.label</t>
-  </si>
-  <si>
-    <t>UNAGI Decorative Furniture</t>
-  </si>
-  <si>
-    <t>UNA Decor</t>
-  </si>
-  <si>
-    <t>행동</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>천체연료를 관리합니다.</t>
+    </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>관리</t>
+    <t>Plants</t>
+  </si>
+  <si>
+    <t>Decorate</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_DecoPlants.description</t>
+  </si>
+  <si>
+    <t>Ferny_DecoPlants.description</t>
+  </si>
+  <si>
+    <t>Manage plant decorations.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_DecoRugs.label</t>
+  </si>
+  <si>
+    <t>Ferny_DecoRugs.label</t>
+  </si>
+  <si>
+    <t>Rugs</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_DecoRugs.description</t>
+  </si>
+  <si>
+    <t>Ferny_DecoRugs.description</t>
+  </si>
+  <si>
+    <t>Manage rug decorations.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_DecoHanging.label</t>
+  </si>
+  <si>
+    <t>Ferny_DecoHanging.label</t>
+  </si>
+  <si>
+    <t>Hanging</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_DecoHanging.description</t>
+  </si>
+  <si>
+    <t>Ferny_DecoHanging.description</t>
+  </si>
+  <si>
+    <t>Manage Hanging Decorations such as signs, banners and curtains.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_DecoArt.label</t>
+  </si>
+  <si>
+    <t>Ferny_DecoArt.label</t>
+  </si>
+  <si>
+    <t>Art</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_DecoArt.description</t>
+  </si>
+  <si>
+    <t>Ferny_DecoArt.description</t>
+  </si>
+  <si>
+    <t>Manage art and music decorations.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_DecoOutdoor.label</t>
+  </si>
+  <si>
+    <t>Ferny_DecoOutdoor.label</t>
+  </si>
+  <si>
+    <t>Outdoor</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_DecoOutdoor.description</t>
+  </si>
+  <si>
+    <t>Ferny_DecoOutdoor.description</t>
+  </si>
+  <si>
+    <t>Manage outdoor decorations.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Windows.label</t>
+  </si>
+  <si>
+    <t>Ferny_Windows.label</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Windows.description</t>
+  </si>
+  <si>
+    <t>Ferny_Windows.description</t>
+  </si>
+  <si>
+    <t>Windows for walls.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Space.label</t>
+  </si>
+  <si>
+    <t>Ferny_Space.label</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Space.description</t>
+  </si>
+  <si>
+    <t>Ferny_Space.description</t>
+  </si>
+  <si>
+    <t>Build space production benches.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_SpacePlatform.label</t>
+  </si>
+  <si>
+    <t>Ferny_SpacePlatform.label</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_SpacePlatform.description</t>
+  </si>
+  <si>
+    <t>Ferny_SpacePlatform.description</t>
+  </si>
+  <si>
+    <t>Build space stuff.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_SpaceFurniture.label</t>
+  </si>
+  <si>
+    <t>Ferny_SpaceFurniture.label</t>
+  </si>
+  <si>
+    <t>Furniture</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_SpaceFurniture.description</t>
+  </si>
+  <si>
+    <t>Ferny_SpaceFurniture.description</t>
+  </si>
+  <si>
+    <t>Build space furniture.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_SpaceProduction.label</t>
+  </si>
+  <si>
+    <t>Ferny_SpaceProduction.label</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_SpaceProduction.description</t>
+  </si>
+  <si>
+    <t>Ferny_SpaceProduction.description</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_SpaceCombat.label</t>
+  </si>
+  <si>
+    <t>Ferny_SpaceCombat.label</t>
+  </si>
+  <si>
+    <t>Combat</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_SpaceCombat.description</t>
+  </si>
+  <si>
+    <t>Ferny_SpaceCombat.description</t>
+  </si>
+  <si>
+    <t>Build space combat buildings.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_SpaceVacuum.label</t>
+  </si>
+  <si>
+    <t>Ferny_SpaceVacuum.label</t>
+  </si>
+  <si>
+    <t>Vacuum</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_SpaceVacuum.description</t>
+  </si>
+  <si>
+    <t>Ferny_SpaceVacuum.description</t>
+  </si>
+  <si>
+    <t>Build space vacuum buildings.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_SpacePower.label</t>
+  </si>
+  <si>
+    <t>Ferny_SpacePower.label</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_SpacePower.description</t>
+  </si>
+  <si>
+    <t>Ferny_SpacePower.description</t>
+  </si>
+  <si>
+    <t>Build space power buildings.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_FloorsWood.label</t>
+  </si>
+  <si>
+    <t>Ferny_FloorsWood.label</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_FloorsWood.description</t>
+  </si>
+  <si>
+    <t>Ferny_FloorsWood.description</t>
+  </si>
+  <si>
+    <t>Wooden Floors.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_FloorsStone.label</t>
+  </si>
+  <si>
+    <t>Ferny_FloorsStone.label</t>
+  </si>
+  <si>
+    <t>Stone</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_FloorsStone.description</t>
+  </si>
+  <si>
+    <t>Ferny_FloorsStone.description</t>
+  </si>
+  <si>
+    <t>Stone Floors.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_FloorsConcrete.label</t>
+  </si>
+  <si>
+    <t>Ferny_FloorsConcrete.label</t>
+  </si>
+  <si>
+    <t>Concrete</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_FloorsConcrete.description</t>
+  </si>
+  <si>
+    <t>Ferny_FloorsConcrete.description</t>
+  </si>
+  <si>
+    <t>Concrete Floors.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_FloorsMetal.label</t>
+  </si>
+  <si>
+    <t>Ferny_FloorsMetal.label</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_FloorsMetal.description</t>
+  </si>
+  <si>
+    <t>Ferny_FloorsMetal.description</t>
+  </si>
+  <si>
+    <t>Metal Floors.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_FloorsCarpet.label</t>
+  </si>
+  <si>
+    <t>Ferny_FloorsCarpet.label</t>
+  </si>
+  <si>
+    <t>Carpet</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_FloorsCarpet.description</t>
+  </si>
+  <si>
+    <t>Ferny_FloorsCarpet.description</t>
+  </si>
+  <si>
+    <t>Carpeted Floors.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_FloorsClean.label</t>
+  </si>
+  <si>
+    <t>Ferny_FloorsClean.label</t>
+  </si>
+  <si>
+    <t>Clean</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_FloorsClean.description</t>
+  </si>
+  <si>
+    <t>Ferny_FloorsClean.description</t>
+  </si>
+  <si>
+    <t>Clean Floors.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Tents.label</t>
+  </si>
+  <si>
+    <t>Ferny_Tents.label</t>
+  </si>
+  <si>
+    <t>##packageId##aoba.tent</t>
+  </si>
+  <si>
+    <t>Tents</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Tents.description</t>
+  </si>
+  <si>
+    <t>Ferny_Tents.description</t>
+  </si>
+  <si>
+    <t>Outdoor Tents</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Spaceport.label</t>
+  </si>
+  <si>
+    <t>Ferny_Spaceport.label</t>
+  </si>
+  <si>
+    <t>##packageId##zal.spaceports</t>
+  </si>
+  <si>
+    <t>Spaceport</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_Spaceport.description</t>
+  </si>
+  <si>
+    <t>Ferny_Spaceport.description</t>
+  </si>
+  <si>
+    <t>Manage your spaceport.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_SteelNetwork.label</t>
+  </si>
+  <si>
+    <t>Ferny_SteelNetwork.label</t>
+  </si>
+  <si>
+    <t>##packageId##nbnw.steelpipenetwork</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_SteelNetwork.description</t>
+  </si>
+  <si>
+    <t>Ferny_SteelNetwork.description</t>
+  </si>
+  <si>
+    <t>Manage steel.</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_WoodNetwork.label</t>
+  </si>
+  <si>
+    <t>Ferny_WoodNetwork.label</t>
+  </si>
+  <si>
+    <t>原木存储网络</t>
+  </si>
+  <si>
+    <t>DesignationCategoryDef+Ferny_WoodNetwork.description</t>
+  </si>
+  <si>
+    <t>Ferny_WoodNetwork.description</t>
+  </si>
+  <si>
+    <t>Manage wood.</t>
+  </si>
+  <si>
+    <t>Keyed+BA.UseSpecialFloorsTab</t>
+  </si>
+  <si>
+    <t>BA.UseSpecialFloorsTab</t>
+  </si>
+  <si>
+    <t>Use custom floor menu</t>
+  </si>
+  <si>
+    <t>Keyed+BA.UseSpecialFloorsTabTooltip</t>
+  </si>
+  <si>
+    <t>BA.UseSpecialFloorsTabTooltip</t>
+  </si>
+  <si>
+    <t>Whether the menu should use subcategories for each material, or be more broadly sorted. (WIP)</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VESWW_RewardDropSpot.label</t>
+  </si>
+  <si>
+    <t>VESWW_RewardDropSpot.label</t>
+  </si>
+  <si>
+    <t>Vanilla Storytellers Expanded - Winston Waves</t>
+  </si>
+  <si>
+    <t>Storyteller reward drop spot</t>
+  </si>
+  <si>
+    <t>Keyed+SubWall_MannedError</t>
+  </si>
+  <si>
+    <t>SubWall_MannedError</t>
+  </si>
+  <si>
+    <t>##packageId##json.retractabledefenses</t>
+  </si>
+  <si>
+    <t>소방</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>불과 소방거품을 관리합니다.</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>식물</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>정착민을 관리합니다.</t>
+    <t>관엽식물을 관리합니다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>산소</t>
+    <t>벽걸이</t>
+  </si>
+  <si>
+    <t>표지판, 현수막, 커튼 등 벽걸이 장식을 관리합니다.</t>
+  </si>
+  <si>
+    <t>예술</t>
+  </si>
+  <si>
+    <t>예술 및 음악 장식을 관리합니다.</t>
+  </si>
+  <si>
+    <t>실외</t>
+  </si>
+  <si>
+    <t>실외 장식을 관리합니다.</t>
+  </si>
+  <si>
+    <t>창문</t>
+  </si>
+  <si>
+    <t>우주</t>
+  </si>
+  <si>
+    <t>우주 생산 작업대를 건설합니다.</t>
+  </si>
+  <si>
+    <t>플랫폼</t>
+  </si>
+  <si>
+    <t>우주 관련 물품을 건설합니다.</t>
+  </si>
+  <si>
+    <t>가구</t>
+  </si>
+  <si>
+    <t>우주 가구를 건설합니다.</t>
+  </si>
+  <si>
+    <t>생산</t>
+  </si>
+  <si>
+    <t>전투</t>
+  </si>
+  <si>
+    <t>우주 전투 건물을 건설합니다.</t>
+  </si>
+  <si>
+    <t>진공</t>
+  </si>
+  <si>
+    <t>우주 진공 건물을 건설합니다.</t>
+  </si>
+  <si>
+    <t>전력</t>
+  </si>
+  <si>
+    <t>우주 전력 건물을 건설합니다.</t>
+  </si>
+  <si>
+    <t>나무</t>
+  </si>
+  <si>
+    <t>돌</t>
+  </si>
+  <si>
+    <t>콘크리트</t>
+  </si>
+  <si>
+    <t>금속</t>
+  </si>
+  <si>
+    <t>천막</t>
+  </si>
+  <si>
+    <t>강철</t>
+  </si>
+  <si>
+    <t>강철을 관리합니다.</t>
+  </si>
+  <si>
+    <t>나무를 관리합니다.</t>
+  </si>
+  <si>
+    <t>사용자 지정 바닥 메뉴 사용</t>
+  </si>
+  <si>
+    <t>벽용 창문입니다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>산소를 관리합니다.</t>
+    <t>나무 바닥입니다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>천체연료</t>
+    <t>돌 바닥입니다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>천체연료를 관리합니다.</t>
+    <t>콘크리트 바닥입니다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>기타 장식</t>
+    <t>금속 바닥입니다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>결혼식 장소 (2x1)</t>
+    <t>양탄자</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>환자 도착 지점</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>정착민의 행동을 유도합니다.</t>
-    <phoneticPr fontId="0" type="noConversion"/>
+    <t>러그</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>러그 장식을 관리합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>양탄자 바닥입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>향균</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>향균 바닥입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>실외 천막</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>우주 정거장</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>우주 정거장을 관리합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥 메뉴를 재료로 정렬할지, 혹은 더 넓은 범주를 사용할지 지정합니다. (작업 중)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Requires a manned utility console! Utility Console is located in the Walls tab under the Build category.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이야기꾼 보상 낙하 지점</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>다용도 유도 통신기가 필요합니다. 다용도 유도 통신기는 구조물-벽 메뉴에 존재합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3557,13 +4383,30 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA500"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF87CEEB"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -3578,10 +4421,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3884,18 +4728,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F226"/>
+  <dimension ref="A1:F275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="H200" sqref="H200"/>
+    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
+      <selection activeCell="K258" sqref="K258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.1796875" style="1" customWidth="1"/>
-    <col min="2" max="4" width="9.1796875" style="1"/>
-    <col min="5" max="5" width="9.1796875" style="2"/>
-    <col min="6" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -3911,7 +4753,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -3928,7 +4770,7 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -3945,7 +4787,7 @@
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -3962,7 +4804,7 @@
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -3979,7 +4821,7 @@
       <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -3996,7 +4838,7 @@
       <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -4013,7 +4855,7 @@
       <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -4030,7 +4872,7 @@
       <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -4047,7 +4889,7 @@
       <c r="C9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -4064,7 +4906,7 @@
       <c r="C10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -4081,7 +4923,7 @@
       <c r="C11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -4099,7 +4941,7 @@
         <v>48</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>49</v>
+        <v>908</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>50</v>
@@ -4115,7 +4957,7 @@
       <c r="C13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -4132,7 +4974,7 @@
       <c r="C14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -4149,7 +4991,7 @@
       <c r="C15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -4166,7 +5008,7 @@
       <c r="C16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -4183,7 +5025,7 @@
       <c r="C17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -4200,7 +5042,7 @@
       <c r="C18" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -4217,7 +5059,7 @@
       <c r="C19" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>77</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -4234,7 +5076,7 @@
       <c r="C20" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -4251,7 +5093,7 @@
       <c r="C21" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -4268,7 +5110,7 @@
       <c r="C22" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -4285,7 +5127,7 @@
       <c r="C23" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -4302,7 +5144,7 @@
       <c r="C24" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="1" t="s">
         <v>97</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -4319,7 +5161,7 @@
       <c r="C25" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="1" t="s">
         <v>101</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -4336,7 +5178,7 @@
       <c r="C26" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="1" t="s">
         <v>105</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -4353,7 +5195,7 @@
       <c r="C27" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="1" t="s">
         <v>109</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -4370,7 +5212,7 @@
       <c r="C28" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="1" t="s">
         <v>113</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -4387,7 +5229,7 @@
       <c r="C29" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="1" t="s">
         <v>117</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -4404,7 +5246,7 @@
       <c r="C30" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="1" t="s">
         <v>121</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -4421,7 +5263,7 @@
       <c r="C31" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="1" t="s">
         <v>125</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -4438,7 +5280,7 @@
       <c r="C32" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="1" t="s">
         <v>129</v>
       </c>
       <c r="F32" s="1" t="s">
@@ -4455,7 +5297,7 @@
       <c r="C33" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="1" t="s">
         <v>133</v>
       </c>
       <c r="F33" s="1" t="s">
@@ -4472,7 +5314,7 @@
       <c r="C34" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="1" t="s">
         <v>113</v>
       </c>
       <c r="F34" s="1" t="s">
@@ -4489,7 +5331,7 @@
       <c r="C35" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="1" t="s">
         <v>140</v>
       </c>
       <c r="F35" s="1" t="s">
@@ -4506,7 +5348,7 @@
       <c r="C36" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="1" t="s">
         <v>144</v>
       </c>
       <c r="F36" s="1" t="s">
@@ -4523,7 +5365,7 @@
       <c r="C37" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="1" t="s">
         <v>148</v>
       </c>
       <c r="F37" s="1" t="s">
@@ -4540,7 +5382,7 @@
       <c r="C38" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="1" t="s">
         <v>152</v>
       </c>
       <c r="F38" s="1" t="s">
@@ -4557,7 +5399,7 @@
       <c r="C39" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="1" t="s">
         <v>156</v>
       </c>
       <c r="F39" s="1" t="s">
@@ -4574,7 +5416,7 @@
       <c r="C40" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="1" t="s">
         <v>160</v>
       </c>
       <c r="F40" s="1" t="s">
@@ -4591,7 +5433,7 @@
       <c r="C41" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="1" t="s">
         <v>164</v>
       </c>
       <c r="F41" s="1" t="s">
@@ -4608,7 +5450,7 @@
       <c r="C42" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="1" t="s">
         <v>168</v>
       </c>
       <c r="F42" s="1" t="s">
@@ -4625,7 +5467,7 @@
       <c r="C43" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="1" t="s">
         <v>172</v>
       </c>
       <c r="F43" s="1" t="s">
@@ -4642,7 +5484,7 @@
       <c r="C44" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="1" t="s">
         <v>176</v>
       </c>
       <c r="F44" s="1" t="s">
@@ -4659,7 +5501,7 @@
       <c r="C45" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="1" t="s">
         <v>180</v>
       </c>
       <c r="F45" s="1" t="s">
@@ -4676,7 +5518,7 @@
       <c r="C46" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="1" t="s">
         <v>184</v>
       </c>
       <c r="F46" s="1" t="s">
@@ -4693,7 +5535,7 @@
       <c r="C47" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="1" t="s">
         <v>188</v>
       </c>
       <c r="F47" s="1" t="s">
@@ -4710,7 +5552,7 @@
       <c r="C48" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="1" t="s">
         <v>192</v>
       </c>
       <c r="F48" s="1" t="s">
@@ -4727,7 +5569,7 @@
       <c r="C49" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" s="1" t="s">
         <v>196</v>
       </c>
       <c r="F49" s="1" t="s">
@@ -4744,7 +5586,7 @@
       <c r="C50" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="1" t="s">
         <v>200</v>
       </c>
       <c r="F50" s="1" t="s">
@@ -4761,7 +5603,7 @@
       <c r="C51" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F51" s="1" t="s">
@@ -4778,7 +5620,7 @@
       <c r="C52" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="1" t="s">
         <v>208</v>
       </c>
       <c r="F52" s="1" t="s">
@@ -4795,7 +5637,7 @@
       <c r="C53" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="1" t="s">
         <v>211</v>
       </c>
       <c r="F53" s="1" t="s">
@@ -4812,8 +5654,8 @@
       <c r="C54" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>815</v>
+      <c r="E54" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>216</v>
@@ -4829,7 +5671,7 @@
       <c r="C55" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E55" s="1" t="s">
         <v>219</v>
       </c>
       <c r="F55" s="1" t="s">
@@ -4846,7 +5688,7 @@
       <c r="C56" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E56" s="1" t="s">
         <v>223</v>
       </c>
       <c r="F56" s="1" t="s">
@@ -4863,7 +5705,7 @@
       <c r="C57" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E57" s="1" t="s">
         <v>227</v>
       </c>
       <c r="F57" s="1" t="s">
@@ -4880,7 +5722,7 @@
       <c r="C58" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E58" s="1" t="s">
         <v>231</v>
       </c>
       <c r="F58" s="1" t="s">
@@ -4897,7 +5739,7 @@
       <c r="C59" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E59" s="1" t="s">
         <v>235</v>
       </c>
       <c r="F59" s="1" t="s">
@@ -4914,7 +5756,7 @@
       <c r="C60" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" s="1" t="s">
         <v>239</v>
       </c>
       <c r="F60" s="1" t="s">
@@ -4931,7 +5773,7 @@
       <c r="C61" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E61" s="1" t="s">
         <v>243</v>
       </c>
       <c r="F61" s="1" t="s">
@@ -4948,7 +5790,7 @@
       <c r="C62" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" s="1" t="s">
         <v>247</v>
       </c>
       <c r="F62" s="1" t="s">
@@ -4965,7 +5807,7 @@
       <c r="C63" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E63" s="1" t="s">
         <v>251</v>
       </c>
       <c r="F63" s="1" t="s">
@@ -4982,7 +5824,7 @@
       <c r="C64" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" s="1" t="s">
         <v>255</v>
       </c>
       <c r="F64" s="1" t="s">
@@ -4999,7 +5841,7 @@
       <c r="C65" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E65" s="1" t="s">
         <v>259</v>
       </c>
       <c r="F65" s="1" t="s">
@@ -5017,414 +5859,414 @@
         <v>262</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>263</v>
+        <v>49</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>264</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="E67" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>268</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F88" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E90" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>208</v>
       </c>
       <c r="F90" s="1" t="s">
@@ -5433,32 +6275,32 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="E92" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>129</v>
       </c>
       <c r="F92" s="1" t="s">
@@ -5467,893 +6309,893 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F94" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="F95" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F96" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F97" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F98" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F99" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F100" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="F101" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F103" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="F104" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="F105" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="F106" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="F107" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="F108" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F109" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F110" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F111" s="1" t="s">
         <v>437</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="F112" s="1" t="s">
         <v>441</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="F113" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="F114" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="F115" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F116" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F117" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="F118" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E119" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C119" s="1" t="s">
+      <c r="F119" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F120" s="1" t="s">
         <v>474</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E121" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C121" s="1" t="s">
+      <c r="F121" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F122" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E123" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C123" s="1" t="s">
+      <c r="F123" s="1" t="s">
         <v>488</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="F124" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="F125" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F126" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="E127" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C127" s="1" t="s">
+      <c r="F127" s="1" t="s">
         <v>505</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F128" s="1" t="s">
         <v>509</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E129" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C129" s="1" t="s">
+      <c r="F129" s="1" t="s">
         <v>514</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A130" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="F130" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E131" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="B131" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C131" s="1" t="s">
+      <c r="F131" s="1" t="s">
         <v>523</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="F132" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="E133" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="B133" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C133" s="1" t="s">
+      <c r="F133" s="1" t="s">
         <v>532</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A134" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="F134" s="1" t="s">
         <v>536</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="E135" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C135" s="1" t="s">
+      <c r="F135" s="1" t="s">
         <v>541</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A136" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="F136" s="1" t="s">
         <v>545</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A137" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E137" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C137" s="1" t="s">
+      <c r="F137" s="1" t="s">
         <v>550</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A138" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F138" s="1" t="s">
         <v>554</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A139" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="E139" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="F139" s="1" t="s">
         <v>559</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E140" s="2" t="s">
-        <v>564</v>
+      <c r="E140" s="1" t="s">
+        <v>561</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>114</v>
@@ -6361,1027 +7203,1027 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="F141" s="1" t="s">
         <v>565</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A142" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="F142" s="1" t="s">
         <v>569</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A143" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>574</v>
+        <v>423</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>571</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A144" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>577</v>
+        <v>361</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>574</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A145" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="F145" s="1" t="s">
         <v>579</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A146" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="F146" s="1" t="s">
         <v>583</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A147" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="F147" s="1" t="s">
         <v>587</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A148" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="E148" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="B148" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>593</v>
-      </c>
       <c r="F148" s="1" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A149" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E149" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="F149" s="1" t="s">
         <v>596</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A150" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="F150" s="1" t="s">
         <v>600</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A151" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="F151" s="1" t="s">
         <v>604</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="F151" s="1" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A152" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="F152" s="1" t="s">
         <v>608</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A153" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="F153" s="1" t="s">
         <v>612</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="F154" s="1" t="s">
         <v>616</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="F155" s="1" t="s">
         <v>620</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="F156" s="1" t="s">
         <v>624</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="F157" s="1" t="s">
         <v>628</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="F158" s="1" t="s">
         <v>632</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F159" s="1" t="s">
         <v>636</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="F160" s="1" t="s">
         <v>640</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="F161" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="F162" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="F163" s="1" t="s">
         <v>652</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="F164" s="1" t="s">
         <v>656</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="F165" s="1" t="s">
         <v>660</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="F166" s="1" t="s">
         <v>664</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="F167" s="1" t="s">
         <v>668</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="F167" s="1" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="F168" s="1" t="s">
         <v>672</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="F169" s="1" t="s">
         <v>676</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="F170" s="1" t="s">
         <v>680</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A171" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="F171" s="1" t="s">
         <v>684</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F172" s="1" t="s">
         <v>688</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="F173" s="1" t="s">
         <v>692</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="F174" s="1" t="s">
         <v>696</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A175" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="F175" s="1" t="s">
         <v>700</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A176" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="F176" s="1" t="s">
         <v>704</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A177" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="E177" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="B177" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="C177" s="1" t="s">
+      <c r="F177" s="1" t="s">
         <v>709</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A178" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="F178" s="1" t="s">
         <v>713</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="F178" s="1" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A179" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="E179" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="B179" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="C179" s="1" t="s">
+      <c r="F179" s="1" t="s">
         <v>718</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A180" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C180" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="F180" s="1" t="s">
         <v>723</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="F180" s="1" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A181" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>698</v>
+        <v>726</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>695</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A182" s="1" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>715</v>
+        <v>729</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>712</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A183" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="D183" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="E183" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="C183" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="D183" s="1" t="s">
+      <c r="F183" s="1" t="s">
         <v>736</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A184" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E184" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="B184" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>740</v>
-      </c>
       <c r="F184" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A185" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="D185" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="B185" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="C185" s="1" t="s">
+      <c r="E185" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="F185" s="1" t="s">
         <v>743</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A186" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="D186" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="B186" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="C186" s="1" t="s">
+      <c r="E186" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="D186" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="E186" s="2" t="s">
+      <c r="F186" s="1" t="s">
         <v>749</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A187" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C187" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="B187" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="C187" s="1" t="s">
+      <c r="D187" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="E187" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="E187" s="2" t="s">
+      <c r="F187" s="1" t="s">
         <v>753</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A188" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C188" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="B188" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="C188" s="1" t="s">
+      <c r="D188" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="D188" s="1" t="s">
+      <c r="E188" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="E188" s="2" t="s">
+      <c r="F188" s="1" t="s">
         <v>758</v>
-      </c>
-      <c r="F188" s="1" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A189" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="F189" s="1" t="s">
         <v>760</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="F189" s="1" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A190" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C190" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="B190" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C190" s="1" t="s">
+      <c r="E190" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="E190" s="2" t="s">
+      <c r="F190" s="1" t="s">
         <v>764</v>
-      </c>
-      <c r="F190" s="1" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A191" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C191" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="B191" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C191" s="1" t="s">
+      <c r="E191" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="E191" s="2" t="s">
+      <c r="F191" s="1" t="s">
         <v>768</v>
-      </c>
-      <c r="F191" s="1" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A192" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C192" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="B192" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C192" s="1" t="s">
+      <c r="E192" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="E192" s="2" t="s">
+      <c r="F192" s="1" t="s">
         <v>772</v>
-      </c>
-      <c r="F192" s="1" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A193" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C193" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="B193" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C193" s="1" t="s">
+      <c r="E193" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="E193" s="2" t="s">
+      <c r="F193" s="1" t="s">
         <v>776</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A194" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C194" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="B194" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C194" s="1" t="s">
+      <c r="E194" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="E194" s="2" t="s">
+      <c r="F194" s="1" t="s">
         <v>780</v>
-      </c>
-      <c r="F194" s="1" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A195" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C195" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="B195" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C195" s="1" t="s">
+      <c r="E195" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="E195" s="2" t="s">
+      <c r="F195" s="1" t="s">
         <v>784</v>
-      </c>
-      <c r="F195" s="1" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A196" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C196" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="B196" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C196" s="1" t="s">
+      <c r="E196" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="E196" s="2" t="s">
+      <c r="F196" s="1" t="s">
         <v>788</v>
-      </c>
-      <c r="F196" s="1" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A197" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C197" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="B197" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C197" s="1" t="s">
+      <c r="E197" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="E197" s="2" t="s">
+      <c r="F197" s="1" t="s">
         <v>792</v>
-      </c>
-      <c r="F197" s="1" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C198" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="B198" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C198" s="1" t="s">
+      <c r="E198" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="E198" s="2" t="s">
-        <v>215</v>
-      </c>
       <c r="F198" s="1" t="s">
-        <v>905</v>
+        <v>797</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.45">
@@ -7392,363 +8234,363 @@
         <v>7</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>882</v>
+        <v>798</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>799</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>915</v>
+        <v>801</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A200" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>803</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A201" s="1" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>807</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A202" s="1" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>811</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A203" s="1" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>815</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A204" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>818</v>
+        <v>129</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A205" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="E205" s="2" t="s">
         <v>822</v>
       </c>
+      <c r="E205" s="1" t="s">
+        <v>823</v>
+      </c>
       <c r="F205" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A206" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="E206" s="2" t="s">
         <v>826</v>
       </c>
+      <c r="E206" s="1" t="s">
+        <v>827</v>
+      </c>
       <c r="F206" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A207" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>423</v>
+        <v>830</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>420</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A208" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="E208" s="2" t="s">
         <v>834</v>
       </c>
+      <c r="E208" s="1" t="s">
+        <v>835</v>
+      </c>
       <c r="F208" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A209" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>838</v>
+        <v>834</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>839</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A210" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="E210" s="2" t="s">
         <v>843</v>
       </c>
+      <c r="E210" s="1" t="s">
+        <v>844</v>
+      </c>
       <c r="F210" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A211" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>847</v>
+        <v>843</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>848</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A212" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="E212" s="2" t="s">
         <v>852</v>
       </c>
+      <c r="E212" s="1" t="s">
+        <v>853</v>
+      </c>
       <c r="F212" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A213" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>856</v>
+        <v>852</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>857</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A214" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>860</v>
+        <v>852</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>861</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A215" s="1" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>864</v>
+        <v>852</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>865</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A216" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="E216" s="2" t="s">
         <v>869</v>
       </c>
+      <c r="E216" s="1" t="s">
+        <v>870</v>
+      </c>
       <c r="F216" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A217" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>873</v>
+        <v>869</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>874</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A218" s="1" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="E218" s="2" t="s">
         <v>877</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>878</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>879</v>
@@ -7756,16 +8598,16 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A219" s="1" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="E219" s="2" t="s">
         <v>881</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>882</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>883</v>
@@ -7773,24 +8615,24 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A220" s="1" t="s">
-        <v>798</v>
+        <v>884</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>564</v>
+        <v>885</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>561</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>906</v>
+        <v>114</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A221" s="1" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>7</v>
@@ -7798,111 +8640,971 @@
       <c r="C221" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="E221" s="2" t="s">
-        <v>887</v>
+      <c r="E221" s="1" t="s">
+        <v>888</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>907</v>
+        <v>889</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A222" s="1" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>891</v>
+        <v>892</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>893</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>908</v>
+        <v>895</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A223" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="D223" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="B223" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>894</v>
+      <c r="E223" s="1" t="s">
+        <v>897</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A224" s="1" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>897</v>
+        <v>892</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>901</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A225" s="1" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>900</v>
+        <v>892</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>905</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A226" s="1" t="s">
-        <v>901</v>
+        <v>819</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>559</v>
+        <v>7</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>904</v>
+        <v>722</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>907</v>
       </c>
       <c r="F226" s="1" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A227" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A228" s="1" t="s">
         <v>912</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A229" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A230" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A231" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A232" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A233" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A234" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A235" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A236" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A237" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A238" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A239" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A240" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A241" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A242" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A243" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A244" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A245" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A246" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A247" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A248" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A249" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A250" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A251" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A252" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A253" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A254" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A255" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A256" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A257" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A258" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A259" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A260" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A261" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A262" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A263" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A264" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A265" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A266" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A267" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A268" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A269" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A270" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A271" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A272" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F272" s="1" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A273" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A274" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A275" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>1108</v>
       </c>
     </row>
   </sheetData>
